--- a/exports/MIX-Lexicon-TEI-Dict-csv.xlsx
+++ b/exports/MIX-Lexicon-TEI-Dict-csv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB26E9E4-1122-AD42-AEB2-636915580666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E60D0A-7D5C-C44A-A6A0-8AB0EE223549}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1440" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{C5F768FB-AA19-0F4A-B868-C70D0F729A23}"/>
+    <workbookView xWindow="15740" yWindow="1000" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{C5F768FB-AA19-0F4A-B868-C70D0F729A23}"/>
   </bookViews>
   <sheets>
     <sheet name="Export-20190417" sheetId="9" r:id="rId1"/>
@@ -28725,14 +28725,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8923E69-7C1A-A64A-A90D-BAB0723D7B43}">
   <dimension ref="A1:AH973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="G380" sqref="G380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -28863,7 +28865,7 @@
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
@@ -28895,7 +28897,7 @@
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
@@ -28915,7 +28917,7 @@
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G5" t="s">
@@ -28935,7 +28937,7 @@
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G6" t="s">
@@ -28958,7 +28960,7 @@
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I7" t="s">
@@ -29024,7 +29026,7 @@
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G10" t="s">
@@ -29047,7 +29049,7 @@
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G11" t="s">
@@ -29070,7 +29072,7 @@
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G12" t="s">
@@ -29090,7 +29092,7 @@
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
       <c r="I13" t="s">
@@ -29133,7 +29135,7 @@
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G15" t="s">
@@ -29176,7 +29178,7 @@
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G17" t="s">
@@ -29196,7 +29198,7 @@
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G18" t="s">
@@ -29216,7 +29218,7 @@
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G19" t="s">
@@ -29239,7 +29241,7 @@
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G20" t="s">
@@ -29262,10 +29264,10 @@
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G21" t="s">
@@ -29300,7 +29302,7 @@
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G22" t="s">
@@ -29320,7 +29322,7 @@
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G23" t="s">
@@ -29343,7 +29345,7 @@
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G24" t="s">
@@ -29360,7 +29362,7 @@
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G25" t="s">
@@ -29380,10 +29382,10 @@
       <c r="A26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G26" t="s">
@@ -29412,7 +29414,7 @@
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>110</v>
       </c>
       <c r="G27" t="s">
@@ -29429,7 +29431,7 @@
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G28" t="s">
@@ -29446,10 +29448,10 @@
       <c r="A29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G29" t="s">
@@ -29466,7 +29468,7 @@
       <c r="A30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G30" t="s">
@@ -29486,7 +29488,7 @@
       <c r="A31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G31" t="s">
@@ -29506,7 +29508,7 @@
       <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>127</v>
       </c>
       <c r="G32" t="s">
@@ -29529,7 +29531,7 @@
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G33" t="s">
@@ -29561,7 +29563,7 @@
       <c r="A34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>135</v>
       </c>
       <c r="G34" t="s">
@@ -29587,7 +29589,7 @@
       <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G35" t="s">
@@ -29610,7 +29612,7 @@
       <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>141</v>
       </c>
       <c r="G36" t="s">
@@ -29630,7 +29632,7 @@
       <c r="A37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G37" t="s">
@@ -29650,7 +29652,7 @@
       <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>149</v>
       </c>
       <c r="G38" t="s">
@@ -29687,7 +29689,7 @@
       <c r="A40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>156</v>
       </c>
       <c r="G40" t="s">
@@ -29713,7 +29715,7 @@
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>162</v>
       </c>
       <c r="G41" t="s">
@@ -29730,7 +29732,7 @@
       <c r="A42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>165</v>
       </c>
       <c r="G42" t="s">
@@ -29747,7 +29749,7 @@
       <c r="A43" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>168</v>
       </c>
       <c r="G43" t="s">
@@ -29764,7 +29766,7 @@
       <c r="A44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G44" t="s">
@@ -29781,7 +29783,7 @@
       <c r="A45" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G45" t="s">
@@ -29801,7 +29803,7 @@
       <c r="A46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>178</v>
       </c>
       <c r="G46" t="s">
@@ -29824,7 +29826,7 @@
       <c r="A47" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>181</v>
       </c>
       <c r="G47" t="s">
@@ -29844,7 +29846,7 @@
       <c r="A48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>185</v>
       </c>
       <c r="G48" t="s">
@@ -29864,10 +29866,10 @@
       <c r="A49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>190</v>
       </c>
       <c r="G49" t="s">
@@ -29887,10 +29889,10 @@
       <c r="A50" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>195</v>
       </c>
       <c r="G50" t="s">
@@ -29950,7 +29952,7 @@
       <c r="A53" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>205</v>
       </c>
       <c r="G53" t="s">
@@ -30022,10 +30024,10 @@
       <c r="A56" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G56" t="s">
@@ -30057,7 +30059,7 @@
       <c r="A57" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>223</v>
       </c>
       <c r="G57" t="s">
@@ -30083,10 +30085,10 @@
       <c r="A58" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>227</v>
       </c>
       <c r="G58" t="s">
@@ -30115,7 +30117,7 @@
       <c r="A59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G59" t="s">
@@ -30138,7 +30140,7 @@
       <c r="A60" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>236</v>
       </c>
       <c r="G60" t="s">
@@ -30158,7 +30160,7 @@
       <c r="A61" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>240</v>
       </c>
       <c r="G61" t="s">
@@ -30181,7 +30183,7 @@
       <c r="A62" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>244</v>
       </c>
       <c r="G62" t="s">
@@ -30213,7 +30215,7 @@
       <c r="A63" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="4" t="s">
         <v>246</v>
       </c>
       <c r="G63" t="s">
@@ -30233,7 +30235,7 @@
       <c r="A64" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G64" t="s">
@@ -30265,7 +30267,7 @@
       <c r="A65" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>255</v>
       </c>
       <c r="G65" t="s">
@@ -30288,7 +30290,7 @@
       <c r="A66" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>257</v>
       </c>
       <c r="I66" t="s">
@@ -30305,7 +30307,7 @@
       <c r="A67" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>261</v>
       </c>
       <c r="G67" t="s">
@@ -30339,7 +30341,7 @@
       <c r="A69" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>266</v>
       </c>
       <c r="G69" t="s">
@@ -30359,7 +30361,7 @@
       <c r="A70" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>269</v>
       </c>
       <c r="G70" t="s">
@@ -30376,7 +30378,7 @@
       <c r="A71" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G71" t="s">
@@ -30393,7 +30395,7 @@
       <c r="A72" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>274</v>
       </c>
       <c r="G72" t="s">
@@ -30410,7 +30412,7 @@
       <c r="A73" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>277</v>
       </c>
       <c r="G73" t="s">
@@ -30427,7 +30429,7 @@
       <c r="A74" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>280</v>
       </c>
       <c r="G74" t="s">
@@ -30444,7 +30446,7 @@
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G75" t="s">
@@ -30473,7 +30475,7 @@
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G76" t="s">
@@ -30490,10 +30492,10 @@
       <c r="A77" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>285</v>
       </c>
       <c r="G77" t="s">
@@ -30522,10 +30524,10 @@
       <c r="A78" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>291</v>
       </c>
       <c r="G78" t="s">
@@ -30568,7 +30570,7 @@
       <c r="A80" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G80" t="s">
@@ -30585,7 +30587,7 @@
       <c r="A81" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>299</v>
       </c>
       <c r="G81" t="s">
@@ -30605,7 +30607,7 @@
       <c r="A82" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>303</v>
       </c>
       <c r="G82" t="s">
@@ -30628,7 +30630,7 @@
       <c r="A83" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>306</v>
       </c>
       <c r="G83" t="s">
@@ -30645,7 +30647,7 @@
       <c r="A84" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>269</v>
       </c>
       <c r="G84" t="s">
@@ -30662,13 +30664,13 @@
       <c r="A85" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="4" t="s">
         <v>311</v>
       </c>
       <c r="G85" t="s">
@@ -30688,7 +30690,7 @@
       <c r="A86" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="4" t="s">
         <v>315</v>
       </c>
       <c r="G86" t="s">
@@ -30708,7 +30710,7 @@
       <c r="A87" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G87" t="s">
@@ -30728,10 +30730,10 @@
       <c r="A88" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>324</v>
       </c>
       <c r="G88" t="s">
@@ -30754,7 +30756,7 @@
       <c r="A89" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G89" t="s">
@@ -30774,10 +30776,10 @@
       <c r="A90" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="4" t="s">
         <v>334</v>
       </c>
       <c r="G90" t="s">
@@ -30794,7 +30796,7 @@
       <c r="A91" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>2439</v>
       </c>
       <c r="G91" t="s">
@@ -30866,7 +30868,7 @@
       <c r="A94" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>337</v>
       </c>
       <c r="G94" t="s">
@@ -30903,7 +30905,7 @@
       <c r="A96" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>341</v>
       </c>
       <c r="G96" t="s">
@@ -31040,7 +31042,7 @@
       <c r="A103" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="4" t="s">
         <v>345</v>
       </c>
       <c r="G103" t="s">
@@ -31074,7 +31076,7 @@
       <c r="A105" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>351</v>
       </c>
       <c r="G105" t="s">
@@ -31091,7 +31093,7 @@
       <c r="A106" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="4" t="s">
         <v>354</v>
       </c>
       <c r="G106" t="s">
@@ -31108,7 +31110,7 @@
       <c r="A107" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>357</v>
       </c>
       <c r="G107" t="s">
@@ -31125,7 +31127,7 @@
       <c r="A108" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>359</v>
       </c>
       <c r="G108" t="s">
@@ -31202,7 +31204,7 @@
       <c r="A112" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="4" t="s">
         <v>368</v>
       </c>
       <c r="G112" t="s">
@@ -31222,7 +31224,7 @@
       <c r="A113" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="4" t="s">
         <v>372</v>
       </c>
       <c r="G113" t="s">
@@ -31239,7 +31241,7 @@
       <c r="A114" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>374</v>
       </c>
       <c r="G114" t="s">
@@ -31339,7 +31341,7 @@
       <c r="A119" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="4" t="s">
         <v>386</v>
       </c>
       <c r="G119" t="s">
@@ -31368,7 +31370,7 @@
       <c r="A120" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="4" t="s">
         <v>393</v>
       </c>
       <c r="G120" t="s">
@@ -31397,7 +31399,7 @@
       <c r="A121" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>398</v>
       </c>
       <c r="G121" t="s">
@@ -31417,7 +31419,7 @@
       <c r="A122" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="4" t="s">
         <v>402</v>
       </c>
       <c r="G122" t="s">
@@ -31454,7 +31456,7 @@
       <c r="A124" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="4" t="s">
         <v>409</v>
       </c>
       <c r="G124" t="s">
@@ -31494,7 +31496,7 @@
       <c r="A126" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="4" t="s">
         <v>414</v>
       </c>
       <c r="G126" t="s">
@@ -31517,7 +31519,7 @@
       <c r="A127" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="4" t="s">
         <v>418</v>
       </c>
       <c r="G127" t="s">
@@ -31534,7 +31536,7 @@
       <c r="A128" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="4" t="s">
         <v>421</v>
       </c>
       <c r="G128" t="s">
@@ -31551,7 +31553,7 @@
       <c r="A129" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="4" t="s">
         <v>424</v>
       </c>
       <c r="G129" t="s">
@@ -31589,7 +31591,7 @@
       <c r="A130" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="4" t="s">
         <v>428</v>
       </c>
       <c r="G130" t="s">
@@ -31612,7 +31614,7 @@
       <c r="A131" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="4" t="s">
         <v>432</v>
       </c>
       <c r="G131" t="s">
@@ -31635,10 +31637,10 @@
       <c r="A132" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="4" t="s">
         <v>436</v>
       </c>
       <c r="G132" t="s">
@@ -31658,7 +31660,7 @@
       <c r="A133" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="4" t="s">
         <v>440</v>
       </c>
       <c r="G133" t="s">
@@ -31675,10 +31677,10 @@
       <c r="A134" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="4" t="s">
         <v>444</v>
       </c>
       <c r="G134" t="s">
@@ -31701,7 +31703,7 @@
       <c r="A135" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="4" t="s">
         <v>447</v>
       </c>
       <c r="G135" t="s">
@@ -31721,7 +31723,7 @@
       <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="4" t="s">
         <v>451</v>
       </c>
       <c r="G136" t="s">
@@ -31786,7 +31788,7 @@
       <c r="A140" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>460</v>
       </c>
       <c r="G140" t="s">
@@ -31806,7 +31808,7 @@
       <c r="A141" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>464</v>
       </c>
       <c r="G141" t="s">
@@ -31823,7 +31825,7 @@
       <c r="A142" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>467</v>
       </c>
       <c r="G142" t="s">
@@ -31849,10 +31851,10 @@
       <c r="A143" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="4" t="s">
         <v>471</v>
       </c>
       <c r="G143" t="s">
@@ -31872,10 +31874,10 @@
       <c r="A144" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="4" t="s">
         <v>476</v>
       </c>
       <c r="G144" t="s">
@@ -31895,7 +31897,7 @@
       <c r="A145" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>480</v>
       </c>
       <c r="G145" t="s">
@@ -31912,7 +31914,7 @@
       <c r="A146" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="4" t="s">
         <v>483</v>
       </c>
       <c r="G146" t="s">
@@ -31932,7 +31934,7 @@
       <c r="A147" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>487</v>
       </c>
       <c r="G147" t="s">
@@ -31952,7 +31954,7 @@
       <c r="A148" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="4" t="s">
         <v>491</v>
       </c>
       <c r="G148" t="s">
@@ -31992,7 +31994,7 @@
       <c r="A150" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="4" t="s">
         <v>500</v>
       </c>
       <c r="G150" t="s">
@@ -35395,7 +35397,7 @@
       <c r="A290" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="4" t="s">
         <v>505</v>
       </c>
       <c r="G290" t="s">
@@ -35415,13 +35417,13 @@
       <c r="A291" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E291" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F291" s="4" t="s">
         <v>513</v>
       </c>
       <c r="G291" t="s">
@@ -35444,7 +35446,7 @@
       <c r="A292" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="4" t="s">
         <v>518</v>
       </c>
       <c r="G292" t="s">
@@ -35467,7 +35469,7 @@
       <c r="A293" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="4" t="s">
         <v>521</v>
       </c>
       <c r="G293" t="s">
@@ -35499,7 +35501,7 @@
       <c r="A294" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="4" t="s">
         <v>526</v>
       </c>
       <c r="G294" t="s">
@@ -35528,7 +35530,7 @@
       <c r="A295" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="4" t="s">
         <v>532</v>
       </c>
       <c r="G295" t="s">
@@ -35548,7 +35550,7 @@
       <c r="A296" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="4" t="s">
         <v>536</v>
       </c>
       <c r="G296" t="s">
@@ -35568,7 +35570,7 @@
       <c r="A297" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="4" t="s">
         <v>540</v>
       </c>
       <c r="G297" t="s">
@@ -35608,7 +35610,7 @@
       <c r="A299" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="4" t="s">
         <v>544</v>
       </c>
       <c r="G299" t="s">
@@ -35628,7 +35630,7 @@
       <c r="A300" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="4" t="s">
         <v>548</v>
       </c>
       <c r="G300" t="s">
@@ -35648,7 +35650,7 @@
       <c r="A301" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="4" t="s">
         <v>552</v>
       </c>
       <c r="G301" t="s">
@@ -35668,7 +35670,7 @@
       <c r="A302" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="4" t="s">
         <v>556</v>
       </c>
       <c r="G302" t="s">
@@ -35688,7 +35690,7 @@
       <c r="A303" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="4" t="s">
         <v>560</v>
       </c>
       <c r="G303" t="s">
@@ -35708,7 +35710,7 @@
       <c r="A304" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="4" t="s">
         <v>563</v>
       </c>
       <c r="G304" t="s">
@@ -35745,7 +35747,7 @@
       <c r="A306" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="4" t="s">
         <v>570</v>
       </c>
       <c r="G306" t="s">
@@ -35765,7 +35767,7 @@
       <c r="A307" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="4" t="s">
         <v>574</v>
       </c>
       <c r="G307" t="s">
@@ -35785,7 +35787,7 @@
       <c r="A308" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="4" t="s">
         <v>578</v>
       </c>
       <c r="G308" t="s">
@@ -35805,7 +35807,7 @@
       <c r="A309" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="4" t="s">
         <v>582</v>
       </c>
       <c r="G309" t="s">
@@ -35825,7 +35827,7 @@
       <c r="A310" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="4" t="s">
         <v>586</v>
       </c>
       <c r="G310" t="s">
@@ -35845,10 +35847,10 @@
       <c r="A311" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E311" s="4" t="s">
         <v>591</v>
       </c>
       <c r="G311" t="s">
@@ -35871,7 +35873,7 @@
       <c r="A312" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="4" t="s">
         <v>595</v>
       </c>
       <c r="G312" t="s">
@@ -35891,7 +35893,7 @@
       <c r="A313" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="4" t="s">
         <v>599</v>
       </c>
       <c r="G313" t="s">
@@ -35934,7 +35936,7 @@
       <c r="A315" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="4" t="s">
         <v>604</v>
       </c>
       <c r="G315" t="s">
@@ -35954,7 +35956,7 @@
       <c r="A316" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="4" t="s">
         <v>608</v>
       </c>
       <c r="G316" t="s">
@@ -35977,7 +35979,7 @@
       <c r="A317" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="4" t="s">
         <v>610</v>
       </c>
       <c r="G317" t="s">
@@ -36000,7 +36002,7 @@
       <c r="A318" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="4" t="s">
         <v>614</v>
       </c>
       <c r="G318" t="s">
@@ -36023,7 +36025,7 @@
       <c r="A319" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="4" t="s">
         <v>617</v>
       </c>
       <c r="G319" t="s">
@@ -36043,7 +36045,7 @@
       <c r="A320" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="4" t="s">
         <v>621</v>
       </c>
       <c r="G320" t="s">
@@ -36063,7 +36065,7 @@
       <c r="A321" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="4" t="s">
         <v>625</v>
       </c>
       <c r="G321" t="s">
@@ -36083,7 +36085,7 @@
       <c r="A322" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="4" t="s">
         <v>629</v>
       </c>
       <c r="G322" t="s">
@@ -36106,7 +36108,7 @@
       <c r="A323" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="4" t="s">
         <v>633</v>
       </c>
       <c r="G323" t="s">
@@ -36129,7 +36131,7 @@
       <c r="A324" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="4" t="s">
         <v>637</v>
       </c>
       <c r="G324" t="s">
@@ -36235,7 +36237,7 @@
       <c r="A329" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="4" t="s">
         <v>640</v>
       </c>
       <c r="G329" t="s">
@@ -36258,7 +36260,7 @@
       <c r="A330" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="4" t="s">
         <v>644</v>
       </c>
       <c r="G330" t="s">
@@ -36281,7 +36283,7 @@
       <c r="A331" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="4" t="s">
         <v>648</v>
       </c>
       <c r="G331" t="s">
@@ -36304,7 +36306,7 @@
       <c r="A332" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="4" t="s">
         <v>651</v>
       </c>
       <c r="G332" t="s">
@@ -36327,7 +36329,7 @@
       <c r="A333" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="4" t="s">
         <v>655</v>
       </c>
       <c r="G333" t="s">
@@ -36347,7 +36349,7 @@
       <c r="A334" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="4" t="s">
         <v>658</v>
       </c>
       <c r="G334" t="s">
@@ -36367,7 +36369,7 @@
       <c r="A335" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="4" t="s">
         <v>662</v>
       </c>
       <c r="G335" t="s">
@@ -36390,7 +36392,7 @@
       <c r="A336" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="4" t="s">
         <v>667</v>
       </c>
       <c r="G336" t="s">
@@ -36410,10 +36412,10 @@
       <c r="A337" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="4" t="s">
         <v>672</v>
       </c>
       <c r="G337" t="s">
@@ -36430,7 +36432,7 @@
       <c r="A338" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G338" t="s">
@@ -36447,10 +36449,10 @@
       <c r="A339" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="4" t="s">
         <v>677</v>
       </c>
       <c r="G339" t="s">
@@ -36473,7 +36475,7 @@
       <c r="A340" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="4" t="s">
         <v>680</v>
       </c>
       <c r="G340" t="s">
@@ -36544,7 +36546,7 @@
       <c r="A344" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="4" t="s">
         <v>692</v>
       </c>
       <c r="G344" t="s">
@@ -36578,7 +36580,7 @@
       <c r="A346" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="4" t="s">
         <v>697</v>
       </c>
       <c r="G346" t="s">
@@ -36598,7 +36600,7 @@
       <c r="A347" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="4" t="s">
         <v>701</v>
       </c>
       <c r="G347" t="s">
@@ -36672,7 +36674,7 @@
       <c r="A351" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="4" t="s">
         <v>709</v>
       </c>
       <c r="G351" t="s">
@@ -36706,7 +36708,7 @@
       <c r="A353" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="4" t="s">
         <v>713</v>
       </c>
       <c r="G353" t="s">
@@ -36726,7 +36728,7 @@
       <c r="A354" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="4" t="s">
         <v>717</v>
       </c>
       <c r="G354" t="s">
@@ -36746,7 +36748,7 @@
       <c r="A355" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="4" t="s">
         <v>721</v>
       </c>
       <c r="G355" t="s">
@@ -36766,7 +36768,7 @@
       <c r="A356" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="4" t="s">
         <v>725</v>
       </c>
       <c r="G356" t="s">
@@ -36786,7 +36788,7 @@
       <c r="A357" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="4" t="s">
         <v>729</v>
       </c>
       <c r="G357" t="s">
@@ -36806,7 +36808,7 @@
       <c r="A358" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="4" t="s">
         <v>733</v>
       </c>
       <c r="G358" t="s">
@@ -36826,7 +36828,7 @@
       <c r="A359" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="4" t="s">
         <v>737</v>
       </c>
       <c r="G359" t="s">
@@ -36843,7 +36845,7 @@
       <c r="A360" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="4" t="s">
         <v>740</v>
       </c>
       <c r="G360" t="s">
@@ -36860,7 +36862,7 @@
       <c r="A361" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="4" t="s">
         <v>744</v>
       </c>
       <c r="G361" t="s">
@@ -36877,7 +36879,7 @@
       <c r="A362" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="4" t="s">
         <v>746</v>
       </c>
       <c r="G362" t="s">
@@ -36897,7 +36899,7 @@
       <c r="A363" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="4" t="s">
         <v>749</v>
       </c>
       <c r="G363" t="s">
@@ -36914,7 +36916,7 @@
       <c r="A364" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="4" t="s">
         <v>752</v>
       </c>
       <c r="G364" t="s">
@@ -36928,7 +36930,7 @@
       <c r="A365" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="4" t="s">
         <v>755</v>
       </c>
       <c r="G365" t="s">
@@ -36948,7 +36950,7 @@
       <c r="A366" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="4" t="s">
         <v>758</v>
       </c>
       <c r="G366" t="s">
@@ -36962,7 +36964,7 @@
       <c r="A367" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="4" t="s">
         <v>761</v>
       </c>
       <c r="G367" t="s">
@@ -36979,7 +36981,7 @@
       <c r="A368" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="4" t="s">
         <v>764</v>
       </c>
       <c r="G368" t="s">
@@ -36993,7 +36995,7 @@
       <c r="A369" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="4" t="s">
         <v>767</v>
       </c>
       <c r="G369" t="s">
@@ -37007,7 +37009,7 @@
       <c r="A370" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="4" t="s">
         <v>770</v>
       </c>
       <c r="G370" t="s">
@@ -37024,7 +37026,7 @@
       <c r="A371" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="4" t="s">
         <v>773</v>
       </c>
       <c r="G371" t="s">
@@ -37044,7 +37046,7 @@
       <c r="A372" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="4" t="s">
         <v>777</v>
       </c>
       <c r="G372" t="s">
@@ -37064,7 +37066,7 @@
       <c r="A373" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="4" t="s">
         <v>781</v>
       </c>
       <c r="G373" t="s">
@@ -37105,7 +37107,7 @@
       <c r="A374" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="4" t="s">
         <v>787</v>
       </c>
       <c r="G374" t="s">
@@ -37139,7 +37141,7 @@
       <c r="A376" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="4" t="s">
         <v>793</v>
       </c>
       <c r="G376" t="s">
@@ -37165,7 +37167,7 @@
       <c r="A377" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="4" t="s">
         <v>796</v>
       </c>
       <c r="G377" t="s">
@@ -37214,7 +37216,7 @@
       <c r="A379" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="4" t="s">
         <v>804</v>
       </c>
       <c r="G379" t="s">
@@ -37251,7 +37253,7 @@
       <c r="A381" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="4" t="s">
         <v>810</v>
       </c>
       <c r="G381" t="s">
@@ -37271,7 +37273,7 @@
       <c r="A382" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="4" t="s">
         <v>812</v>
       </c>
       <c r="G382" t="s">
@@ -37291,7 +37293,7 @@
       <c r="A383" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="4" t="s">
         <v>814</v>
       </c>
       <c r="G383" t="s">
@@ -37340,7 +37342,7 @@
       <c r="A385" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="4" t="s">
         <v>818</v>
       </c>
       <c r="G385" t="s">
@@ -37381,7 +37383,7 @@
       <c r="A386" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="4" t="s">
         <v>796</v>
       </c>
       <c r="G386" t="s">
@@ -37404,7 +37406,7 @@
       <c r="A387" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="4" t="s">
         <v>822</v>
       </c>
       <c r="G387" t="s">
@@ -37427,7 +37429,7 @@
       <c r="A388" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="4" t="s">
         <v>826</v>
       </c>
       <c r="G388" t="s">
@@ -37453,7 +37455,7 @@
       <c r="A389" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="4" t="s">
         <v>829</v>
       </c>
       <c r="G389" t="s">
@@ -37476,7 +37478,7 @@
       <c r="A390" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="4" t="s">
         <v>832</v>
       </c>
       <c r="G390" t="s">
@@ -37598,7 +37600,7 @@
       <c r="A397" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="4" t="s">
         <v>847</v>
       </c>
       <c r="G397" t="s">
@@ -37615,7 +37617,7 @@
       <c r="A398" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="4" t="s">
         <v>850</v>
       </c>
       <c r="G398" t="s">
@@ -37638,7 +37640,7 @@
       <c r="A399" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="4" t="s">
         <v>850</v>
       </c>
       <c r="G399" t="s">
@@ -37655,7 +37657,7 @@
       <c r="A400" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="4" t="s">
         <v>854</v>
       </c>
       <c r="G400" t="s">
@@ -37672,7 +37674,7 @@
       <c r="A401" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="4" t="s">
         <v>854</v>
       </c>
       <c r="G401" t="s">
@@ -37692,7 +37694,7 @@
       <c r="A402" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="4" t="s">
         <v>858</v>
       </c>
       <c r="G402" t="s">
@@ -37709,7 +37711,7 @@
       <c r="A403" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="4" t="s">
         <v>861</v>
       </c>
       <c r="G403" t="s">
@@ -37732,7 +37734,7 @@
       <c r="A404" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="4" t="s">
         <v>864</v>
       </c>
       <c r="G404" t="s">
@@ -37752,7 +37754,7 @@
       <c r="A405" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="4" t="s">
         <v>868</v>
       </c>
       <c r="G405" t="s">
@@ -37781,7 +37783,7 @@
       <c r="A406" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="4" t="s">
         <v>874</v>
       </c>
       <c r="G406" t="s">
@@ -37801,7 +37803,7 @@
       <c r="A407" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="4" t="s">
         <v>876</v>
       </c>
       <c r="G407" t="s">
@@ -37824,7 +37826,7 @@
       <c r="A408" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="4" t="s">
         <v>879</v>
       </c>
       <c r="G408" t="s">
@@ -37844,7 +37846,7 @@
       <c r="A409" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="4" t="s">
         <v>883</v>
       </c>
       <c r="G409" t="s">
@@ -37861,7 +37863,7 @@
       <c r="A410" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="4" t="s">
         <v>885</v>
       </c>
       <c r="G410" t="s">
@@ -37881,7 +37883,7 @@
       <c r="A411" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="4" t="s">
         <v>887</v>
       </c>
       <c r="G411" t="s">
@@ -37901,7 +37903,7 @@
       <c r="A412" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="4" t="s">
         <v>891</v>
       </c>
       <c r="G412" t="s">
@@ -37936,7 +37938,7 @@
       <c r="A413" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="4" t="s">
         <v>893</v>
       </c>
       <c r="G413" t="s">
@@ -37956,7 +37958,7 @@
       <c r="A414" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="4" t="s">
         <v>896</v>
       </c>
       <c r="G414" t="s">
@@ -37985,7 +37987,7 @@
       <c r="A415" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="4" t="s">
         <v>899</v>
       </c>
       <c r="G415" t="s">
@@ -38008,7 +38010,7 @@
       <c r="A416" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="4" t="s">
         <v>903</v>
       </c>
       <c r="G416" t="s">
@@ -38028,7 +38030,7 @@
       <c r="A417" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="4" t="s">
         <v>905</v>
       </c>
       <c r="G417" t="s">
@@ -38051,7 +38053,7 @@
       <c r="A418" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="4" t="s">
         <v>909</v>
       </c>
       <c r="G418" t="s">
@@ -38086,7 +38088,7 @@
       <c r="A419" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="4" t="s">
         <v>914</v>
       </c>
       <c r="G419" t="s">
@@ -38121,7 +38123,7 @@
       <c r="A420" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="4" t="s">
         <v>916</v>
       </c>
       <c r="G420" t="s">
@@ -38141,7 +38143,7 @@
       <c r="A421" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="4" t="s">
         <v>920</v>
       </c>
       <c r="G421" t="s">
@@ -38158,7 +38160,7 @@
       <c r="A422" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="4" t="s">
         <v>903</v>
       </c>
       <c r="G422" t="s">
@@ -38178,7 +38180,7 @@
       <c r="A423" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="4" t="s">
         <v>924</v>
       </c>
       <c r="G423" t="s">
@@ -38198,10 +38200,10 @@
       <c r="A424" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="4" t="s">
         <v>928</v>
       </c>
       <c r="G424" t="s">
@@ -38224,7 +38226,7 @@
       <c r="A425" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="4" t="s">
         <v>932</v>
       </c>
       <c r="G425" t="s">
@@ -38264,7 +38266,7 @@
       <c r="A427" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="4" t="s">
         <v>937</v>
       </c>
       <c r="G427" t="s">
@@ -38307,7 +38309,7 @@
       <c r="A429" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="4" t="s">
         <v>939</v>
       </c>
       <c r="G429" t="s">
@@ -38485,7 +38487,7 @@
       <c r="A437" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="4" t="s">
         <v>944</v>
       </c>
       <c r="G437" t="s">
@@ -38618,7 +38620,7 @@
       <c r="A445" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="4" t="s">
         <v>955</v>
       </c>
       <c r="G445" t="s">
@@ -38641,7 +38643,7 @@
       <c r="A446" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="4" t="s">
         <v>959</v>
       </c>
       <c r="G446" t="s">
@@ -38664,7 +38666,7 @@
       <c r="A447" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="4" t="s">
         <v>962</v>
       </c>
       <c r="G447" t="s">
@@ -38807,7 +38809,7 @@
       <c r="A454" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C454" s="4" t="s">
         <v>969</v>
       </c>
       <c r="G454" t="s">
@@ -38830,7 +38832,7 @@
       <c r="A455" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="4" t="s">
         <v>972</v>
       </c>
       <c r="G455" t="s">
@@ -38853,7 +38855,7 @@
       <c r="A456" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D456" s="4" t="s">
         <v>975</v>
       </c>
       <c r="G456" t="s">
@@ -38876,7 +38878,7 @@
       <c r="A457" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="4" t="s">
         <v>979</v>
       </c>
       <c r="G457" t="s">
@@ -38908,7 +38910,7 @@
       <c r="A458" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="4" t="s">
         <v>985</v>
       </c>
       <c r="G458" t="s">
@@ -38974,7 +38976,7 @@
       <c r="A461" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C461" s="4" t="s">
         <v>990</v>
       </c>
       <c r="G461" t="s">
@@ -39017,7 +39019,7 @@
       <c r="A463" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D463" s="4" t="s">
         <v>994</v>
       </c>
       <c r="G463" t="s">
@@ -39083,7 +39085,7 @@
       <c r="A466" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="D466" t="s">
+      <c r="D466" s="4" t="s">
         <v>1002</v>
       </c>
       <c r="G466" t="s">
@@ -39123,7 +39125,7 @@
       <c r="A468" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C468" s="4" t="s">
         <v>1005</v>
       </c>
       <c r="G468" t="s">
@@ -39188,10 +39190,10 @@
       <c r="A472" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D472" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="G472" t="s">
@@ -39305,10 +39307,10 @@
       <c r="A478" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="D478" t="s">
+      <c r="D478" s="4" t="s">
         <v>1021</v>
       </c>
       <c r="G478" t="s">
@@ -39331,7 +39333,7 @@
       <c r="A479" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D479" s="4" t="s">
         <v>1024</v>
       </c>
       <c r="G479" t="s">
@@ -39354,7 +39356,7 @@
       <c r="A480" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C480" s="4" t="s">
         <v>1028</v>
       </c>
       <c r="G480" t="s">
@@ -39374,7 +39376,7 @@
       <c r="A481" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="D481" t="s">
+      <c r="D481" s="4" t="s">
         <v>1031</v>
       </c>
       <c r="G481" t="s">
@@ -39397,7 +39399,7 @@
       <c r="A482" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="4" t="s">
         <v>1034</v>
       </c>
       <c r="G482" t="s">
@@ -39417,7 +39419,7 @@
       <c r="A483" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="4" t="s">
         <v>1038</v>
       </c>
       <c r="G483" t="s">
@@ -39440,7 +39442,7 @@
       <c r="A484" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="4" t="s">
         <v>1042</v>
       </c>
       <c r="G484" t="s">
@@ -39460,7 +39462,7 @@
       <c r="A485" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D485" t="s">
+      <c r="D485" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="G485" t="s">
@@ -39483,7 +39485,7 @@
       <c r="A486" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="G486" t="s">
@@ -39506,7 +39508,7 @@
       <c r="A487" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="4" t="s">
         <v>1050</v>
       </c>
       <c r="G487" t="s">
@@ -39526,7 +39528,7 @@
       <c r="A488" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="4" t="s">
         <v>1053</v>
       </c>
       <c r="G488" t="s">
@@ -39549,7 +39551,7 @@
       <c r="A489" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="4" t="s">
         <v>1057</v>
       </c>
       <c r="G489" t="s">
@@ -39572,7 +39574,7 @@
       <c r="A490" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D490" s="4" t="s">
         <v>1061</v>
       </c>
       <c r="G490" t="s">
@@ -39595,7 +39597,7 @@
       <c r="A491" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="4" t="s">
         <v>1065</v>
       </c>
       <c r="G491" t="s">
@@ -39635,7 +39637,7 @@
       <c r="A493" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="4" t="s">
         <v>1073</v>
       </c>
       <c r="G493" t="s">
@@ -39658,7 +39660,7 @@
       <c r="A494" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="4" t="s">
         <v>1078</v>
       </c>
       <c r="G494" t="s">
@@ -39678,7 +39680,7 @@
       <c r="A495" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="4" t="s">
         <v>1082</v>
       </c>
       <c r="G495" t="s">
@@ -39698,7 +39700,7 @@
       <c r="A496" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="4" t="s">
         <v>1086</v>
       </c>
       <c r="G496" t="s">
@@ -39718,7 +39720,7 @@
       <c r="A497" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="4" t="s">
         <v>1090</v>
       </c>
       <c r="I497" t="s">
@@ -39735,7 +39737,7 @@
       <c r="A498" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="4" t="s">
         <v>1094</v>
       </c>
       <c r="G498" t="s">
@@ -39755,7 +39757,7 @@
       <c r="A499" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="4" t="s">
         <v>1097</v>
       </c>
       <c r="G499" t="s">
@@ -39775,7 +39777,7 @@
       <c r="A500" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="4" t="s">
         <v>1101</v>
       </c>
       <c r="G500" t="s">
@@ -39795,7 +39797,7 @@
       <c r="A501" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="4" t="s">
         <v>1103</v>
       </c>
       <c r="G501" t="s">
@@ -39815,7 +39817,7 @@
       <c r="A502" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="4" t="s">
         <v>1105</v>
       </c>
       <c r="G502" t="s">
@@ -39835,7 +39837,7 @@
       <c r="A503" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="4" t="s">
         <v>1107</v>
       </c>
       <c r="G503" t="s">
@@ -39858,7 +39860,7 @@
       <c r="A504" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="4" t="s">
         <v>1110</v>
       </c>
       <c r="G504" t="s">
@@ -39878,10 +39880,10 @@
       <c r="A505" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="D505" t="s">
+      <c r="D505" s="4" t="s">
         <v>1114</v>
       </c>
       <c r="G505" t="s">
@@ -39963,7 +39965,7 @@
       <c r="A510" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="4" t="s">
         <v>1124</v>
       </c>
       <c r="G510" t="s">
@@ -39980,7 +39982,7 @@
       <c r="A511" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="4" t="s">
         <v>1127</v>
       </c>
       <c r="G511" t="s">
@@ -40039,7 +40041,7 @@
       <c r="A515" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="4" t="s">
         <v>1136</v>
       </c>
       <c r="G515" t="s">
@@ -40084,7 +40086,7 @@
       <c r="A518" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="4" t="s">
         <v>1143</v>
       </c>
       <c r="G518" t="s">
@@ -40101,7 +40103,7 @@
       <c r="A519" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="4" t="s">
         <v>1145</v>
       </c>
       <c r="G519" t="s">
@@ -40118,7 +40120,7 @@
       <c r="A520" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="4" t="s">
         <v>1147</v>
       </c>
       <c r="G520" t="s">
@@ -40138,7 +40140,7 @@
       <c r="A521" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="4" t="s">
         <v>1150</v>
       </c>
       <c r="G521" t="s">
@@ -40155,7 +40157,7 @@
       <c r="A522" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="4" t="s">
         <v>1153</v>
       </c>
       <c r="G522" t="s">
@@ -40172,7 +40174,7 @@
       <c r="A523" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="4" t="s">
         <v>1156</v>
       </c>
       <c r="G523" t="s">
@@ -40189,7 +40191,7 @@
       <c r="A524" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="4" t="s">
         <v>1159</v>
       </c>
       <c r="G524" t="s">
@@ -40937,7 +40939,7 @@
       <c r="A571" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B571" s="4" t="s">
         <v>1220</v>
       </c>
       <c r="G571" t="s">
@@ -40957,10 +40959,10 @@
       <c r="A572" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B572" s="4" t="s">
         <v>1223</v>
       </c>
-      <c r="E572" t="s">
+      <c r="E572" s="4" t="s">
         <v>1224</v>
       </c>
       <c r="G572" t="s">
@@ -40983,7 +40985,7 @@
       <c r="A573" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="B573" t="s">
+      <c r="B573" s="4" t="s">
         <v>2677</v>
       </c>
       <c r="G573" t="s">
@@ -41006,10 +41008,10 @@
       <c r="A574" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B574" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="E574" t="s">
+      <c r="E574" s="4" t="s">
         <v>1229</v>
       </c>
       <c r="G574" t="s">
@@ -41032,7 +41034,7 @@
       <c r="A575" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="4" t="s">
         <v>1231</v>
       </c>
       <c r="G575" t="s">
@@ -41055,7 +41057,7 @@
       <c r="A576" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B576" s="4" t="s">
         <v>1234</v>
       </c>
       <c r="G576" t="s">
@@ -41075,10 +41077,10 @@
       <c r="A577" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="D577" t="s">
+      <c r="D577" s="4" t="s">
         <v>1237</v>
       </c>
       <c r="G577" t="s">
@@ -41161,13 +41163,13 @@
       <c r="A581" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B581" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="E581" t="s">
+      <c r="E581" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="F581" t="s">
+      <c r="F581" s="4" t="s">
         <v>1242</v>
       </c>
       <c r="G581" t="s">
@@ -41190,7 +41192,7 @@
       <c r="A582" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B582" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="G582" t="s">
@@ -41213,7 +41215,7 @@
       <c r="A583" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B583" s="4" t="s">
         <v>1247</v>
       </c>
       <c r="G583" t="s">
@@ -41236,13 +41238,13 @@
       <c r="A584" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B584" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="E584" t="s">
+      <c r="E584" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="F584" t="s">
+      <c r="F584" s="4" t="s">
         <v>1252</v>
       </c>
       <c r="G584" t="s">
@@ -41265,13 +41267,13 @@
       <c r="A585" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B585" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="E585" t="s">
+      <c r="E585" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="F585" t="s">
+      <c r="F585" s="4" t="s">
         <v>1257</v>
       </c>
       <c r="G585" t="s">
@@ -41308,7 +41310,7 @@
       <c r="A587" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="4" t="s">
         <v>1260</v>
       </c>
       <c r="G587" t="s">
@@ -41345,10 +41347,10 @@
       <c r="A589" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B589" s="4" t="s">
         <v>1265</v>
       </c>
-      <c r="D589" t="s">
+      <c r="D589" s="4" t="s">
         <v>1266</v>
       </c>
       <c r="G589" t="s">
@@ -41388,7 +41390,7 @@
       <c r="A591" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B591" s="4" t="s">
         <v>1268</v>
       </c>
       <c r="G591" t="s">
@@ -41457,7 +41459,7 @@
       <c r="A594" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B594" s="4" t="s">
         <v>2697</v>
       </c>
       <c r="G594" t="s">
@@ -41520,7 +41522,7 @@
       <c r="A597" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B597" s="4" t="s">
         <v>1276</v>
       </c>
       <c r="G597" t="s">
@@ -41563,7 +41565,7 @@
       <c r="A599" s="1" t="s">
         <v>3506</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="4" t="s">
         <v>3507</v>
       </c>
       <c r="G599" t="s">
@@ -41589,7 +41591,7 @@
       <c r="A600" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B600" s="4" t="s">
         <v>1279</v>
       </c>
       <c r="G600" t="s">
@@ -41609,7 +41611,7 @@
       <c r="A601" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B601" t="s">
+      <c r="B601" s="4" t="s">
         <v>1281</v>
       </c>
       <c r="G601" t="s">
@@ -41652,7 +41654,7 @@
       <c r="A603" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="D603" t="s">
+      <c r="D603" s="4" t="s">
         <v>1285</v>
       </c>
       <c r="G603" t="s">
@@ -41675,7 +41677,7 @@
       <c r="A604" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="D604" t="s">
+      <c r="D604" s="4" t="s">
         <v>1287</v>
       </c>
       <c r="G604" t="s">
@@ -41695,7 +41697,7 @@
       <c r="A605" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="B605" t="s">
+      <c r="B605" s="4" t="s">
         <v>1291</v>
       </c>
       <c r="G605" t="s">
@@ -41718,7 +41720,7 @@
       <c r="A606" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B606" s="4" t="s">
         <v>1294</v>
       </c>
       <c r="G606" t="s">
@@ -41738,7 +41740,7 @@
       <c r="A607" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B607" s="4" t="s">
         <v>1296</v>
       </c>
       <c r="G607" t="s">
@@ -41755,10 +41757,10 @@
       <c r="A608" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B608" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="D608" t="s">
+      <c r="D608" s="4" t="s">
         <v>1300</v>
       </c>
       <c r="G608" t="s">
@@ -41778,7 +41780,7 @@
       <c r="A609" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="B609" t="s">
+      <c r="B609" s="4" t="s">
         <v>1304</v>
       </c>
       <c r="G609" t="s">
@@ -41816,7 +41818,7 @@
       <c r="A610" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="D610" t="s">
+      <c r="D610" s="4" t="s">
         <v>1308</v>
       </c>
       <c r="G610" t="s">
@@ -41868,7 +41870,7 @@
       <c r="A612" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B612" t="s">
+      <c r="B612" s="4" t="s">
         <v>1310</v>
       </c>
       <c r="G612" t="s">
@@ -41888,10 +41890,10 @@
       <c r="A613" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B613" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="C613" t="s">
+      <c r="C613" s="4" t="s">
         <v>1314</v>
       </c>
       <c r="G613" t="s">
@@ -41911,7 +41913,7 @@
       <c r="A614" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="D614" t="s">
+      <c r="D614" s="4" t="s">
         <v>1318</v>
       </c>
       <c r="G614" t="s">
@@ -41931,7 +41933,7 @@
       <c r="A615" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="4" t="s">
         <v>1320</v>
       </c>
       <c r="G615" t="s">
@@ -41971,7 +41973,7 @@
       <c r="A617" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="D617" t="s">
+      <c r="D617" s="4" t="s">
         <v>1327</v>
       </c>
       <c r="G617" t="s">
@@ -41991,7 +41993,7 @@
       <c r="A618" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B618" s="4" t="s">
         <v>1329</v>
       </c>
       <c r="G618" t="s">
@@ -42011,7 +42013,7 @@
       <c r="A619" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B619" s="4" t="s">
         <v>1333</v>
       </c>
       <c r="G619" t="s">
@@ -42031,7 +42033,7 @@
       <c r="A620" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="C620" t="s">
+      <c r="C620" s="4" t="s">
         <v>1335</v>
       </c>
       <c r="G620" t="s">
@@ -42051,7 +42053,7 @@
       <c r="A621" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="4" t="s">
         <v>1339</v>
       </c>
       <c r="G621" t="s">
@@ -42068,10 +42070,10 @@
       <c r="A622" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C622" t="s">
+      <c r="C622" s="4" t="s">
         <v>1341</v>
       </c>
       <c r="G622" t="s">
@@ -42091,7 +42093,7 @@
       <c r="A623" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="4" t="s">
         <v>1345</v>
       </c>
       <c r="G623" t="s">
@@ -42136,7 +42138,7 @@
       <c r="A626" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="D626" t="s">
+      <c r="D626" s="4" t="s">
         <v>1352</v>
       </c>
       <c r="G626" t="s">
@@ -42156,7 +42158,7 @@
       <c r="A627" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="C627" t="s">
+      <c r="C627" s="4" t="s">
         <v>1356</v>
       </c>
       <c r="G627" t="s">
@@ -42179,7 +42181,7 @@
       <c r="A628" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="B628" t="s">
+      <c r="B628" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="G628" t="s">
@@ -42202,7 +42204,7 @@
       <c r="A629" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="D629" t="s">
+      <c r="D629" s="4" t="s">
         <v>1363</v>
       </c>
       <c r="G629" t="s">
@@ -42256,7 +42258,7 @@
       <c r="A632" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="D632" t="s">
+      <c r="D632" s="4" t="s">
         <v>1369</v>
       </c>
       <c r="G632" t="s">
@@ -42273,10 +42275,10 @@
       <c r="A633" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B633" t="s">
+      <c r="B633" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="E633" t="s">
+      <c r="E633" s="4" t="s">
         <v>1371</v>
       </c>
       <c r="G633" t="s">
@@ -42313,7 +42315,7 @@
       <c r="A635" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="4" t="s">
         <v>1378</v>
       </c>
       <c r="G635" t="s">
@@ -42333,7 +42335,7 @@
       <c r="A636" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="B636" t="s">
+      <c r="B636" s="4" t="s">
         <v>1381</v>
       </c>
       <c r="G636" t="s">
@@ -42353,7 +42355,7 @@
       <c r="A637" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="B637" t="s">
+      <c r="B637" s="4" t="s">
         <v>1385</v>
       </c>
       <c r="G637" t="s">
@@ -42373,7 +42375,7 @@
       <c r="A638" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="B638" t="s">
+      <c r="B638" s="4" t="s">
         <v>1389</v>
       </c>
       <c r="G638" t="s">
@@ -42393,7 +42395,7 @@
       <c r="A639" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="D639" t="s">
+      <c r="D639" s="4" t="s">
         <v>1392</v>
       </c>
       <c r="G639" t="s">
@@ -42416,7 +42418,7 @@
       <c r="A640" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="C640" t="s">
+      <c r="C640" s="4" t="s">
         <v>1396</v>
       </c>
       <c r="G640" t="s">
@@ -42442,7 +42444,7 @@
       <c r="A641" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="D641" t="s">
+      <c r="D641" s="4" t="s">
         <v>1399</v>
       </c>
       <c r="G641" t="s">
@@ -42476,10 +42478,10 @@
       <c r="A643" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="C643" t="s">
+      <c r="C643" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="D643" t="s">
+      <c r="D643" s="4" t="s">
         <v>1407</v>
       </c>
       <c r="I643" t="s">
@@ -42496,7 +42498,7 @@
       <c r="A644" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="D644" t="s">
+      <c r="D644" s="4" t="s">
         <v>1409</v>
       </c>
       <c r="G644" t="s">
@@ -42533,7 +42535,7 @@
       <c r="A646" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B646" t="s">
+      <c r="B646" s="4" t="s">
         <v>599</v>
       </c>
       <c r="I646" t="s">
@@ -42572,7 +42574,7 @@
       <c r="A649" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="B649" t="s">
+      <c r="B649" s="4" t="s">
         <v>1419</v>
       </c>
       <c r="G649" t="s">
@@ -42595,7 +42597,7 @@
       <c r="A650" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="C650" t="s">
+      <c r="C650" s="4" t="s">
         <v>1421</v>
       </c>
       <c r="G650" t="s">
@@ -42641,7 +42643,7 @@
       <c r="A652" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="B652" t="s">
+      <c r="B652" s="4" t="s">
         <v>1426</v>
       </c>
       <c r="I652" t="s">
@@ -42658,7 +42660,7 @@
       <c r="A653" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B653" s="4" t="s">
         <v>1430</v>
       </c>
       <c r="G653" t="s">
@@ -42681,7 +42683,7 @@
       <c r="A654" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="D654" t="s">
+      <c r="D654" s="4" t="s">
         <v>1434</v>
       </c>
       <c r="G654" t="s">
@@ -42874,10 +42876,10 @@
       <c r="A662" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="B662" t="s">
+      <c r="B662" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="C662" t="s">
+      <c r="C662" s="4" t="s">
         <v>1438</v>
       </c>
       <c r="G662" t="s">
@@ -42897,7 +42899,7 @@
       <c r="A663" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="B663" t="s">
+      <c r="B663" s="4" t="s">
         <v>1442</v>
       </c>
       <c r="G663" t="s">
@@ -42917,7 +42919,7 @@
       <c r="A664" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="D664" t="s">
+      <c r="D664" s="4" t="s">
         <v>1446</v>
       </c>
       <c r="G664" t="s">
@@ -42937,7 +42939,7 @@
       <c r="A665" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="B665" t="s">
+      <c r="B665" s="4" t="s">
         <v>1447</v>
       </c>
       <c r="G665" t="s">
@@ -42954,7 +42956,7 @@
       <c r="A666" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B666" t="s">
+      <c r="B666" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G666" t="s">
@@ -42977,7 +42979,7 @@
       <c r="A667" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="C667" t="s">
+      <c r="C667" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="G667" t="s">
@@ -43000,7 +43002,7 @@
       <c r="A668" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="C668" t="s">
+      <c r="C668" s="4" t="s">
         <v>1454</v>
       </c>
       <c r="G668" t="s">
@@ -43020,10 +43022,10 @@
       <c r="A669" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="B669" t="s">
+      <c r="B669" s="4" t="s">
         <v>1457</v>
       </c>
-      <c r="E669" t="s">
+      <c r="E669" s="4" t="s">
         <v>1458</v>
       </c>
       <c r="G669" t="s">
@@ -43061,10 +43063,10 @@
       <c r="A670" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="B670" t="s">
+      <c r="B670" s="4" t="s">
         <v>1463</v>
       </c>
-      <c r="C670" t="s">
+      <c r="C670" s="4" t="s">
         <v>1463</v>
       </c>
       <c r="G670" t="s">
@@ -43084,10 +43086,10 @@
       <c r="A671" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="B671" t="s">
+      <c r="B671" s="4" t="s">
         <v>1467</v>
       </c>
-      <c r="E671" t="s">
+      <c r="E671" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="G671" t="s">
@@ -43107,7 +43109,7 @@
       <c r="A672" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="B672" t="s">
+      <c r="B672" s="4" t="s">
         <v>1472</v>
       </c>
       <c r="G672" t="s">
@@ -43144,7 +43146,7 @@
       <c r="A674" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="B674" t="s">
+      <c r="B674" s="4" t="s">
         <v>1478</v>
       </c>
       <c r="G674" t="s">
@@ -43161,7 +43163,7 @@
       <c r="A675" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="B675" t="s">
+      <c r="B675" s="4" t="s">
         <v>1482</v>
       </c>
       <c r="G675" t="s">
@@ -43178,10 +43180,10 @@
       <c r="A676" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="B676" t="s">
+      <c r="B676" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="D676" t="s">
+      <c r="D676" s="4" t="s">
         <v>1486</v>
       </c>
       <c r="G676" t="s">
@@ -43210,7 +43212,7 @@
       <c r="A677" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="B677" t="s">
+      <c r="B677" s="4" t="s">
         <v>1491</v>
       </c>
       <c r="G677" t="s">
@@ -43308,7 +43310,7 @@
       <c r="A681" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="B681" t="s">
+      <c r="B681" s="4" t="s">
         <v>1509</v>
       </c>
       <c r="G681" t="s">
@@ -43331,7 +43333,7 @@
       <c r="A682" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="B682" t="s">
+      <c r="B682" s="4" t="s">
         <v>1512</v>
       </c>
       <c r="G682" t="s">
@@ -43351,7 +43353,7 @@
       <c r="A683" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="B683" t="s">
+      <c r="B683" s="4" t="s">
         <v>1515</v>
       </c>
       <c r="G683" t="s">
@@ -43371,7 +43373,7 @@
       <c r="A684" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="B684" t="s">
+      <c r="B684" s="4" t="s">
         <v>1518</v>
       </c>
       <c r="G684" t="s">
@@ -43391,7 +43393,7 @@
       <c r="A685" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="B685" t="s">
+      <c r="B685" s="4" t="s">
         <v>1521</v>
       </c>
       <c r="G685" t="s">
@@ -43444,7 +43446,7 @@
       <c r="A689" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B689" s="4" t="s">
         <v>1528</v>
       </c>
       <c r="G689" t="s">
@@ -43464,7 +43466,7 @@
       <c r="A690" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B690" s="4" t="s">
         <v>1531</v>
       </c>
       <c r="G690" t="s">
@@ -43492,7 +43494,7 @@
       <c r="A692" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="B692" t="s">
+      <c r="B692" s="4" t="s">
         <v>1535</v>
       </c>
       <c r="G692" t="s">
@@ -43512,7 +43514,7 @@
       <c r="A693" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="B693" t="s">
+      <c r="B693" s="4" t="s">
         <v>1538</v>
       </c>
       <c r="G693" t="s">
@@ -43532,7 +43534,7 @@
       <c r="A694" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="B694" t="s">
+      <c r="B694" s="4" t="s">
         <v>1541</v>
       </c>
       <c r="G694" t="s">
@@ -43552,7 +43554,7 @@
       <c r="A695" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="B695" t="s">
+      <c r="B695" s="4" t="s">
         <v>1544</v>
       </c>
       <c r="G695" t="s">
@@ -43572,10 +43574,10 @@
       <c r="A696" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="B696" t="s">
+      <c r="B696" s="4" t="s">
         <v>1547</v>
       </c>
-      <c r="E696" t="s">
+      <c r="E696" s="4" t="s">
         <v>1548</v>
       </c>
       <c r="G696" t="s">
@@ -43595,7 +43597,7 @@
       <c r="A697" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="B697" t="s">
+      <c r="B697" s="4" t="s">
         <v>1551</v>
       </c>
       <c r="G697" t="s">
@@ -43615,7 +43617,7 @@
       <c r="A698" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="B698" t="s">
+      <c r="B698" s="4" t="s">
         <v>1554</v>
       </c>
       <c r="G698" t="s">
@@ -43635,7 +43637,7 @@
       <c r="A699" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B699" t="s">
+      <c r="B699" s="4" t="s">
         <v>333</v>
       </c>
       <c r="G699" t="s">
@@ -43655,10 +43657,10 @@
       <c r="A700" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="B700" t="s">
+      <c r="B700" s="4" t="s">
         <v>1558</v>
       </c>
-      <c r="D700" t="s">
+      <c r="D700" s="4" t="s">
         <v>1559</v>
       </c>
       <c r="G700" t="s">
@@ -43681,10 +43683,10 @@
       <c r="A701" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="B701" t="s">
+      <c r="B701" s="4" t="s">
         <v>1563</v>
       </c>
-      <c r="D701" t="s">
+      <c r="D701" s="4" t="s">
         <v>1564</v>
       </c>
       <c r="G701" t="s">
@@ -43727,7 +43729,7 @@
       <c r="A703" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="D703" t="s">
+      <c r="D703" s="4" t="s">
         <v>1571</v>
       </c>
       <c r="I703" t="s">
@@ -43750,7 +43752,7 @@
       <c r="A704" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="B704" t="s">
+      <c r="B704" s="4" t="s">
         <v>1576</v>
       </c>
       <c r="I704" t="s">
@@ -43767,7 +43769,7 @@
       <c r="A705" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="B705" t="s">
+      <c r="B705" s="4" t="s">
         <v>1581</v>
       </c>
       <c r="G705" t="s">
@@ -43796,7 +43798,7 @@
       <c r="A706" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="B706" t="s">
+      <c r="B706" s="4" t="s">
         <v>1589</v>
       </c>
       <c r="I706" t="s">
@@ -43813,10 +43815,10 @@
       <c r="A707" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="B707" t="s">
+      <c r="B707" s="4" t="s">
         <v>1594</v>
       </c>
-      <c r="C707" t="s">
+      <c r="C707" s="4" t="s">
         <v>1594</v>
       </c>
       <c r="I707" t="s">
@@ -43833,7 +43835,7 @@
       <c r="A708" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="B708" t="s">
+      <c r="B708" s="4" t="s">
         <v>1596</v>
       </c>
       <c r="I708" t="s">
@@ -43850,7 +43852,7 @@
       <c r="A709" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="B709" t="s">
+      <c r="B709" s="4" t="s">
         <v>1597</v>
       </c>
       <c r="G709" t="s">
@@ -43864,7 +43866,7 @@
       <c r="A710" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B710" t="s">
+      <c r="B710" s="4" t="s">
         <v>1065</v>
       </c>
       <c r="G710" t="s">
@@ -43881,7 +43883,7 @@
       <c r="A711" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B711" t="s">
+      <c r="B711" s="4" t="s">
         <v>1600</v>
       </c>
       <c r="G711" t="s">
@@ -43901,7 +43903,7 @@
       <c r="A712" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="B712" t="s">
+      <c r="B712" s="4" t="s">
         <v>1605</v>
       </c>
       <c r="G712" t="s">
@@ -43971,7 +43973,7 @@
       <c r="A714" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="B714" t="s">
+      <c r="B714" s="4" t="s">
         <v>1614</v>
       </c>
       <c r="I714" t="s">
@@ -43988,7 +43990,7 @@
       <c r="A715" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="B715" t="s">
+      <c r="B715" s="4" t="s">
         <v>1618</v>
       </c>
       <c r="G715" t="s">
@@ -44017,7 +44019,7 @@
       <c r="A716" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="B716" t="s">
+      <c r="B716" s="4" t="s">
         <v>1625</v>
       </c>
       <c r="I716" t="s">
@@ -44034,7 +44036,7 @@
       <c r="A717" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="B717" t="s">
+      <c r="B717" s="4" t="s">
         <v>1629</v>
       </c>
       <c r="I717" t="s">
@@ -44051,7 +44053,7 @@
       <c r="A718" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="B718" t="s">
+      <c r="B718" s="4" t="s">
         <v>1633</v>
       </c>
       <c r="G718" t="s">
@@ -44100,7 +44102,7 @@
       <c r="A720" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="B720" t="s">
+      <c r="B720" s="4" t="s">
         <v>1638</v>
       </c>
       <c r="G720" t="s">
@@ -44168,7 +44170,7 @@
       <c r="A724" s="1" t="s">
         <v>1643</v>
       </c>
-      <c r="B724" t="s">
+      <c r="B724" s="4" t="s">
         <v>1644</v>
       </c>
       <c r="G724" t="s">
@@ -44191,7 +44193,7 @@
       <c r="A725" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="B725" t="s">
+      <c r="B725" s="4" t="s">
         <v>1647</v>
       </c>
       <c r="G725" t="s">
@@ -44208,7 +44210,7 @@
       <c r="A726" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="B726" t="s">
+      <c r="B726" s="4" t="s">
         <v>1650</v>
       </c>
       <c r="G726" t="s">
@@ -44228,7 +44230,7 @@
       <c r="A727" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="B727" t="s">
+      <c r="B727" s="4" t="s">
         <v>1652</v>
       </c>
       <c r="G727" t="s">
@@ -44248,10 +44250,10 @@
       <c r="A728" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="B728" t="s">
+      <c r="B728" s="4" t="s">
         <v>1657</v>
       </c>
-      <c r="D728" t="s">
+      <c r="D728" s="4" t="s">
         <v>1658</v>
       </c>
       <c r="G728" t="s">
@@ -44271,10 +44273,10 @@
       <c r="A729" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B729" t="s">
+      <c r="B729" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D729" t="s">
+      <c r="D729" s="4" t="s">
         <v>1661</v>
       </c>
       <c r="G729" t="s">
@@ -44306,7 +44308,7 @@
       <c r="A730" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="B730" t="s">
+      <c r="B730" s="4" t="s">
         <v>1667</v>
       </c>
       <c r="I730" t="s">
@@ -44323,7 +44325,7 @@
       <c r="A731" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="B731" t="s">
+      <c r="B731" s="4" t="s">
         <v>1672</v>
       </c>
       <c r="I731" t="s">
@@ -44340,7 +44342,7 @@
       <c r="A732" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="B732" t="s">
+      <c r="B732" s="4" t="s">
         <v>1676</v>
       </c>
       <c r="I732" t="s">
@@ -44357,7 +44359,7 @@
       <c r="A733" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="B733" t="s">
+      <c r="B733" s="4" t="s">
         <v>1680</v>
       </c>
       <c r="I733" t="s">
@@ -44371,7 +44373,7 @@
       <c r="A734" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="B734" t="s">
+      <c r="B734" s="4" t="s">
         <v>1684</v>
       </c>
       <c r="I734" t="s">
@@ -44385,7 +44387,7 @@
       <c r="A735" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="B735" t="s">
+      <c r="B735" s="4" t="s">
         <v>1687</v>
       </c>
       <c r="I735" t="s">
@@ -44399,10 +44401,10 @@
       <c r="A736" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="B736" t="s">
+      <c r="B736" s="4" t="s">
         <v>1688</v>
       </c>
-      <c r="E736" t="s">
+      <c r="E736" s="4" t="s">
         <v>1689</v>
       </c>
       <c r="I736" t="s">
@@ -44419,10 +44421,10 @@
       <c r="A737" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="B737" t="s">
+      <c r="B737" s="4" t="s">
         <v>1693</v>
       </c>
-      <c r="E737" t="s">
+      <c r="E737" s="4" t="s">
         <v>1694</v>
       </c>
       <c r="I737" t="s">
@@ -44439,7 +44441,7 @@
       <c r="A738" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B738" t="s">
+      <c r="B738" s="4" t="s">
         <v>697</v>
       </c>
       <c r="G738" t="s">
@@ -44456,7 +44458,7 @@
       <c r="A739" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="B739" t="s">
+      <c r="B739" s="4" t="s">
         <v>1699</v>
       </c>
       <c r="G739" t="s">
@@ -44490,10 +44492,10 @@
       <c r="A741" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B741" t="s">
+      <c r="B741" s="4" t="s">
         <v>1706</v>
       </c>
-      <c r="E741" t="s">
+      <c r="E741" s="4" t="s">
         <v>675</v>
       </c>
       <c r="J741" t="s">
@@ -44507,7 +44509,7 @@
       <c r="A742" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B742" t="s">
+      <c r="B742" s="4" t="s">
         <v>1709</v>
       </c>
       <c r="G742" t="s">
@@ -44524,7 +44526,7 @@
       <c r="A743" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="B743" t="s">
+      <c r="B743" s="4" t="s">
         <v>3663</v>
       </c>
       <c r="G743" t="s">
@@ -44561,7 +44563,7 @@
       <c r="A745" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="B745" t="s">
+      <c r="B745" s="4" t="s">
         <v>1614</v>
       </c>
       <c r="G745" t="s">
@@ -44572,7 +44574,7 @@
       <c r="A746" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="B746" t="s">
+      <c r="B746" s="4" t="s">
         <v>1720</v>
       </c>
       <c r="R746" t="s">
@@ -44583,7 +44585,7 @@
       <c r="A747" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="B747" t="s">
+      <c r="B747" s="4" t="s">
         <v>1723</v>
       </c>
       <c r="G747" t="s">
@@ -44597,7 +44599,7 @@
       <c r="A748" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="B748" t="s">
+      <c r="B748" s="4" t="s">
         <v>1725</v>
       </c>
       <c r="G748" t="s">
@@ -44626,7 +44628,7 @@
       <c r="A749" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="B749" t="s">
+      <c r="B749" s="4" t="s">
         <v>1730</v>
       </c>
       <c r="G749" t="s">
@@ -44649,7 +44651,7 @@
       <c r="A750" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="B750" t="s">
+      <c r="B750" s="4" t="s">
         <v>1734</v>
       </c>
       <c r="J750" t="s">
@@ -44669,7 +44671,7 @@
       <c r="A751" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="B751" t="s">
+      <c r="B751" s="4" t="s">
         <v>1736</v>
       </c>
       <c r="I751" t="s">
@@ -44711,7 +44713,7 @@
       <c r="A754" s="1" t="s">
         <v>1742</v>
       </c>
-      <c r="B754" t="s">
+      <c r="B754" s="4" t="s">
         <v>1743</v>
       </c>
       <c r="G754" t="s">
@@ -44751,7 +44753,7 @@
       <c r="A756" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="B756" t="s">
+      <c r="B756" s="4" t="s">
         <v>1747</v>
       </c>
       <c r="G756" t="s">
@@ -44836,7 +44838,7 @@
       <c r="A761" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="B761" t="s">
+      <c r="B761" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="G761" t="s">
@@ -44888,7 +44890,7 @@
       <c r="A763" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="B763" t="s">
+      <c r="B763" s="4" t="s">
         <v>1768</v>
       </c>
       <c r="G763" t="s">
@@ -44960,7 +44962,7 @@
       <c r="A766" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B766" t="s">
+      <c r="B766" s="4" t="s">
         <v>582</v>
       </c>
       <c r="G766" t="s">
@@ -44983,7 +44985,7 @@
       <c r="A767" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="D767" t="s">
+      <c r="D767" s="4" t="s">
         <v>1772</v>
       </c>
       <c r="G767" t="s">
@@ -45020,7 +45022,7 @@
       <c r="A769" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="B769" t="s">
+      <c r="B769" s="4" t="s">
         <v>1779</v>
       </c>
       <c r="G769" t="s">
@@ -45040,7 +45042,7 @@
       <c r="A770" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="B770" t="s">
+      <c r="B770" s="4" t="s">
         <v>1781</v>
       </c>
       <c r="G770" t="s">
@@ -45072,7 +45074,7 @@
       <c r="A771" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="B771" t="s">
+      <c r="B771" s="4" t="s">
         <v>1784</v>
       </c>
       <c r="G771" t="s">
@@ -45150,7 +45152,7 @@
       <c r="A774" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="D774" t="s">
+      <c r="D774" s="4" t="s">
         <v>1798</v>
       </c>
       <c r="I774" t="s">
@@ -45173,7 +45175,7 @@
       <c r="A775" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="B775" t="s">
+      <c r="B775" s="4" t="s">
         <v>1804</v>
       </c>
       <c r="G775" t="s">
@@ -45193,7 +45195,7 @@
       <c r="A776" s="1" t="s">
         <v>1807</v>
       </c>
-      <c r="D776" t="s">
+      <c r="D776" s="4" t="s">
         <v>1808</v>
       </c>
       <c r="I776" t="s">
@@ -45210,7 +45212,7 @@
       <c r="A777" s="1" t="s">
         <v>1811</v>
       </c>
-      <c r="B777" t="s">
+      <c r="B777" s="4" t="s">
         <v>1812</v>
       </c>
       <c r="G777" t="s">
@@ -45256,7 +45258,7 @@
       <c r="A779" s="1" t="s">
         <v>1819</v>
       </c>
-      <c r="B779" t="s">
+      <c r="B779" s="4" t="s">
         <v>1820</v>
       </c>
       <c r="G779" t="s">
@@ -45287,7 +45289,7 @@
       <c r="A781" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B781" t="s">
+      <c r="B781" s="4" t="s">
         <v>1824</v>
       </c>
       <c r="I781" t="s">
@@ -45301,7 +45303,7 @@
       <c r="A782" s="1" t="s">
         <v>1826</v>
       </c>
-      <c r="B782" t="s">
+      <c r="B782" s="4" t="s">
         <v>1827</v>
       </c>
       <c r="I782" t="s">
@@ -45315,7 +45317,7 @@
       <c r="A783" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="B783" t="s">
+      <c r="B783" s="4" t="s">
         <v>1830</v>
       </c>
       <c r="I783" t="s">
@@ -45371,7 +45373,7 @@
       <c r="A787" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="B787" t="s">
+      <c r="B787" s="4" t="s">
         <v>1838</v>
       </c>
       <c r="G787" t="s">
@@ -45403,7 +45405,7 @@
       <c r="A788" s="1" t="s">
         <v>1843</v>
       </c>
-      <c r="B788" t="s">
+      <c r="B788" s="4" t="s">
         <v>1844</v>
       </c>
       <c r="I788" t="s">
@@ -45426,7 +45428,7 @@
       <c r="A789" s="1" t="s">
         <v>1849</v>
       </c>
-      <c r="D789" t="s">
+      <c r="D789" s="4" t="s">
         <v>1850</v>
       </c>
       <c r="I789" t="s">
@@ -45443,7 +45445,7 @@
       <c r="A790" s="1" t="s">
         <v>1853</v>
       </c>
-      <c r="D790" t="s">
+      <c r="D790" s="4" t="s">
         <v>1854</v>
       </c>
       <c r="I790" t="s">
@@ -45471,10 +45473,10 @@
       <c r="A792" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B792" t="s">
+      <c r="B792" s="4" t="s">
         <v>1858</v>
       </c>
-      <c r="E792" t="s">
+      <c r="E792" s="4" t="s">
         <v>1859</v>
       </c>
       <c r="G792" t="s">
@@ -45506,10 +45508,10 @@
       <c r="A793" s="1" t="s">
         <v>1865</v>
       </c>
-      <c r="B793" t="s">
+      <c r="B793" s="4" t="s">
         <v>1866</v>
       </c>
-      <c r="E793" t="s">
+      <c r="E793" s="4" t="s">
         <v>1867</v>
       </c>
       <c r="I793" t="s">
@@ -45526,7 +45528,7 @@
       <c r="A794" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="B794" t="s">
+      <c r="B794" s="4" t="s">
         <v>1871</v>
       </c>
       <c r="I794" t="s">
@@ -45540,7 +45542,7 @@
       <c r="A795" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="B795" t="s">
+      <c r="B795" s="4" t="s">
         <v>1874</v>
       </c>
       <c r="I795" t="s">
@@ -45554,7 +45556,7 @@
       <c r="A796" s="1" t="s">
         <v>1876</v>
       </c>
-      <c r="B796" t="s">
+      <c r="B796" s="4" t="s">
         <v>1877</v>
       </c>
       <c r="I796" t="s">
@@ -45568,7 +45570,7 @@
       <c r="A797" s="1" t="s">
         <v>1879</v>
       </c>
-      <c r="B797" t="s">
+      <c r="B797" s="4" t="s">
         <v>1880</v>
       </c>
       <c r="I797" t="s">
@@ -45585,7 +45587,7 @@
       <c r="A798" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B798" t="s">
+      <c r="B798" s="4" t="s">
         <v>1883</v>
       </c>
       <c r="I798" t="s">
@@ -45602,7 +45604,7 @@
       <c r="A799" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="B799" t="s">
+      <c r="B799" s="4" t="s">
         <v>1887</v>
       </c>
       <c r="I799" t="s">
@@ -45630,7 +45632,7 @@
       <c r="A801" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="B801" t="s">
+      <c r="B801" s="4" t="s">
         <v>1893</v>
       </c>
       <c r="G801" t="s">
@@ -45659,7 +45661,7 @@
       <c r="A802" s="1" t="s">
         <v>1894</v>
       </c>
-      <c r="B802" t="s">
+      <c r="B802" s="4" t="s">
         <v>1895</v>
       </c>
       <c r="G802" t="s">
@@ -45679,7 +45681,7 @@
       <c r="A803" s="1" t="s">
         <v>1898</v>
       </c>
-      <c r="B803" t="s">
+      <c r="B803" s="4" t="s">
         <v>1899</v>
       </c>
       <c r="I803" t="s">
@@ -45696,7 +45698,7 @@
       <c r="A804" s="1" t="s">
         <v>1902</v>
       </c>
-      <c r="B804" t="s">
+      <c r="B804" s="4" t="s">
         <v>1903</v>
       </c>
       <c r="G804" t="s">
@@ -45713,7 +45715,7 @@
       <c r="A805" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="B805" t="s">
+      <c r="B805" s="4" t="s">
         <v>1906</v>
       </c>
       <c r="G805" t="s">
@@ -45762,7 +45764,7 @@
       <c r="A807" s="1" t="s">
         <v>1908</v>
       </c>
-      <c r="B807" t="s">
+      <c r="B807" s="4" t="s">
         <v>1909</v>
       </c>
       <c r="I807" t="s">
@@ -45779,7 +45781,7 @@
       <c r="A808" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="D808" t="s">
+      <c r="D808" s="4" t="s">
         <v>1913</v>
       </c>
       <c r="G808" t="s">
@@ -45805,7 +45807,7 @@
       <c r="A809" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="B809" t="s">
+      <c r="B809" s="4" t="s">
         <v>1917</v>
       </c>
       <c r="I809" t="s">
@@ -45833,7 +45835,7 @@
       <c r="A811" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="B811" t="s">
+      <c r="B811" s="4" t="s">
         <v>1923</v>
       </c>
       <c r="I811" t="s">
@@ -45872,7 +45874,7 @@
       <c r="A814" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B814" t="s">
+      <c r="B814" s="4" t="s">
         <v>1929</v>
       </c>
       <c r="I814" t="s">
@@ -45889,7 +45891,7 @@
       <c r="A815" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="B815" t="s">
+      <c r="B815" s="4" t="s">
         <v>1933</v>
       </c>
       <c r="G815" t="s">
@@ -45906,7 +45908,7 @@
       <c r="A816" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="B816" t="s">
+      <c r="B816" s="4" t="s">
         <v>1935</v>
       </c>
       <c r="G816" t="s">
@@ -45932,7 +45934,7 @@
       <c r="A817" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="B817" t="s">
+      <c r="B817" s="4" t="s">
         <v>1937</v>
       </c>
       <c r="G817" t="s">
@@ -45949,7 +45951,7 @@
       <c r="A818" s="1" t="s">
         <v>1939</v>
       </c>
-      <c r="B818" t="s">
+      <c r="B818" s="4" t="s">
         <v>1940</v>
       </c>
       <c r="G818" t="s">
@@ -45969,7 +45971,7 @@
       <c r="A819" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="B819" t="s">
+      <c r="B819" s="4" t="s">
         <v>1943</v>
       </c>
       <c r="G819" t="s">
@@ -45998,7 +46000,7 @@
       <c r="A820" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B820" t="s">
+      <c r="B820" s="4" t="s">
         <v>1946</v>
       </c>
       <c r="G820" t="s">
@@ -46018,7 +46020,7 @@
       <c r="A821" s="1" t="s">
         <v>1949</v>
       </c>
-      <c r="B821" t="s">
+      <c r="B821" s="4" t="s">
         <v>1950</v>
       </c>
       <c r="G821" t="s">
@@ -46070,7 +46072,7 @@
       <c r="A823" s="1" t="s">
         <v>1958</v>
       </c>
-      <c r="B823" t="s">
+      <c r="B823" s="4" t="s">
         <v>1959</v>
       </c>
       <c r="I823" t="s">
@@ -46087,7 +46089,7 @@
       <c r="A824" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B824" t="s">
+      <c r="B824" s="4" t="s">
         <v>697</v>
       </c>
       <c r="G824" t="s">
@@ -46107,7 +46109,7 @@
       <c r="A825" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="B825" t="s">
+      <c r="B825" s="4" t="s">
         <v>1962</v>
       </c>
       <c r="G825" t="s">
@@ -46127,10 +46129,10 @@
       <c r="A826" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="B826" t="s">
+      <c r="B826" s="4" t="s">
         <v>1966</v>
       </c>
-      <c r="C826" t="s">
+      <c r="C826" s="4" t="s">
         <v>1967</v>
       </c>
       <c r="G826" t="s">
@@ -46162,7 +46164,7 @@
       <c r="A827" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="B827" t="s">
+      <c r="B827" s="4" t="s">
         <v>2708</v>
       </c>
       <c r="G827" t="s">
@@ -46182,7 +46184,7 @@
       <c r="A828" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="B828" t="s">
+      <c r="B828" s="4" t="s">
         <v>1972</v>
       </c>
       <c r="I828" t="s">
@@ -46199,7 +46201,7 @@
       <c r="A829" s="1" t="s">
         <v>1975</v>
       </c>
-      <c r="B829" t="s">
+      <c r="B829" s="4" t="s">
         <v>1976</v>
       </c>
       <c r="I829" t="s">
@@ -46216,7 +46218,7 @@
       <c r="A830" s="1" t="s">
         <v>1979</v>
       </c>
-      <c r="B830" t="s">
+      <c r="B830" s="4" t="s">
         <v>1980</v>
       </c>
       <c r="I830" t="s">
@@ -46322,7 +46324,7 @@
       <c r="A835" s="1" t="s">
         <v>1992</v>
       </c>
-      <c r="B835" t="s">
+      <c r="B835" s="4" t="s">
         <v>1993</v>
       </c>
       <c r="G835" t="s">
@@ -46345,7 +46347,7 @@
       <c r="A836" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="B836" t="s">
+      <c r="B836" s="4" t="s">
         <v>1997</v>
       </c>
       <c r="G836" t="s">
@@ -46368,7 +46370,7 @@
       <c r="A837" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="B837" t="s">
+      <c r="B837" s="4" t="s">
         <v>1998</v>
       </c>
       <c r="G837" t="s">
@@ -46491,7 +46493,7 @@
       <c r="A843" s="1" t="s">
         <v>2015</v>
       </c>
-      <c r="B843" t="s">
+      <c r="B843" s="4" t="s">
         <v>2016</v>
       </c>
       <c r="G843" t="s">
@@ -46514,7 +46516,7 @@
       <c r="A844" s="1" t="s">
         <v>2018</v>
       </c>
-      <c r="B844" t="s">
+      <c r="B844" s="4" t="s">
         <v>2019</v>
       </c>
       <c r="I844" t="s">
@@ -46569,7 +46571,7 @@
       <c r="A846" s="1" t="s">
         <v>2024</v>
       </c>
-      <c r="D846" t="s">
+      <c r="D846" s="4" t="s">
         <v>2025</v>
       </c>
       <c r="I846" t="s">
@@ -46586,7 +46588,7 @@
       <c r="A847" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="D847" t="s">
+      <c r="D847" s="4" t="s">
         <v>2028</v>
       </c>
       <c r="G847" t="s">
@@ -46609,7 +46611,7 @@
       <c r="A848" s="1" t="s">
         <v>2031</v>
       </c>
-      <c r="D848" t="s">
+      <c r="D848" s="4" t="s">
         <v>2032</v>
       </c>
       <c r="G848" t="s">
@@ -46666,7 +46668,7 @@
       <c r="A852" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D852" t="s">
+      <c r="D852" s="4" t="s">
         <v>2039</v>
       </c>
       <c r="I852" t="s">
@@ -46686,7 +46688,7 @@
       <c r="A853" s="1" t="s">
         <v>2041</v>
       </c>
-      <c r="B853" t="s">
+      <c r="B853" s="4" t="s">
         <v>2042</v>
       </c>
       <c r="G853" t="s">
@@ -46724,7 +46726,7 @@
       <c r="A854" s="1" t="s">
         <v>2046</v>
       </c>
-      <c r="B854" t="s">
+      <c r="B854" s="4" t="s">
         <v>2047</v>
       </c>
       <c r="G854" t="s">
@@ -46759,7 +46761,7 @@
       <c r="A855" s="1" t="s">
         <v>2051</v>
       </c>
-      <c r="B855" t="s">
+      <c r="B855" s="4" t="s">
         <v>2052</v>
       </c>
       <c r="G855" t="s">
@@ -46794,7 +46796,7 @@
       <c r="A856" s="1" t="s">
         <v>2054</v>
       </c>
-      <c r="B856" t="s">
+      <c r="B856" s="4" t="s">
         <v>2055</v>
       </c>
       <c r="G856" t="s">
@@ -46829,7 +46831,7 @@
       <c r="A857" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="B857" t="s">
+      <c r="B857" s="4" t="s">
         <v>2060</v>
       </c>
       <c r="G857" t="s">
@@ -46864,7 +46866,7 @@
       <c r="A858" s="1" t="s">
         <v>2062</v>
       </c>
-      <c r="B858" t="s">
+      <c r="B858" s="4" t="s">
         <v>2063</v>
       </c>
       <c r="G858" t="s">
@@ -46899,7 +46901,7 @@
       <c r="A859" s="1" t="s">
         <v>2067</v>
       </c>
-      <c r="B859" t="s">
+      <c r="B859" s="4" t="s">
         <v>2068</v>
       </c>
       <c r="G859" t="s">
@@ -46934,7 +46936,7 @@
       <c r="A860" s="1" t="s">
         <v>2069</v>
       </c>
-      <c r="B860" t="s">
+      <c r="B860" s="4" t="s">
         <v>2070</v>
       </c>
       <c r="G860" t="s">
@@ -46966,7 +46968,7 @@
       <c r="A861" s="1" t="s">
         <v>2074</v>
       </c>
-      <c r="B861" t="s">
+      <c r="B861" s="4" t="s">
         <v>2074</v>
       </c>
       <c r="G861" t="s">
@@ -47036,7 +47038,7 @@
       <c r="A863" s="1" t="s">
         <v>2082</v>
       </c>
-      <c r="B863" t="s">
+      <c r="B863" s="4" t="s">
         <v>2083</v>
       </c>
       <c r="G863" t="s">
@@ -47071,7 +47073,7 @@
       <c r="A864" s="1" t="s">
         <v>2086</v>
       </c>
-      <c r="B864" t="s">
+      <c r="B864" s="4" t="s">
         <v>2087</v>
       </c>
       <c r="G864" t="s">
@@ -47109,7 +47111,7 @@
       <c r="A865" s="1" t="s">
         <v>2089</v>
       </c>
-      <c r="B865" t="s">
+      <c r="B865" s="4" t="s">
         <v>2090</v>
       </c>
       <c r="G865" t="s">
@@ -47179,7 +47181,7 @@
       <c r="A867" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="B867" t="s">
+      <c r="B867" s="4" t="s">
         <v>2095</v>
       </c>
       <c r="G867" t="s">
@@ -47383,7 +47385,7 @@
       <c r="A873" s="1" t="s">
         <v>2114</v>
       </c>
-      <c r="D873" t="s">
+      <c r="D873" s="4" t="s">
         <v>2115</v>
       </c>
       <c r="G873" t="s">
@@ -47403,7 +47405,7 @@
       <c r="A874" s="1" t="s">
         <v>2118</v>
       </c>
-      <c r="D874" t="s">
+      <c r="D874" s="4" t="s">
         <v>2119</v>
       </c>
       <c r="G874" t="s">
@@ -47441,7 +47443,7 @@
       <c r="A875" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C875" t="s">
+      <c r="C875" s="4" t="s">
         <v>2122</v>
       </c>
       <c r="G875" t="s">
@@ -47461,7 +47463,7 @@
       <c r="A876" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B876" t="s">
+      <c r="B876" s="4" t="s">
         <v>2125</v>
       </c>
       <c r="I876" t="s">
@@ -47478,7 +47480,7 @@
       <c r="A877" s="1" t="s">
         <v>2127</v>
       </c>
-      <c r="D877" t="s">
+      <c r="D877" s="4" t="s">
         <v>2128</v>
       </c>
       <c r="G877" t="s">
@@ -47504,7 +47506,7 @@
       <c r="A878" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="D878" t="s">
+      <c r="D878" s="4" t="s">
         <v>1287</v>
       </c>
       <c r="I878" t="s">
@@ -47521,7 +47523,7 @@
       <c r="A879" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="B879" t="s">
+      <c r="B879" s="4" t="s">
         <v>2133</v>
       </c>
       <c r="G879" t="s">
@@ -47541,7 +47543,7 @@
       <c r="A880" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D880" t="s">
+      <c r="D880" s="4" t="s">
         <v>2137</v>
       </c>
       <c r="G880" t="s">
@@ -47561,7 +47563,7 @@
       <c r="A881" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="D881" t="s">
+      <c r="D881" s="4" t="s">
         <v>2140</v>
       </c>
       <c r="G881" t="s">
@@ -47581,7 +47583,7 @@
       <c r="A882" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="D882" t="s">
+      <c r="D882" s="4" t="s">
         <v>2144</v>
       </c>
       <c r="G882" t="s">
@@ -47601,7 +47603,7 @@
       <c r="A883" s="1" t="s">
         <v>2147</v>
       </c>
-      <c r="D883" t="s">
+      <c r="D883" s="4" t="s">
         <v>2148</v>
       </c>
       <c r="G883" t="s">
@@ -47621,7 +47623,7 @@
       <c r="A884" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B884" t="s">
+      <c r="B884" s="4" t="s">
         <v>2151</v>
       </c>
       <c r="G884" t="s">
@@ -47644,10 +47646,10 @@
       <c r="A885" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B885" t="s">
+      <c r="B885" s="4" t="s">
         <v>2154</v>
       </c>
-      <c r="E885" t="s">
+      <c r="E885" s="4" t="s">
         <v>2155</v>
       </c>
       <c r="G885" t="s">
@@ -47676,7 +47678,7 @@
       <c r="A886" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="B886" t="s">
+      <c r="B886" s="4" t="s">
         <v>2161</v>
       </c>
       <c r="G886" t="s">
@@ -47711,7 +47713,7 @@
       <c r="A887" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="B887" t="s">
+      <c r="B887" s="4" t="s">
         <v>2164</v>
       </c>
       <c r="G887" t="s">
@@ -47743,7 +47745,7 @@
       <c r="A888" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="B888" t="s">
+      <c r="B888" s="4" t="s">
         <v>2169</v>
       </c>
       <c r="G888" t="s">
@@ -47783,7 +47785,7 @@
       <c r="A890" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="B890" t="s">
+      <c r="B890" s="4" t="s">
         <v>2175</v>
       </c>
       <c r="G890" t="s">
@@ -47862,7 +47864,7 @@
       <c r="A892" s="1" t="s">
         <v>2187</v>
       </c>
-      <c r="D892" t="s">
+      <c r="D892" s="4" t="s">
         <v>2188</v>
       </c>
       <c r="G892" t="s">
@@ -47888,7 +47890,7 @@
       <c r="A893" s="1" t="s">
         <v>2190</v>
       </c>
-      <c r="B893" t="s">
+      <c r="B893" s="4" t="s">
         <v>2191</v>
       </c>
       <c r="G893" t="s">
@@ -47908,7 +47910,7 @@
       <c r="A894" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="D894" t="s">
+      <c r="D894" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="G894" t="s">
@@ -47931,7 +47933,7 @@
       <c r="A895" s="1" t="s">
         <v>2197</v>
       </c>
-      <c r="C895" t="s">
+      <c r="C895" s="4" t="s">
         <v>2198</v>
       </c>
       <c r="G895" t="s">
@@ -47954,7 +47956,7 @@
       <c r="A896" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="C896" t="s">
+      <c r="C896" s="4" t="s">
         <v>2200</v>
       </c>
       <c r="G896" t="s">
@@ -47977,7 +47979,7 @@
       <c r="A897" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="C897" t="s">
+      <c r="C897" s="4" t="s">
         <v>2203</v>
       </c>
       <c r="G897" t="s">
@@ -48000,7 +48002,7 @@
       <c r="A898" s="1" t="s">
         <v>2206</v>
       </c>
-      <c r="B898" t="s">
+      <c r="B898" s="4" t="s">
         <v>2207</v>
       </c>
       <c r="G898" t="s">
@@ -48020,7 +48022,7 @@
       <c r="A899" s="1" t="s">
         <v>2210</v>
       </c>
-      <c r="C899" t="s">
+      <c r="C899" s="4" t="s">
         <v>2211</v>
       </c>
       <c r="G899" t="s">
@@ -48043,7 +48045,7 @@
       <c r="A900" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="D900" t="s">
+      <c r="D900" s="4" t="s">
         <v>2214</v>
       </c>
       <c r="G900" t="s">
@@ -48080,7 +48082,7 @@
       <c r="A902" s="1" t="s">
         <v>2220</v>
       </c>
-      <c r="B902" t="s">
+      <c r="B902" s="4" t="s">
         <v>2221</v>
       </c>
       <c r="I902" t="s">
@@ -48688,7 +48690,7 @@
       <c r="A933" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B933" t="s">
+      <c r="B933" s="4" t="s">
         <v>2306</v>
       </c>
       <c r="I933" t="s">
@@ -48751,7 +48753,7 @@
       <c r="A936" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B936" t="s">
+      <c r="B936" s="4" t="s">
         <v>2316</v>
       </c>
       <c r="I936" t="s">
@@ -48768,7 +48770,7 @@
       <c r="A937" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="B937" t="s">
+      <c r="B937" s="4" t="s">
         <v>2319</v>
       </c>
       <c r="I937" t="s">
@@ -48823,7 +48825,7 @@
       <c r="A939" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="B939" t="s">
+      <c r="B939" s="4" t="s">
         <v>2327</v>
       </c>
       <c r="G939" t="s">
@@ -48875,7 +48877,7 @@
       <c r="A941" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="B941" t="s">
+      <c r="B941" s="4" t="s">
         <v>2338</v>
       </c>
       <c r="I941" t="s">
@@ -48967,7 +48969,7 @@
       <c r="A945" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="B945" t="s">
+      <c r="B945" s="4" t="s">
         <v>2358</v>
       </c>
       <c r="G945" t="s">
@@ -49095,7 +49097,7 @@
       <c r="A949" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="B949" t="s">
+      <c r="B949" s="4" t="s">
         <v>2380</v>
       </c>
       <c r="I949" t="s">

--- a/exports/MIX-Lexicon-TEI-Dict-csv.xlsx
+++ b/exports/MIX-Lexicon-TEI-Dict-csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B892752B-C344-EF4B-801A-69C698F1C666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2E0083-922C-EB4C-8E4C-A4FE1759D41D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{C5F768FB-AA19-0F4A-B868-C70D0F729A23}"/>
+    <workbookView xWindow="2440" yWindow="5840" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{C5F768FB-AA19-0F4A-B868-C70D0F729A23}"/>
   </bookViews>
   <sheets>
     <sheet name="Export-20190417" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="MIX_Lexicon_TEI_Dict_csv" localSheetId="0">'Export-20190417'!$A$1:$AI$993</definedName>
-    <definedName name="MIX_Lexicon_TEI_Dict_csv_1" localSheetId="1">Sheet1!$A$1:$AI$993</definedName>
+    <definedName name="MIX_Lexicon_TEI_Dict_csv_1" localSheetId="1">Sheet1!$A$1:$AI$1014</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12924" uniqueCount="3797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13062" uniqueCount="3880">
   <si>
     <t>Orth</t>
   </si>
@@ -11502,6 +11502,255 @@
   </si>
   <si>
     <t>Nací en Mixtepec</t>
+  </si>
+  <si>
+    <t>tínana</t>
+  </si>
+  <si>
+    <t>nto'o ini</t>
+  </si>
+  <si>
+    <t>ntó'o inì</t>
+  </si>
+  <si>
+    <t>Nto'o ini yu</t>
+  </si>
+  <si>
+    <t>I'm worried</t>
+  </si>
+  <si>
+    <t>Estoy preocupado</t>
+  </si>
+  <si>
+    <t>kuchi</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>be ripe</t>
+  </si>
+  <si>
+    <t>ser maduro</t>
+  </si>
+  <si>
+    <t>ntikoo sooti</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>cascara</t>
+  </si>
+  <si>
+    <t>tinto'o luu</t>
+  </si>
+  <si>
+    <t>Utensils</t>
+  </si>
+  <si>
+    <t>copa</t>
+  </si>
+  <si>
+    <t>Small cup, such as a coffee cup.</t>
+  </si>
+  <si>
+    <t>tintoo ka'nu</t>
+  </si>
+  <si>
+    <t>pitcher</t>
+  </si>
+  <si>
+    <t>járro</t>
+  </si>
+  <si>
+    <t>cántaro</t>
+  </si>
+  <si>
+    <t>járra</t>
+  </si>
+  <si>
+    <t>big jug</t>
+  </si>
+  <si>
+    <t>tinana soo</t>
+  </si>
+  <si>
+    <t>tínana soó</t>
+  </si>
+  <si>
+    <t>small green tomatoe-like fruit with shell</t>
+  </si>
+  <si>
+    <t>soó</t>
+  </si>
+  <si>
+    <t>paper skin</t>
+  </si>
+  <si>
+    <t>paper like cover occuring on certain fruits, vegitables and nuts.</t>
+  </si>
+  <si>
+    <t>chaku</t>
+  </si>
+  <si>
+    <t>living being</t>
+  </si>
+  <si>
+    <t>ser vivo</t>
+  </si>
+  <si>
+    <t>tiri</t>
+  </si>
+  <si>
+    <t>bumblebee</t>
+  </si>
+  <si>
+    <t>abejorro</t>
+  </si>
+  <si>
+    <t>tiri tina</t>
+  </si>
+  <si>
+    <t>dog bumble bee</t>
+  </si>
+  <si>
+    <t>abejorro "de perro"</t>
+  </si>
+  <si>
+    <t>a type of bumble bee</t>
+  </si>
+  <si>
+    <t>tiri si'vi</t>
+  </si>
+  <si>
+    <t>poop bumble bee</t>
+  </si>
+  <si>
+    <t>abejorro de mierda</t>
+  </si>
+  <si>
+    <t>A type of bumble bee which makes home from animal feces.</t>
+  </si>
+  <si>
+    <t>tiri tivaya</t>
+  </si>
+  <si>
+    <t>pumpkin flower bumblebee</t>
+  </si>
+  <si>
+    <t>flor de calabaza abejorro</t>
+  </si>
+  <si>
+    <t>A type of bumble bee which likes pumpkin flower.</t>
+  </si>
+  <si>
+    <t>tivaya</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>pumpkin flower</t>
+  </si>
+  <si>
+    <t>flor de calabaza</t>
+  </si>
+  <si>
+    <t>si'vi</t>
+  </si>
+  <si>
+    <t>poop</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>caca</t>
+  </si>
+  <si>
+    <t>kua'a ka ichi</t>
+  </si>
+  <si>
+    <t>to allow</t>
+  </si>
+  <si>
+    <t>to permit</t>
+  </si>
+  <si>
+    <t>permitir</t>
+  </si>
+  <si>
+    <t>ma kua'a ka yu ichi</t>
+  </si>
+  <si>
+    <t>I'm not allowing this</t>
+  </si>
+  <si>
+    <t>No le permito</t>
+  </si>
+  <si>
+    <t>nta'a ncho'a</t>
+  </si>
+  <si>
+    <t>to get fat</t>
+  </si>
+  <si>
+    <t>engordar</t>
+  </si>
+  <si>
+    <t>Nta'a nch'u.</t>
+  </si>
+  <si>
+    <t>You got fat.</t>
+  </si>
+  <si>
+    <t>Te engordaste.</t>
+  </si>
+  <si>
+    <t>siya</t>
+  </si>
+  <si>
+    <t>sia</t>
+  </si>
+  <si>
+    <t>to drop</t>
+  </si>
+  <si>
+    <t>dejar caer</t>
+  </si>
+  <si>
+    <t>káʃi</t>
+  </si>
+  <si>
+    <t>to sneeze</t>
+  </si>
+  <si>
+    <t>desornudar</t>
+  </si>
+  <si>
+    <t>kayi</t>
+  </si>
+  <si>
+    <t>káyi</t>
+  </si>
+  <si>
+    <t>to cough</t>
+  </si>
+  <si>
+    <t>toser</t>
+  </si>
+  <si>
+    <t>ka'ki'vi</t>
+  </si>
+  <si>
+    <t>to hiccup</t>
+  </si>
+  <si>
+    <t>tener hipo</t>
   </si>
 </sst>
 </file>
@@ -33323,9 +33572,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8923E69-7C1A-A64A-A90D-BAB0723D7B43}">
-  <dimension ref="A1:AH993"/>
+  <dimension ref="A1:AH1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A992" workbookViewId="0">
       <selection activeCell="A362" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -43978,6 +44227,9 @@
       <c r="A477" s="1" t="s">
         <v>3281</v>
       </c>
+      <c r="B477" s="4" t="s">
+        <v>3797</v>
+      </c>
       <c r="G477" t="s">
         <v>3507</v>
       </c>
@@ -49986,10 +50238,10 @@
     </row>
     <row r="782" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
-        <v>1778</v>
+        <v>3798</v>
       </c>
       <c r="B782" s="4" t="s">
-        <v>1779</v>
+        <v>3799</v>
       </c>
       <c r="G782" t="s">
         <v>3661</v>
@@ -49998,21 +50250,27 @@
         <v>388</v>
       </c>
       <c r="J782" t="s">
-        <v>3352</v>
-      </c>
-      <c r="K782" t="s">
-        <v>3353</v>
-      </c>
-      <c r="L782" t="s">
-        <v>3354</v>
+        <v>3350</v>
       </c>
       <c r="M782" t="s">
-        <v>1780</v>
+        <v>2542</v>
+      </c>
+      <c r="S782" t="s">
+        <v>3800</v>
+      </c>
+      <c r="T782" t="s">
+        <v>3801</v>
+      </c>
+      <c r="U782" t="s">
+        <v>3802</v>
       </c>
     </row>
     <row r="783" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
-        <v>1781</v>
+        <v>1778</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>1779</v>
       </c>
       <c r="G783" t="s">
         <v>3661</v>
@@ -50021,19 +50279,16 @@
         <v>388</v>
       </c>
       <c r="J783" t="s">
-        <v>1782</v>
+        <v>3352</v>
+      </c>
+      <c r="K783" t="s">
+        <v>3353</v>
+      </c>
+      <c r="L783" t="s">
+        <v>3354</v>
       </c>
       <c r="M783" t="s">
-        <v>1783</v>
-      </c>
-      <c r="S783" t="s">
-        <v>1784</v>
-      </c>
-      <c r="T783" t="s">
-        <v>1785</v>
-      </c>
-      <c r="U783" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="784" spans="1:28" x14ac:dyDescent="0.25">
@@ -50047,104 +50302,113 @@
         <v>388</v>
       </c>
       <c r="J784" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="M784" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="S784" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="T784" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="U784" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="785" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D785" s="4" t="s">
-        <v>1793</v>
+        <v>1781</v>
+      </c>
+      <c r="G785" t="s">
+        <v>3661</v>
       </c>
       <c r="I785" t="s">
         <v>388</v>
       </c>
       <c r="J785" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="M785" t="s">
-        <v>1795</v>
-      </c>
-      <c r="Y785" t="s">
-        <v>1796</v>
-      </c>
-      <c r="AB785" t="s">
-        <v>1797</v>
+        <v>1788</v>
+      </c>
+      <c r="S785" t="s">
+        <v>1789</v>
+      </c>
+      <c r="T785" t="s">
+        <v>1790</v>
+      </c>
+      <c r="U785" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="786" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B786" s="4" t="s">
-        <v>1799</v>
-      </c>
-      <c r="G786" t="s">
-        <v>3662</v>
+        <v>1792</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>1793</v>
       </c>
       <c r="I786" t="s">
         <v>388</v>
       </c>
       <c r="J786" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="M786" t="s">
-        <v>1801</v>
+        <v>1795</v>
+      </c>
+      <c r="Y786" t="s">
+        <v>1796</v>
+      </c>
+      <c r="AB786" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="787" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="D787" s="4" t="s">
-        <v>1803</v>
+        <v>1798</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G787" t="s">
+        <v>3662</v>
       </c>
       <c r="I787" t="s">
         <v>388</v>
       </c>
       <c r="J787" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="M787" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="788" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B788" s="4" t="s">
-        <v>1807</v>
-      </c>
-      <c r="G788" t="s">
-        <v>3662</v>
+        <v>1802</v>
+      </c>
+      <c r="D788" s="4" t="s">
+        <v>1803</v>
       </c>
       <c r="I788" t="s">
         <v>388</v>
       </c>
       <c r="J788" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="M788" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="789" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
-        <v>1810</v>
+        <v>1806</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>1807</v>
       </c>
       <c r="G789" t="s">
         <v>3662</v>
@@ -50158,22 +50422,10 @@
       <c r="M789" t="s">
         <v>1809</v>
       </c>
-      <c r="S789" t="s">
-        <v>1811</v>
-      </c>
-      <c r="T789" t="s">
-        <v>1812</v>
-      </c>
-      <c r="U789" t="s">
-        <v>1813</v>
-      </c>
     </row>
     <row r="790" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B790" s="4" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="G790" t="s">
         <v>3662</v>
@@ -50182,12 +50434,27 @@
         <v>388</v>
       </c>
       <c r="J790" t="s">
-        <v>1816</v>
+        <v>1808</v>
+      </c>
+      <c r="M790" t="s">
+        <v>1809</v>
+      </c>
+      <c r="S790" t="s">
+        <v>1811</v>
+      </c>
+      <c r="T790" t="s">
+        <v>1812</v>
+      </c>
+      <c r="U790" t="s">
+        <v>1813</v>
       </c>
     </row>
     <row r="791" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
-        <v>1817</v>
+        <v>1814</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>1815</v>
       </c>
       <c r="G791" t="s">
         <v>3662</v>
@@ -50196,387 +50463,372 @@
         <v>388</v>
       </c>
       <c r="J791" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="792" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B792" s="4" t="s">
-        <v>1819</v>
+        <v>1817</v>
+      </c>
+      <c r="G792" t="s">
+        <v>3662</v>
       </c>
       <c r="I792" t="s">
         <v>388</v>
       </c>
       <c r="J792" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="793" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
-        <v>1821</v>
+        <v>588</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="I793" t="s">
         <v>388</v>
       </c>
       <c r="J793" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="794" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="I794" t="s">
         <v>388</v>
       </c>
       <c r="J794" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="795" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>1827</v>
+        <v>1824</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>1825</v>
       </c>
       <c r="I795" t="s">
         <v>388</v>
       </c>
       <c r="J795" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="796" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="I796" t="s">
         <v>388</v>
       </c>
       <c r="J796" t="s">
-        <v>3355</v>
-      </c>
-      <c r="K796" t="s">
-        <v>3356</v>
-      </c>
-      <c r="L796" t="s">
-        <v>3357</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="797" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I797" t="s">
         <v>388</v>
       </c>
       <c r="J797" t="s">
-        <v>1831</v>
-      </c>
-      <c r="Y797" t="s">
-        <v>1832</v>
+        <v>3355</v>
+      </c>
+      <c r="K797" t="s">
+        <v>3356</v>
+      </c>
+      <c r="L797" t="s">
+        <v>3357</v>
       </c>
     </row>
     <row r="798" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B798" s="4" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G798" t="s">
-        <v>3663</v>
+        <v>1830</v>
       </c>
       <c r="I798" t="s">
         <v>388</v>
       </c>
       <c r="J798" t="s">
-        <v>3358</v>
-      </c>
-      <c r="K798" t="s">
-        <v>3359</v>
-      </c>
-      <c r="M798" t="s">
-        <v>1834</v>
-      </c>
-      <c r="S798" t="s">
-        <v>1835</v>
-      </c>
-      <c r="T798" t="s">
-        <v>1836</v>
-      </c>
-      <c r="U798" t="s">
-        <v>1837</v>
+        <v>1831</v>
+      </c>
+      <c r="Y798" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="799" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
-        <v>1838</v>
+        <v>1647</v>
       </c>
       <c r="B799" s="4" t="s">
-        <v>1839</v>
+        <v>1833</v>
+      </c>
+      <c r="G799" t="s">
+        <v>3663</v>
       </c>
       <c r="I799" t="s">
         <v>388</v>
       </c>
       <c r="J799" t="s">
-        <v>1840</v>
+        <v>3358</v>
+      </c>
+      <c r="K799" t="s">
+        <v>3359</v>
       </c>
       <c r="M799" t="s">
-        <v>1841</v>
-      </c>
-      <c r="Y799" t="s">
-        <v>1842</v>
-      </c>
-      <c r="AB799" t="s">
-        <v>1843</v>
+        <v>1834</v>
+      </c>
+      <c r="S799" t="s">
+        <v>1835</v>
+      </c>
+      <c r="T799" t="s">
+        <v>1836</v>
+      </c>
+      <c r="U799" t="s">
+        <v>1837</v>
       </c>
     </row>
     <row r="800" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D800" s="4" t="s">
-        <v>1845</v>
+        <v>1838</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>1839</v>
       </c>
       <c r="I800" t="s">
         <v>388</v>
       </c>
       <c r="J800" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="M800" t="s">
-        <v>1847</v>
+        <v>1841</v>
+      </c>
+      <c r="Y800" t="s">
+        <v>1842</v>
+      </c>
+      <c r="AB800" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="801" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="D801" s="4" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="I801" t="s">
         <v>388</v>
       </c>
       <c r="J801" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="M801" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="802" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
-        <v>1844</v>
+        <v>1848</v>
+      </c>
+      <c r="D802" s="4" t="s">
+        <v>1849</v>
       </c>
       <c r="I802" t="s">
         <v>388</v>
       </c>
       <c r="J802" t="s">
-        <v>1852</v>
+        <v>1850</v>
+      </c>
+      <c r="M802" t="s">
+        <v>1851</v>
       </c>
     </row>
     <row r="803" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B803" s="4" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E803" s="4" t="s">
-        <v>1854</v>
-      </c>
-      <c r="G803" t="s">
-        <v>3664</v>
-      </c>
-      <c r="H803" t="s">
-        <v>3636</v>
+        <v>1844</v>
       </c>
       <c r="I803" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J803" t="s">
-        <v>1855</v>
-      </c>
-      <c r="M803" t="s">
-        <v>1856</v>
-      </c>
-      <c r="S803" t="s">
-        <v>1857</v>
-      </c>
-      <c r="T803" t="s">
-        <v>1858</v>
-      </c>
-      <c r="U803" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="804" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
-        <v>1860</v>
+        <v>524</v>
       </c>
       <c r="B804" s="4" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="E804" s="4" t="s">
-        <v>1862</v>
+        <v>1854</v>
+      </c>
+      <c r="G804" t="s">
+        <v>3664</v>
+      </c>
+      <c r="H804" t="s">
+        <v>3636</v>
       </c>
       <c r="I804" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="J804" t="s">
-        <v>1863</v>
+        <v>1855</v>
       </c>
       <c r="M804" t="s">
-        <v>1864</v>
+        <v>1856</v>
+      </c>
+      <c r="S804" t="s">
+        <v>1857</v>
+      </c>
+      <c r="T804" t="s">
+        <v>1858</v>
+      </c>
+      <c r="U804" t="s">
+        <v>1859</v>
       </c>
     </row>
     <row r="805" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="B805" s="4" t="s">
-        <v>1866</v>
+        <v>1861</v>
+      </c>
+      <c r="E805" s="4" t="s">
+        <v>1862</v>
       </c>
       <c r="I805" t="s">
         <v>388</v>
       </c>
       <c r="J805" t="s">
-        <v>1867</v>
+        <v>1863</v>
+      </c>
+      <c r="M805" t="s">
+        <v>1864</v>
       </c>
     </row>
     <row r="806" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="B806" s="4" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="I806" t="s">
         <v>388</v>
       </c>
       <c r="J806" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="807" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="I807" t="s">
         <v>388</v>
       </c>
       <c r="J807" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="808" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="I808" t="s">
         <v>388</v>
       </c>
       <c r="J808" t="s">
-        <v>1876</v>
-      </c>
-      <c r="M808" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="809" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
-        <v>297</v>
+        <v>1874</v>
       </c>
       <c r="B809" s="4" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="I809" t="s">
         <v>388</v>
       </c>
       <c r="J809" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="M809" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="810" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
-        <v>1881</v>
+        <v>297</v>
       </c>
       <c r="B810" s="4" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="I810" t="s">
         <v>388</v>
       </c>
       <c r="J810" t="s">
-        <v>1883</v>
+        <v>1879</v>
+      </c>
+      <c r="M810" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="811" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
-        <v>1884</v>
+        <v>1881</v>
+      </c>
+      <c r="B811" s="4" t="s">
+        <v>1882</v>
       </c>
       <c r="I811" t="s">
         <v>388</v>
       </c>
       <c r="J811" t="s">
-        <v>1885</v>
-      </c>
-      <c r="M811" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="812" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B812" s="4" t="s">
-        <v>1888</v>
-      </c>
-      <c r="G812" t="s">
-        <v>3541</v>
+        <v>1884</v>
       </c>
       <c r="I812" t="s">
         <v>388</v>
       </c>
       <c r="J812" t="s">
-        <v>3360</v>
-      </c>
-      <c r="K812" t="s">
-        <v>1891</v>
-      </c>
-      <c r="L812" t="s">
-        <v>3361</v>
+        <v>1885</v>
       </c>
       <c r="M812" t="s">
-        <v>3362</v>
-      </c>
-      <c r="N812" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="813" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B813" s="4" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="G813" t="s">
         <v>3541</v>
@@ -50585,52 +50837,64 @@
         <v>388</v>
       </c>
       <c r="J813" t="s">
+        <v>3360</v>
+      </c>
+      <c r="K813" t="s">
         <v>1891</v>
       </c>
+      <c r="L813" t="s">
+        <v>3361</v>
+      </c>
       <c r="M813" t="s">
+        <v>3362</v>
+      </c>
+      <c r="N813" t="s">
         <v>1892</v>
       </c>
     </row>
     <row r="814" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="B814" s="4" t="s">
-        <v>1894</v>
+        <v>1890</v>
+      </c>
+      <c r="G814" t="s">
+        <v>3541</v>
       </c>
       <c r="I814" t="s">
         <v>388</v>
       </c>
       <c r="J814" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="M814" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="815" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="B815" s="4" t="s">
-        <v>1898</v>
-      </c>
-      <c r="G815" t="s">
-        <v>3541</v>
+        <v>1894</v>
       </c>
       <c r="I815" t="s">
         <v>388</v>
       </c>
       <c r="J815" t="s">
-        <v>1899</v>
+        <v>1895</v>
+      </c>
+      <c r="M815" t="s">
+        <v>1896</v>
       </c>
     </row>
     <row r="816" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="G816" t="s">
         <v>3541</v>
@@ -50639,18 +50903,15 @@
         <v>388</v>
       </c>
       <c r="J816" t="s">
-        <v>1902</v>
-      </c>
-      <c r="M816" t="s">
-        <v>3363</v>
-      </c>
-      <c r="N816" t="s">
-        <v>1892</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="817" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
-        <v>677</v>
+        <v>1900</v>
+      </c>
+      <c r="B817" s="4" t="s">
+        <v>1901</v>
       </c>
       <c r="G817" t="s">
         <v>3541</v>
@@ -50661,12 +50922,6 @@
       <c r="J817" t="s">
         <v>1902</v>
       </c>
-      <c r="K817" t="s">
-        <v>1891</v>
-      </c>
-      <c r="L817" t="s">
-        <v>3364</v>
-      </c>
       <c r="M817" t="s">
         <v>3363</v>
       </c>
@@ -50676,180 +50931,183 @@
     </row>
     <row r="818" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B818" s="4" t="s">
-        <v>1904</v>
+        <v>677</v>
+      </c>
+      <c r="G818" t="s">
+        <v>3541</v>
       </c>
       <c r="I818" t="s">
         <v>388</v>
       </c>
       <c r="J818" t="s">
-        <v>1905</v>
+        <v>1902</v>
+      </c>
+      <c r="K818" t="s">
+        <v>1891</v>
+      </c>
+      <c r="L818" t="s">
+        <v>3364</v>
       </c>
       <c r="M818" t="s">
-        <v>1906</v>
+        <v>3363</v>
+      </c>
+      <c r="N818" t="s">
+        <v>1892</v>
       </c>
     </row>
     <row r="819" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D819" s="4" t="s">
-        <v>1908</v>
-      </c>
-      <c r="G819" t="s">
-        <v>3545</v>
+        <v>1903</v>
+      </c>
+      <c r="B819" s="4" t="s">
+        <v>1904</v>
       </c>
       <c r="I819" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J819" t="s">
-        <v>386</v>
+        <v>1905</v>
       </c>
       <c r="M819" t="s">
-        <v>1909</v>
-      </c>
-      <c r="S819" t="s">
-        <v>1910</v>
-      </c>
-      <c r="T819" t="s">
-        <v>3365</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="820" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B820" s="4" t="s">
-        <v>1912</v>
+        <v>1907</v>
+      </c>
+      <c r="D820" s="4" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G820" t="s">
+        <v>3545</v>
       </c>
       <c r="I820" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="J820" t="s">
-        <v>1913</v>
+        <v>386</v>
       </c>
       <c r="M820" t="s">
-        <v>1914</v>
+        <v>1909</v>
+      </c>
+      <c r="S820" t="s">
+        <v>1910</v>
+      </c>
+      <c r="T820" t="s">
+        <v>3365</v>
       </c>
     </row>
     <row r="821" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
-        <v>1915</v>
+        <v>1911</v>
+      </c>
+      <c r="B821" s="4" t="s">
+        <v>1912</v>
       </c>
       <c r="I821" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J821" t="s">
-        <v>1916</v>
+        <v>1913</v>
+      </c>
+      <c r="M821" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="822" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B822" s="4" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="I822" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="J822" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="823" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
-        <v>1920</v>
-      </c>
-      <c r="G823" t="s">
-        <v>3507</v>
+        <v>1917</v>
+      </c>
+      <c r="B823" s="4" t="s">
+        <v>1918</v>
       </c>
       <c r="I823" t="s">
-        <v>661</v>
+        <v>388</v>
       </c>
       <c r="J823" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="824" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
-        <v>1922</v>
+        <v>1920</v>
+      </c>
+      <c r="G824" t="s">
+        <v>3507</v>
       </c>
       <c r="I824" t="s">
         <v>661</v>
       </c>
       <c r="J824" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="825" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="B825" s="4" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="I825" t="s">
         <v>661</v>
       </c>
       <c r="J825" t="s">
-        <v>1925</v>
-      </c>
-      <c r="M825" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="826" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
-        <v>1927</v>
-      </c>
-      <c r="B826" s="4" t="s">
-        <v>1928</v>
+        <v>3803</v>
       </c>
       <c r="G826" t="s">
-        <v>3665</v>
+        <v>3804</v>
+      </c>
+      <c r="H826" t="s">
+        <v>3590</v>
       </c>
       <c r="I826" t="s">
-        <v>661</v>
+        <v>388</v>
       </c>
       <c r="J826" t="s">
-        <v>1929</v>
+        <v>3805</v>
+      </c>
+      <c r="M826" t="s">
+        <v>3806</v>
       </c>
     </row>
     <row r="827" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
-        <v>1452</v>
+        <v>983</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>1930</v>
-      </c>
-      <c r="G827" t="s">
-        <v>3665</v>
-      </c>
-      <c r="H827" t="s">
-        <v>3665</v>
+        <v>1924</v>
       </c>
       <c r="I827" t="s">
         <v>661</v>
       </c>
       <c r="J827" t="s">
-        <v>3366</v>
-      </c>
-      <c r="K827" t="s">
-        <v>3367</v>
-      </c>
-      <c r="L827" t="s">
-        <v>3368</v>
+        <v>1925</v>
+      </c>
+      <c r="M827" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="828" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="G828" t="s">
         <v>3665</v>
@@ -50858,153 +51116,150 @@
         <v>661</v>
       </c>
       <c r="J828" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="829" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
-        <v>1934</v>
+        <v>1452</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="G829" t="s">
-        <v>3666</v>
+        <v>3665</v>
+      </c>
+      <c r="H829" t="s">
+        <v>3665</v>
       </c>
       <c r="I829" t="s">
         <v>661</v>
       </c>
       <c r="J829" t="s">
-        <v>1936</v>
-      </c>
-      <c r="M829" t="s">
-        <v>2543</v>
+        <v>3366</v>
+      </c>
+      <c r="K829" t="s">
+        <v>3367</v>
+      </c>
+      <c r="L829" t="s">
+        <v>3368</v>
       </c>
     </row>
     <row r="830" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="B830" s="4" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="G830" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="I830" t="s">
         <v>661</v>
       </c>
       <c r="J830" t="s">
-        <v>1939</v>
-      </c>
-      <c r="M830" t="s">
-        <v>2544</v>
-      </c>
-      <c r="V830" t="s">
-        <v>3538</v>
-      </c>
-      <c r="Y830" t="s">
-        <v>1940</v>
-      </c>
-      <c r="AB830" t="s">
-        <v>2545</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="831" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
-        <v>289</v>
+        <v>1934</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="G831" t="s">
-        <v>3534</v>
+        <v>3666</v>
       </c>
       <c r="I831" t="s">
         <v>661</v>
       </c>
       <c r="J831" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="M831" t="s">
-        <v>1943</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="832" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="B832" s="4" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="G832" t="s">
-        <v>3615</v>
+        <v>3666</v>
       </c>
       <c r="I832" t="s">
         <v>661</v>
       </c>
       <c r="J832" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="M832" t="s">
-        <v>1947</v>
+        <v>2544</v>
+      </c>
+      <c r="V832" t="s">
+        <v>3538</v>
       </c>
       <c r="Y832" t="s">
-        <v>1948</v>
+        <v>1940</v>
       </c>
       <c r="AB832" t="s">
-        <v>1949</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="833" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
-        <v>1950</v>
+        <v>289</v>
+      </c>
+      <c r="B833" s="4" t="s">
+        <v>1941</v>
       </c>
       <c r="G833" t="s">
-        <v>3639</v>
+        <v>3534</v>
       </c>
       <c r="I833" t="s">
-        <v>1602</v>
+        <v>661</v>
       </c>
       <c r="J833" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
       <c r="M833" t="s">
-        <v>1952</v>
-      </c>
-      <c r="V833" t="s">
-        <v>3667</v>
-      </c>
-      <c r="Y833" t="s">
-        <v>2546</v>
-      </c>
-      <c r="AB833" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="834" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>1954</v>
+        <v>1945</v>
+      </c>
+      <c r="G834" t="s">
+        <v>3615</v>
       </c>
       <c r="I834" t="s">
-        <v>1602</v>
+        <v>661</v>
       </c>
       <c r="J834" t="s">
-        <v>2547</v>
+        <v>1946</v>
       </c>
       <c r="M834" t="s">
-        <v>2548</v>
+        <v>1947</v>
+      </c>
+      <c r="Y834" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AB834" t="s">
+        <v>1949</v>
       </c>
     </row>
     <row r="835" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B835" s="4" t="s">
-        <v>695</v>
+        <v>1950</v>
       </c>
       <c r="G835" t="s">
         <v>3639</v>
@@ -51013,73 +51268,64 @@
         <v>1602</v>
       </c>
       <c r="J835" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="M835" t="s">
-        <v>1956</v>
+        <v>1952</v>
+      </c>
+      <c r="V835" t="s">
+        <v>3667</v>
+      </c>
+      <c r="Y835" t="s">
+        <v>2546</v>
+      </c>
+      <c r="AB835" t="s">
+        <v>1952</v>
       </c>
     </row>
     <row r="836" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
-        <v>1762</v>
+        <v>1953</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="G836" t="s">
-        <v>3668</v>
+        <v>1954</v>
       </c>
       <c r="I836" t="s">
         <v>1602</v>
       </c>
       <c r="J836" t="s">
-        <v>1958</v>
+        <v>2547</v>
       </c>
       <c r="M836" t="s">
-        <v>1959</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="837" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
-        <v>1960</v>
+        <v>1060</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C837" s="4" t="s">
-        <v>1962</v>
+        <v>695</v>
       </c>
       <c r="G837" t="s">
-        <v>3668</v>
+        <v>3639</v>
       </c>
       <c r="I837" t="s">
         <v>1602</v>
       </c>
       <c r="J837" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="M837" t="s">
-        <v>3369</v>
-      </c>
-      <c r="N837" t="s">
-        <v>3370</v>
-      </c>
-      <c r="S837" t="s">
-        <v>2696</v>
-      </c>
-      <c r="T837" t="s">
-        <v>2697</v>
-      </c>
-      <c r="U837" t="s">
-        <v>2698</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="838" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
-        <v>2699</v>
+        <v>1762</v>
       </c>
       <c r="B838" s="4" t="s">
-        <v>2700</v>
+        <v>1957</v>
       </c>
       <c r="G838" t="s">
         <v>3668</v>
@@ -51088,204 +51334,213 @@
         <v>1602</v>
       </c>
       <c r="J838" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="M838" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="839" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="B839" s="4" t="s">
-        <v>1967</v>
+        <v>1961</v>
+      </c>
+      <c r="C839" s="4" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G839" t="s">
+        <v>3668</v>
       </c>
       <c r="I839" t="s">
-        <v>388</v>
+        <v>1602</v>
       </c>
       <c r="J839" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="M839" t="s">
-        <v>1969</v>
+        <v>3369</v>
+      </c>
+      <c r="N839" t="s">
+        <v>3370</v>
+      </c>
+      <c r="S839" t="s">
+        <v>2696</v>
+      </c>
+      <c r="T839" t="s">
+        <v>2697</v>
+      </c>
+      <c r="U839" t="s">
+        <v>2698</v>
       </c>
     </row>
     <row r="840" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
-        <v>1970</v>
+        <v>2699</v>
       </c>
       <c r="B840" s="4" t="s">
-        <v>1971</v>
+        <v>2700</v>
+      </c>
+      <c r="G840" t="s">
+        <v>3668</v>
       </c>
       <c r="I840" t="s">
-        <v>388</v>
+        <v>1602</v>
       </c>
       <c r="J840" t="s">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="M840" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="841" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="B841" s="4" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="I841" t="s">
         <v>388</v>
       </c>
       <c r="J841" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="M841" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="842" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
-        <v>1703</v>
+        <v>1970</v>
+      </c>
+      <c r="B842" s="4" t="s">
+        <v>1971</v>
       </c>
       <c r="I842" t="s">
         <v>388</v>
       </c>
       <c r="J842" t="s">
-        <v>1978</v>
-      </c>
-      <c r="K842" t="s">
-        <v>3371</v>
+        <v>1972</v>
       </c>
       <c r="M842" t="s">
-        <v>1979</v>
-      </c>
-      <c r="S842" t="s">
-        <v>2549</v>
-      </c>
-      <c r="T842" t="s">
-        <v>2550</v>
-      </c>
-      <c r="U842" t="s">
-        <v>2549</v>
-      </c>
-      <c r="Y842" t="s">
-        <v>2375</v>
-      </c>
-      <c r="AB842" t="s">
-        <v>1701</v>
-      </c>
-      <c r="AC842" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AF842" t="s">
-        <v>2551</v>
-      </c>
-      <c r="AG842" t="s">
-        <v>2552</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="843" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
-        <v>1980</v>
-      </c>
-      <c r="G843" t="s">
-        <v>3639</v>
+        <v>1974</v>
+      </c>
+      <c r="B843" s="4" t="s">
+        <v>1975</v>
       </c>
       <c r="I843" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J843" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="M843" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="844" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
-        <v>1983</v>
-      </c>
-      <c r="G844" t="s">
-        <v>3639</v>
+        <v>1703</v>
       </c>
       <c r="I844" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J844" t="s">
-        <v>3372</v>
+        <v>1978</v>
       </c>
       <c r="K844" t="s">
-        <v>3373</v>
+        <v>3371</v>
+      </c>
+      <c r="M844" t="s">
+        <v>1979</v>
+      </c>
+      <c r="S844" t="s">
+        <v>2549</v>
+      </c>
+      <c r="T844" t="s">
+        <v>2550</v>
+      </c>
+      <c r="U844" t="s">
+        <v>2549</v>
+      </c>
+      <c r="Y844" t="s">
+        <v>2375</v>
+      </c>
+      <c r="AB844" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AC844" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AF844" t="s">
+        <v>2551</v>
+      </c>
+      <c r="AG844" t="s">
+        <v>2552</v>
       </c>
     </row>
     <row r="845" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
-        <v>1984</v>
+        <v>1980</v>
+      </c>
+      <c r="G845" t="s">
+        <v>3639</v>
       </c>
       <c r="I845" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="J845" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="M845" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="846" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
-        <v>1987</v>
-      </c>
-      <c r="B846" s="4" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="G846" t="s">
-        <v>3669</v>
-      </c>
-      <c r="H846" t="s">
-        <v>3670</v>
+        <v>3639</v>
       </c>
       <c r="I846" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="J846" t="s">
-        <v>1989</v>
-      </c>
-      <c r="M846" t="s">
-        <v>1990</v>
+        <v>3372</v>
+      </c>
+      <c r="K846" t="s">
+        <v>3373</v>
       </c>
     </row>
     <row r="847" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
-        <v>1991</v>
-      </c>
-      <c r="B847" s="4" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G847" t="s">
-        <v>3669</v>
-      </c>
-      <c r="H847" t="s">
-        <v>3670</v>
+        <v>1984</v>
       </c>
       <c r="I847" t="s">
         <v>388</v>
       </c>
       <c r="J847" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="M847" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="848" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
-        <v>1391</v>
+        <v>1987</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="G848" t="s">
         <v>3669</v>
@@ -51297,98 +51552,110 @@
         <v>388</v>
       </c>
       <c r="J848" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="M848" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="849" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
-        <v>1996</v>
+        <v>1991</v>
+      </c>
+      <c r="B849" s="4" t="s">
+        <v>1992</v>
       </c>
       <c r="G849" t="s">
         <v>3669</v>
       </c>
+      <c r="H849" t="s">
+        <v>3670</v>
+      </c>
       <c r="I849" t="s">
         <v>388</v>
       </c>
       <c r="J849" t="s">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="M849" t="s">
-        <v>1998</v>
-      </c>
-      <c r="S849" t="s">
-        <v>3374</v>
-      </c>
-      <c r="T849" t="s">
-        <v>3375</v>
-      </c>
-      <c r="U849" t="s">
-        <v>3376</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="850" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
-        <v>1999</v>
+        <v>1391</v>
+      </c>
+      <c r="B850" s="4" t="s">
+        <v>1993</v>
       </c>
       <c r="G850" t="s">
-        <v>3506</v>
+        <v>3669</v>
       </c>
       <c r="H850" t="s">
-        <v>3547</v>
-      </c>
-      <c r="R850" t="s">
-        <v>2000</v>
-      </c>
-      <c r="V850" t="s">
-        <v>3506</v>
-      </c>
-      <c r="W850" t="s">
-        <v>3547</v>
-      </c>
-      <c r="AE850" t="s">
-        <v>2001</v>
+        <v>3670</v>
+      </c>
+      <c r="I850" t="s">
+        <v>388</v>
+      </c>
+      <c r="J850" t="s">
+        <v>1994</v>
+      </c>
+      <c r="M850" t="s">
+        <v>1995</v>
       </c>
     </row>
     <row r="851" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="G851" t="s">
-        <v>3661</v>
+        <v>3669</v>
       </c>
       <c r="I851" t="s">
         <v>388</v>
       </c>
       <c r="J851" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="M851" t="s">
-        <v>2004</v>
+        <v>1998</v>
+      </c>
+      <c r="S851" t="s">
+        <v>3374</v>
+      </c>
+      <c r="T851" t="s">
+        <v>3375</v>
+      </c>
+      <c r="U851" t="s">
+        <v>3376</v>
       </c>
     </row>
     <row r="852" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="G852" t="s">
-        <v>3661</v>
-      </c>
-      <c r="I852" t="s">
-        <v>388</v>
-      </c>
-      <c r="J852" t="s">
-        <v>2006</v>
-      </c>
-      <c r="M852" t="s">
-        <v>2004</v>
+        <v>3506</v>
+      </c>
+      <c r="H852" t="s">
+        <v>3547</v>
+      </c>
+      <c r="R852" t="s">
+        <v>2000</v>
+      </c>
+      <c r="V852" t="s">
+        <v>3506</v>
+      </c>
+      <c r="W852" t="s">
+        <v>3547</v>
+      </c>
+      <c r="AE852" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="853" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="G853" t="s">
         <v>3661</v>
@@ -51397,286 +51664,247 @@
         <v>388</v>
       </c>
       <c r="J853" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="M853" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="854" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B854" s="4" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="G854" t="s">
-        <v>3671</v>
+        <v>3661</v>
       </c>
       <c r="I854" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J854" t="s">
-        <v>3377</v>
-      </c>
-      <c r="K854" t="s">
-        <v>3378</v>
+        <v>2006</v>
       </c>
       <c r="M854" t="s">
-        <v>2012</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="855" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
-        <v>2013</v>
-      </c>
-      <c r="B855" s="4" t="s">
-        <v>2014</v>
+        <v>2007</v>
+      </c>
+      <c r="G855" t="s">
+        <v>3661</v>
       </c>
       <c r="I855" t="s">
-        <v>2015</v>
+        <v>388</v>
       </c>
       <c r="J855" t="s">
-        <v>3379</v>
-      </c>
-      <c r="K855" t="s">
-        <v>1060</v>
+        <v>2008</v>
       </c>
       <c r="M855" t="s">
-        <v>3380</v>
-      </c>
-      <c r="N855" t="s">
-        <v>3381</v>
-      </c>
-      <c r="S855" t="s">
-        <v>2016</v>
-      </c>
-      <c r="V855" t="s">
-        <v>3672</v>
-      </c>
-      <c r="Y855" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB855" t="s">
-        <v>230</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="856" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
-        <v>2017</v>
+        <v>2010</v>
+      </c>
+      <c r="B856" s="4" t="s">
+        <v>2011</v>
       </c>
       <c r="G856" t="s">
-        <v>3512</v>
+        <v>3671</v>
       </c>
       <c r="I856" t="s">
         <v>19</v>
       </c>
       <c r="J856" t="s">
-        <v>3382</v>
+        <v>3377</v>
       </c>
       <c r="K856" t="s">
-        <v>3383</v>
+        <v>3378</v>
       </c>
       <c r="M856" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="857" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
-        <v>2019</v>
-      </c>
-      <c r="D857" s="4" t="s">
-        <v>2020</v>
+        <v>2013</v>
+      </c>
+      <c r="B857" s="4" t="s">
+        <v>2014</v>
       </c>
       <c r="I857" t="s">
-        <v>19</v>
+        <v>2015</v>
       </c>
       <c r="J857" t="s">
-        <v>2021</v>
+        <v>3379</v>
+      </c>
+      <c r="K857" t="s">
+        <v>1060</v>
       </c>
       <c r="M857" t="s">
-        <v>2022</v>
+        <v>3380</v>
+      </c>
+      <c r="N857" t="s">
+        <v>3381</v>
+      </c>
+      <c r="S857" t="s">
+        <v>2016</v>
+      </c>
+      <c r="V857" t="s">
+        <v>3672</v>
+      </c>
+      <c r="Y857" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB857" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="858" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D858" s="4" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="G858" t="s">
-        <v>3560</v>
-      </c>
-      <c r="H858" t="s">
-        <v>3673</v>
+        <v>3512</v>
       </c>
       <c r="I858" t="s">
         <v>19</v>
       </c>
       <c r="J858" t="s">
-        <v>2024</v>
+        <v>3382</v>
+      </c>
+      <c r="K858" t="s">
+        <v>3383</v>
       </c>
       <c r="M858" t="s">
-        <v>2025</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="859" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>2026</v>
+        <v>2019</v>
       </c>
       <c r="D859" s="4" t="s">
-        <v>2027</v>
-      </c>
-      <c r="G859" t="s">
-        <v>3674</v>
+        <v>2020</v>
       </c>
       <c r="I859" t="s">
-        <v>661</v>
+        <v>19</v>
       </c>
       <c r="J859" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="M859" t="s">
-        <v>3384</v>
-      </c>
-      <c r="N859" t="s">
-        <v>3385</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="860" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
-        <v>940</v>
+        <v>916</v>
+      </c>
+      <c r="D860" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G860" t="s">
+        <v>3560</v>
+      </c>
+      <c r="H860" t="s">
+        <v>3673</v>
       </c>
       <c r="I860" t="s">
         <v>19</v>
       </c>
       <c r="J860" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="M860" t="s">
-        <v>2030</v>
-      </c>
-      <c r="S860" t="s">
-        <v>2031</v>
-      </c>
-      <c r="T860" t="s">
-        <v>2032</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="861" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
-        <v>2033</v>
+        <v>2026</v>
+      </c>
+      <c r="D861" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G861" t="s">
+        <v>3674</v>
       </c>
       <c r="I861" t="s">
-        <v>19</v>
+        <v>661</v>
       </c>
       <c r="J861" t="s">
+        <v>2028</v>
+      </c>
+      <c r="M861" t="s">
+        <v>3384</v>
+      </c>
+      <c r="N861" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="862" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A862" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="I862" t="s">
+        <v>19</v>
+      </c>
+      <c r="J862" t="s">
         <v>2029</v>
       </c>
-      <c r="M861" t="s">
+      <c r="M862" t="s">
         <v>2030</v>
+      </c>
+      <c r="S862" t="s">
+        <v>2031</v>
+      </c>
+      <c r="T862" t="s">
+        <v>2032</v>
       </c>
     </row>
     <row r="863" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D863" s="4" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="I863" t="s">
         <v>19</v>
       </c>
       <c r="J863" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="M863" t="s">
-        <v>3386</v>
-      </c>
-      <c r="N863" t="s">
-        <v>3387</v>
-      </c>
-    </row>
-    <row r="864" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A864" s="1" t="s">
-        <v>2036</v>
-      </c>
-      <c r="B864" s="4" t="s">
-        <v>2037</v>
-      </c>
-      <c r="G864" t="s">
-        <v>3506</v>
-      </c>
-      <c r="I864" t="s">
-        <v>1664</v>
-      </c>
-      <c r="J864" t="s">
-        <v>3388</v>
-      </c>
-      <c r="K864" t="s">
-        <v>3389</v>
-      </c>
-      <c r="M864" t="s">
-        <v>3388</v>
-      </c>
-      <c r="N864" t="s">
-        <v>3390</v>
-      </c>
-      <c r="O864" t="s">
-        <v>3391</v>
-      </c>
-      <c r="S864" t="s">
-        <v>2038</v>
-      </c>
-      <c r="T864" t="s">
-        <v>2039</v>
-      </c>
-      <c r="U864" t="s">
-        <v>2040</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="865" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
-        <v>2041</v>
-      </c>
-      <c r="B865" s="4" t="s">
-        <v>2042</v>
-      </c>
-      <c r="G865" t="s">
-        <v>3506</v>
+        <v>940</v>
+      </c>
+      <c r="D865" s="4" t="s">
+        <v>2034</v>
       </c>
       <c r="I865" t="s">
-        <v>1664</v>
+        <v>19</v>
       </c>
       <c r="J865" t="s">
-        <v>3392</v>
-      </c>
-      <c r="K865" t="s">
-        <v>3393</v>
+        <v>2035</v>
       </c>
       <c r="M865" t="s">
-        <v>3394</v>
+        <v>3386</v>
       </c>
       <c r="N865" t="s">
-        <v>3395</v>
-      </c>
-      <c r="S865" t="s">
-        <v>2043</v>
-      </c>
-      <c r="T865" t="s">
-        <v>2044</v>
-      </c>
-      <c r="U865" t="s">
-        <v>2045</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="866" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
-        <v>2046</v>
+        <v>2036</v>
       </c>
       <c r="B866" s="4" t="s">
-        <v>2047</v>
+        <v>2037</v>
       </c>
       <c r="G866" t="s">
         <v>3506</v>
@@ -51685,33 +51913,36 @@
         <v>1664</v>
       </c>
       <c r="J866" t="s">
-        <v>3392</v>
+        <v>3388</v>
       </c>
       <c r="K866" t="s">
-        <v>3393</v>
+        <v>3389</v>
       </c>
       <c r="M866" t="s">
-        <v>3394</v>
+        <v>3388</v>
       </c>
       <c r="N866" t="s">
-        <v>3395</v>
+        <v>3390</v>
+      </c>
+      <c r="O866" t="s">
+        <v>3391</v>
       </c>
       <c r="S866" t="s">
-        <v>2048</v>
+        <v>2038</v>
       </c>
       <c r="T866" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="U866" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="867" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
-        <v>2049</v>
+        <v>2041</v>
       </c>
       <c r="B867" s="4" t="s">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="G867" t="s">
         <v>3506</v>
@@ -51720,33 +51951,33 @@
         <v>1664</v>
       </c>
       <c r="J867" t="s">
-        <v>3396</v>
+        <v>3392</v>
       </c>
       <c r="K867" t="s">
-        <v>3397</v>
+        <v>3393</v>
       </c>
       <c r="M867" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="N867" t="s">
-        <v>3399</v>
+        <v>3395</v>
       </c>
       <c r="S867" t="s">
-        <v>2051</v>
+        <v>2043</v>
       </c>
       <c r="T867" t="s">
-        <v>2052</v>
+        <v>2044</v>
       </c>
       <c r="U867" t="s">
-        <v>2053</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="868" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
-        <v>2054</v>
+        <v>2046</v>
       </c>
       <c r="B868" s="4" t="s">
-        <v>2055</v>
+        <v>2047</v>
       </c>
       <c r="G868" t="s">
         <v>3506</v>
@@ -51755,33 +51986,33 @@
         <v>1664</v>
       </c>
       <c r="J868" t="s">
-        <v>3396</v>
+        <v>3392</v>
       </c>
       <c r="K868" t="s">
-        <v>3397</v>
+        <v>3393</v>
       </c>
       <c r="M868" t="s">
-        <v>3400</v>
+        <v>3394</v>
       </c>
       <c r="N868" t="s">
-        <v>3401</v>
+        <v>3395</v>
       </c>
       <c r="S868" t="s">
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="T868" t="s">
-        <v>2052</v>
+        <v>2044</v>
       </c>
       <c r="U868" t="s">
-        <v>2053</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="869" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
-        <v>2057</v>
+        <v>2049</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>2058</v>
+        <v>2050</v>
       </c>
       <c r="G869" t="s">
         <v>3506</v>
@@ -51793,30 +52024,30 @@
         <v>3396</v>
       </c>
       <c r="K869" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="M869" t="s">
-        <v>3403</v>
+        <v>3398</v>
       </c>
       <c r="N869" t="s">
-        <v>3404</v>
+        <v>3399</v>
       </c>
       <c r="S869" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
       <c r="T869" t="s">
-        <v>2060</v>
+        <v>2052</v>
       </c>
       <c r="U869" t="s">
-        <v>2061</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="870" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
-        <v>2062</v>
+        <v>2054</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>2063</v>
+        <v>2055</v>
       </c>
       <c r="G870" t="s">
         <v>3506</v>
@@ -51828,30 +52059,30 @@
         <v>3396</v>
       </c>
       <c r="K870" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="M870" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="N870" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="S870" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="T870" t="s">
-        <v>2060</v>
+        <v>2052</v>
       </c>
       <c r="U870" t="s">
-        <v>2061</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="871" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
       <c r="G871" t="s">
         <v>3506</v>
@@ -51860,19 +52091,22 @@
         <v>1664</v>
       </c>
       <c r="J871" t="s">
-        <v>3405</v>
+        <v>3396</v>
       </c>
       <c r="K871" t="s">
-        <v>3406</v>
+        <v>3402</v>
       </c>
       <c r="M871" t="s">
-        <v>2066</v>
+        <v>3403</v>
+      </c>
+      <c r="N871" t="s">
+        <v>3404</v>
       </c>
       <c r="S871" t="s">
-        <v>2067</v>
+        <v>2059</v>
       </c>
       <c r="T871" t="s">
-        <v>2068</v>
+        <v>2060</v>
       </c>
       <c r="U871" t="s">
         <v>2061</v>
@@ -51880,10 +52114,10 @@
     </row>
     <row r="872" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="G872" t="s">
         <v>3506</v>
@@ -51892,30 +52126,33 @@
         <v>1664</v>
       </c>
       <c r="J872" t="s">
-        <v>37</v>
+        <v>3396</v>
       </c>
       <c r="K872" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="M872" t="s">
-        <v>2718</v>
+        <v>3403</v>
       </c>
       <c r="N872" t="s">
-        <v>3408</v>
+        <v>3404</v>
       </c>
       <c r="S872" t="s">
-        <v>2070</v>
+        <v>2059</v>
       </c>
       <c r="T872" t="s">
-        <v>2071</v>
+        <v>2060</v>
       </c>
       <c r="U872" t="s">
-        <v>2072</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="873" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
-        <v>2073</v>
+        <v>2064</v>
+      </c>
+      <c r="B873" s="4" t="s">
+        <v>2065</v>
       </c>
       <c r="G873" t="s">
         <v>3506</v>
@@ -51924,36 +52161,30 @@
         <v>1664</v>
       </c>
       <c r="J873" t="s">
-        <v>3409</v>
+        <v>3405</v>
       </c>
       <c r="K873" t="s">
-        <v>3410</v>
+        <v>3406</v>
       </c>
       <c r="M873" t="s">
-        <v>3411</v>
-      </c>
-      <c r="N873" t="s">
-        <v>3412</v>
-      </c>
-      <c r="O873" t="s">
-        <v>3413</v>
+        <v>2066</v>
       </c>
       <c r="S873" t="s">
-        <v>2074</v>
+        <v>2067</v>
       </c>
       <c r="T873" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="U873" t="s">
-        <v>2076</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="874" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
-        <v>2077</v>
+        <v>2069</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>2078</v>
+        <v>2069</v>
       </c>
       <c r="G874" t="s">
         <v>3506</v>
@@ -51962,33 +52193,30 @@
         <v>1664</v>
       </c>
       <c r="J874" t="s">
-        <v>3405</v>
+        <v>37</v>
       </c>
       <c r="K874" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="M874" t="s">
-        <v>3414</v>
+        <v>2718</v>
       </c>
       <c r="N874" t="s">
-        <v>2066</v>
+        <v>3408</v>
       </c>
       <c r="S874" t="s">
-        <v>2079</v>
+        <v>2070</v>
       </c>
       <c r="T874" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="U874" t="s">
-        <v>2080</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="875" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
-        <v>2081</v>
-      </c>
-      <c r="B875" s="4" t="s">
-        <v>2082</v>
+        <v>2073</v>
       </c>
       <c r="G875" t="s">
         <v>3506</v>
@@ -52009,10 +52237,10 @@
         <v>3412</v>
       </c>
       <c r="O875" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="S875" t="s">
-        <v>2083</v>
+        <v>2074</v>
       </c>
       <c r="T875" t="s">
         <v>2075</v>
@@ -52023,10 +52251,10 @@
     </row>
     <row r="876" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
-        <v>2084</v>
+        <v>2077</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="G876" t="s">
         <v>3506</v>
@@ -52041,16 +52269,13 @@
         <v>3406</v>
       </c>
       <c r="M876" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="N876" t="s">
-        <v>3417</v>
-      </c>
-      <c r="O876" t="s">
-        <v>3418</v>
+        <v>2066</v>
       </c>
       <c r="S876" t="s">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="T876" t="s">
         <v>2068</v>
@@ -52061,7 +52286,10 @@
     </row>
     <row r="877" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
-        <v>2087</v>
+        <v>2081</v>
+      </c>
+      <c r="B877" s="4" t="s">
+        <v>2082</v>
       </c>
       <c r="G877" t="s">
         <v>3506</v>
@@ -52070,33 +52298,36 @@
         <v>1664</v>
       </c>
       <c r="J877" t="s">
-        <v>3405</v>
+        <v>3409</v>
       </c>
       <c r="K877" t="s">
-        <v>3406</v>
+        <v>3410</v>
       </c>
       <c r="M877" t="s">
-        <v>3419</v>
+        <v>3411</v>
       </c>
       <c r="N877" t="s">
-        <v>3420</v>
+        <v>3412</v>
+      </c>
+      <c r="O877" t="s">
+        <v>3415</v>
       </c>
       <c r="S877" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="T877" t="s">
-        <v>2068</v>
+        <v>2075</v>
       </c>
       <c r="U877" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="878" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="G878" t="s">
         <v>3506</v>
@@ -52111,24 +52342,27 @@
         <v>3406</v>
       </c>
       <c r="M878" t="s">
-        <v>3421</v>
+        <v>3416</v>
       </c>
       <c r="N878" t="s">
-        <v>3422</v>
+        <v>3417</v>
+      </c>
+      <c r="O878" t="s">
+        <v>3418</v>
       </c>
       <c r="S878" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="T878" t="s">
-        <v>2092</v>
+        <v>2068</v>
       </c>
       <c r="U878" t="s">
-        <v>2093</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="879" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
-        <v>2094</v>
+        <v>2087</v>
       </c>
       <c r="G879" t="s">
         <v>3506</v>
@@ -52149,18 +52383,21 @@
         <v>3420</v>
       </c>
       <c r="S879" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="T879" t="s">
-        <v>2096</v>
+        <v>2068</v>
       </c>
       <c r="U879" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="880" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
-        <v>2097</v>
+        <v>2089</v>
+      </c>
+      <c r="B880" s="4" t="s">
+        <v>2090</v>
       </c>
       <c r="G880" t="s">
         <v>3506</v>
@@ -52175,24 +52412,24 @@
         <v>3406</v>
       </c>
       <c r="M880" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="N880" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
       <c r="S880" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
       <c r="T880" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="U880" t="s">
-        <v>2080</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="881" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="G881" t="s">
         <v>3506</v>
@@ -52201,25 +52438,22 @@
         <v>1664</v>
       </c>
       <c r="J881" t="s">
-        <v>3423</v>
+        <v>3405</v>
       </c>
       <c r="K881" t="s">
-        <v>3424</v>
-      </c>
-      <c r="L881" t="s">
-        <v>3425</v>
+        <v>3406</v>
       </c>
       <c r="M881" t="s">
-        <v>3426</v>
+        <v>3419</v>
       </c>
       <c r="N881" t="s">
-        <v>3415</v>
+        <v>3420</v>
       </c>
       <c r="S881" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="T881" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
       <c r="U881" t="s">
         <v>2076</v>
@@ -52227,7 +52461,7 @@
     </row>
     <row r="882" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="G882" t="s">
         <v>3506</v>
@@ -52236,33 +52470,30 @@
         <v>1664</v>
       </c>
       <c r="J882" t="s">
-        <v>3427</v>
+        <v>3405</v>
       </c>
       <c r="K882" t="s">
-        <v>3428</v>
+        <v>3406</v>
       </c>
       <c r="M882" t="s">
-        <v>3412</v>
+        <v>3419</v>
       </c>
       <c r="N882" t="s">
-        <v>3411</v>
-      </c>
-      <c r="O882" t="s">
-        <v>3415</v>
+        <v>3420</v>
       </c>
       <c r="S882" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="T882" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="U882" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="883" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="G883" t="s">
         <v>3506</v>
@@ -52271,445 +52502,475 @@
         <v>1664</v>
       </c>
       <c r="J883" t="s">
-        <v>3405</v>
+        <v>3423</v>
       </c>
       <c r="K883" t="s">
-        <v>3406</v>
+        <v>3424</v>
+      </c>
+      <c r="L883" t="s">
+        <v>3425</v>
       </c>
       <c r="M883" t="s">
-        <v>3417</v>
+        <v>3426</v>
       </c>
       <c r="N883" t="s">
-        <v>3416</v>
-      </c>
-      <c r="O883" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="S883" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="T883" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="U883" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="884" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D884" s="4" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="G884" t="s">
-        <v>3624</v>
+        <v>3506</v>
       </c>
       <c r="I884" t="s">
-        <v>661</v>
+        <v>1664</v>
       </c>
       <c r="J884" t="s">
-        <v>2111</v>
+        <v>3427</v>
+      </c>
+      <c r="K884" t="s">
+        <v>3428</v>
       </c>
       <c r="M884" t="s">
-        <v>2112</v>
+        <v>3412</v>
+      </c>
+      <c r="N884" t="s">
+        <v>3411</v>
+      </c>
+      <c r="O884" t="s">
+        <v>3415</v>
+      </c>
+      <c r="S884" t="s">
+        <v>2104</v>
+      </c>
+      <c r="T884" t="s">
+        <v>2105</v>
+      </c>
+      <c r="U884" t="s">
+        <v>2076</v>
       </c>
     </row>
     <row r="885" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
-        <v>2113</v>
-      </c>
-      <c r="D885" s="4" t="s">
-        <v>2114</v>
+        <v>2106</v>
       </c>
       <c r="G885" t="s">
-        <v>3675</v>
+        <v>3506</v>
       </c>
       <c r="I885" t="s">
-        <v>661</v>
+        <v>1664</v>
       </c>
       <c r="J885" t="s">
-        <v>2115</v>
+        <v>3405</v>
+      </c>
+      <c r="K885" t="s">
+        <v>3406</v>
       </c>
       <c r="M885" t="s">
-        <v>3429</v>
+        <v>3417</v>
       </c>
       <c r="N885" t="s">
-        <v>2119</v>
+        <v>3416</v>
       </c>
       <c r="O885" t="s">
-        <v>3430</v>
-      </c>
-      <c r="V885" t="s">
-        <v>3615</v>
-      </c>
-      <c r="Y885" t="s">
-        <v>3431</v>
-      </c>
-      <c r="Z885" t="s">
-        <v>3432</v>
-      </c>
-      <c r="AB885" t="s">
-        <v>2116</v>
+        <v>3418</v>
+      </c>
+      <c r="S885" t="s">
+        <v>2107</v>
+      </c>
+      <c r="T885" t="s">
+        <v>2108</v>
+      </c>
+      <c r="U885" t="s">
+        <v>2080</v>
       </c>
     </row>
     <row r="886" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C886" s="4" t="s">
-        <v>2117</v>
+        <v>2109</v>
+      </c>
+      <c r="D886" s="4" t="s">
+        <v>2110</v>
       </c>
       <c r="G886" t="s">
-        <v>3675</v>
+        <v>3624</v>
       </c>
       <c r="I886" t="s">
         <v>661</v>
       </c>
       <c r="J886" t="s">
-        <v>2118</v>
-      </c>
-      <c r="K886" t="s">
-        <v>3755</v>
+        <v>2111</v>
       </c>
       <c r="M886" t="s">
-        <v>2119</v>
-      </c>
-      <c r="N886" t="s">
-        <v>3756</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="887" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B887" s="4" t="s">
-        <v>2120</v>
+        <v>2113</v>
+      </c>
+      <c r="D887" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G887" t="s">
+        <v>3675</v>
       </c>
       <c r="I887" t="s">
-        <v>388</v>
+        <v>661</v>
       </c>
       <c r="J887" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
       <c r="M887" t="s">
-        <v>1704</v>
+        <v>3429</v>
+      </c>
+      <c r="N887" t="s">
+        <v>2119</v>
+      </c>
+      <c r="O887" t="s">
+        <v>3430</v>
+      </c>
+      <c r="V887" t="s">
+        <v>3615</v>
+      </c>
+      <c r="Y887" t="s">
+        <v>3431</v>
+      </c>
+      <c r="Z887" t="s">
+        <v>3432</v>
+      </c>
+      <c r="AB887" t="s">
+        <v>2116</v>
       </c>
     </row>
     <row r="888" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="D888" s="4" t="s">
-        <v>2123</v>
+        <v>572</v>
+      </c>
+      <c r="C888" s="4" t="s">
+        <v>2117</v>
       </c>
       <c r="G888" t="s">
-        <v>3548</v>
-      </c>
-      <c r="H888" t="s">
-        <v>3570</v>
+        <v>3675</v>
       </c>
       <c r="I888" t="s">
-        <v>19</v>
+        <v>661</v>
       </c>
       <c r="J888" t="s">
-        <v>3433</v>
+        <v>2118</v>
       </c>
       <c r="K888" t="s">
-        <v>2124</v>
+        <v>3755</v>
       </c>
       <c r="M888" t="s">
-        <v>2124</v>
+        <v>2119</v>
+      </c>
+      <c r="N888" t="s">
+        <v>3756</v>
       </c>
     </row>
     <row r="889" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D889" s="4" t="s">
-        <v>1283</v>
+        <v>215</v>
+      </c>
+      <c r="B889" s="4" t="s">
+        <v>2120</v>
       </c>
       <c r="I889" t="s">
         <v>388</v>
       </c>
       <c r="J889" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="M889" t="s">
-        <v>2126</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="890" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B890" s="4" t="s">
-        <v>2128</v>
+        <v>2122</v>
+      </c>
+      <c r="D890" s="4" t="s">
+        <v>2123</v>
       </c>
       <c r="G890" t="s">
-        <v>3676</v>
+        <v>3548</v>
+      </c>
+      <c r="H890" t="s">
+        <v>3570</v>
       </c>
       <c r="I890" t="s">
-        <v>661</v>
+        <v>19</v>
       </c>
       <c r="J890" t="s">
-        <v>2129</v>
+        <v>3433</v>
+      </c>
+      <c r="K890" t="s">
+        <v>2124</v>
       </c>
       <c r="M890" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="891" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
-        <v>2131</v>
+        <v>1282</v>
       </c>
       <c r="D891" s="4" t="s">
-        <v>2132</v>
-      </c>
-      <c r="G891" t="s">
-        <v>3677</v>
+        <v>1283</v>
       </c>
       <c r="I891" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J891" t="s">
-        <v>2133</v>
+        <v>2125</v>
       </c>
       <c r="M891" t="s">
-        <v>2134</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="892" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D892" s="4" t="s">
-        <v>2135</v>
+        <v>2127</v>
+      </c>
+      <c r="B892" s="4" t="s">
+        <v>2128</v>
       </c>
       <c r="G892" t="s">
-        <v>3568</v>
+        <v>3676</v>
       </c>
       <c r="I892" t="s">
         <v>661</v>
       </c>
       <c r="J892" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="M892" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="893" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="D893" s="4" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
       <c r="G893" t="s">
-        <v>3624</v>
+        <v>3677</v>
       </c>
       <c r="I893" t="s">
-        <v>661</v>
+        <v>19</v>
       </c>
       <c r="J893" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="M893" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="894" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>2142</v>
+        <v>1108</v>
       </c>
       <c r="D894" s="4" t="s">
-        <v>2143</v>
+        <v>2135</v>
       </c>
       <c r="G894" t="s">
-        <v>3615</v>
+        <v>3568</v>
       </c>
       <c r="I894" t="s">
-        <v>19</v>
+        <v>661</v>
       </c>
       <c r="J894" t="s">
-        <v>2144</v>
+        <v>2136</v>
       </c>
       <c r="M894" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="895" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B895" s="4" t="s">
-        <v>2146</v>
+        <v>2138</v>
+      </c>
+      <c r="D895" s="4" t="s">
+        <v>2139</v>
       </c>
       <c r="G895" t="s">
-        <v>3569</v>
-      </c>
-      <c r="H895" t="s">
-        <v>3678</v>
+        <v>3624</v>
       </c>
       <c r="I895" t="s">
-        <v>19</v>
+        <v>661</v>
       </c>
       <c r="J895" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="M895" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="896" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B896" s="4" t="s">
-        <v>2149</v>
-      </c>
-      <c r="E896" s="4" t="s">
-        <v>2150</v>
+        <v>2142</v>
+      </c>
+      <c r="D896" s="4" t="s">
+        <v>2143</v>
       </c>
       <c r="G896" t="s">
-        <v>3506</v>
+        <v>3615</v>
       </c>
       <c r="I896" t="s">
-        <v>1664</v>
+        <v>19</v>
       </c>
       <c r="J896" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="M896" t="s">
-        <v>2152</v>
-      </c>
-      <c r="S896" t="s">
-        <v>2153</v>
-      </c>
-      <c r="T896" t="s">
-        <v>2154</v>
-      </c>
-      <c r="U896" t="s">
-        <v>2155</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="897" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
-        <v>1917</v>
+        <v>580</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>2156</v>
+        <v>2146</v>
       </c>
       <c r="G897" t="s">
-        <v>3506</v>
+        <v>3569</v>
+      </c>
+      <c r="H897" t="s">
+        <v>3678</v>
       </c>
       <c r="I897" t="s">
-        <v>1602</v>
+        <v>19</v>
       </c>
       <c r="J897" t="s">
-        <v>3434</v>
-      </c>
-      <c r="K897" t="s">
-        <v>3435</v>
+        <v>2147</v>
       </c>
       <c r="M897" t="s">
-        <v>3436</v>
-      </c>
-      <c r="N897" t="s">
-        <v>3437</v>
-      </c>
-      <c r="S897" t="s">
-        <v>2553</v>
-      </c>
-      <c r="T897" t="s">
-        <v>2157</v>
-      </c>
-      <c r="U897" t="s">
-        <v>2158</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="898" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
-        <v>2554</v>
+        <v>225</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>2159</v>
+        <v>2149</v>
+      </c>
+      <c r="E898" s="4" t="s">
+        <v>2150</v>
       </c>
       <c r="G898" t="s">
-        <v>3639</v>
-      </c>
-      <c r="H898" t="s">
         <v>3506</v>
       </c>
       <c r="I898" t="s">
-        <v>1602</v>
+        <v>1664</v>
       </c>
       <c r="J898" t="s">
-        <v>2160</v>
+        <v>2151</v>
       </c>
       <c r="M898" t="s">
-        <v>2161</v>
+        <v>2152</v>
       </c>
       <c r="S898" t="s">
-        <v>2376</v>
+        <v>2153</v>
       </c>
       <c r="T898" t="s">
-        <v>2162</v>
+        <v>2154</v>
       </c>
       <c r="U898" t="s">
-        <v>2163</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="899" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
-        <v>2555</v>
+        <v>1917</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>2164</v>
+        <v>2156</v>
       </c>
       <c r="G899" t="s">
-        <v>3639</v>
-      </c>
-      <c r="H899" t="s">
         <v>3506</v>
       </c>
       <c r="I899" t="s">
         <v>1602</v>
       </c>
       <c r="J899" t="s">
-        <v>2165</v>
+        <v>3434</v>
+      </c>
+      <c r="K899" t="s">
+        <v>3435</v>
       </c>
       <c r="M899" t="s">
-        <v>2165</v>
+        <v>3436</v>
+      </c>
+      <c r="N899" t="s">
+        <v>3437</v>
+      </c>
+      <c r="S899" t="s">
+        <v>2553</v>
+      </c>
+      <c r="T899" t="s">
+        <v>2157</v>
+      </c>
+      <c r="U899" t="s">
+        <v>2158</v>
       </c>
     </row>
     <row r="900" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
-        <v>2166</v>
+        <v>2554</v>
+      </c>
+      <c r="B900" s="4" t="s">
+        <v>2159</v>
+      </c>
+      <c r="G900" t="s">
+        <v>3639</v>
+      </c>
+      <c r="H900" t="s">
+        <v>3506</v>
       </c>
       <c r="I900" t="s">
         <v>1602</v>
       </c>
       <c r="J900" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
       <c r="M900" t="s">
-        <v>2168</v>
-      </c>
-      <c r="X900" t="s">
-        <v>2169</v>
+        <v>2161</v>
+      </c>
+      <c r="S900" t="s">
+        <v>2376</v>
+      </c>
+      <c r="T900" t="s">
+        <v>2162</v>
+      </c>
+      <c r="U900" t="s">
+        <v>2163</v>
       </c>
     </row>
     <row r="901" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B901" s="4" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="G901" t="s">
-        <v>3512</v>
+        <v>3639</v>
       </c>
       <c r="H901" t="s">
         <v>3506</v>
@@ -52718,1342 +52979,1303 @@
         <v>1602</v>
       </c>
       <c r="J901" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="M901" t="s">
-        <v>2172</v>
-      </c>
-      <c r="S901" t="s">
-        <v>2557</v>
-      </c>
-      <c r="T901" t="s">
-        <v>2173</v>
-      </c>
-      <c r="U901" t="s">
-        <v>2174</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="902" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>2175</v>
-      </c>
-      <c r="G902" t="s">
-        <v>3506</v>
+        <v>2166</v>
       </c>
       <c r="I902" t="s">
         <v>1602</v>
       </c>
       <c r="J902" t="s">
-        <v>2176</v>
-      </c>
-      <c r="K902" t="s">
-        <v>3757</v>
+        <v>2167</v>
       </c>
       <c r="M902" t="s">
-        <v>2177</v>
-      </c>
-      <c r="S902" t="s">
-        <v>2178</v>
-      </c>
-      <c r="T902" t="s">
-        <v>2179</v>
-      </c>
-      <c r="U902" t="s">
-        <v>2180</v>
-      </c>
-      <c r="V902" t="s">
-        <v>3506</v>
+        <v>2168</v>
       </c>
       <c r="X902" t="s">
         <v>2169</v>
       </c>
-      <c r="Y902" t="s">
-        <v>2176</v>
-      </c>
-      <c r="AB902" t="s">
-        <v>2177</v>
-      </c>
-      <c r="AF902" t="s">
-        <v>3438</v>
-      </c>
-      <c r="AG902" t="s">
-        <v>3439</v>
-      </c>
-      <c r="AH902" t="s">
-        <v>2181</v>
-      </c>
     </row>
     <row r="903" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
-        <v>2182</v>
-      </c>
-      <c r="D903" s="4" t="s">
-        <v>2183</v>
+        <v>2556</v>
+      </c>
+      <c r="B903" s="4" t="s">
+        <v>2170</v>
       </c>
       <c r="G903" t="s">
-        <v>3679</v>
+        <v>3512</v>
       </c>
       <c r="H903" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="I903" t="s">
-        <v>19</v>
+        <v>1602</v>
       </c>
       <c r="J903" t="s">
-        <v>3440</v>
-      </c>
-      <c r="K903" t="s">
-        <v>2184</v>
+        <v>2171</v>
       </c>
       <c r="M903" t="s">
-        <v>2184</v>
+        <v>2172</v>
+      </c>
+      <c r="S903" t="s">
+        <v>2557</v>
+      </c>
+      <c r="T903" t="s">
+        <v>2173</v>
+      </c>
+      <c r="U903" t="s">
+        <v>2174</v>
       </c>
     </row>
     <row r="904" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
-        <v>2185</v>
-      </c>
-      <c r="B904" s="4" t="s">
-        <v>2186</v>
+        <v>2175</v>
       </c>
       <c r="G904" t="s">
-        <v>3512</v>
+        <v>3506</v>
       </c>
       <c r="I904" t="s">
-        <v>19</v>
+        <v>1602</v>
       </c>
       <c r="J904" t="s">
-        <v>2187</v>
+        <v>2176</v>
+      </c>
+      <c r="K904" t="s">
+        <v>3757</v>
       </c>
       <c r="M904" t="s">
-        <v>2188</v>
+        <v>2177</v>
+      </c>
+      <c r="S904" t="s">
+        <v>2178</v>
+      </c>
+      <c r="T904" t="s">
+        <v>2179</v>
+      </c>
+      <c r="U904" t="s">
+        <v>2180</v>
+      </c>
+      <c r="V904" t="s">
+        <v>3506</v>
+      </c>
+      <c r="X904" t="s">
+        <v>2169</v>
+      </c>
+      <c r="Y904" t="s">
+        <v>2176</v>
+      </c>
+      <c r="AB904" t="s">
+        <v>2177</v>
+      </c>
+      <c r="AF904" t="s">
+        <v>3438</v>
+      </c>
+      <c r="AG904" t="s">
+        <v>3439</v>
+      </c>
+      <c r="AH904" t="s">
+        <v>2181</v>
       </c>
     </row>
     <row r="905" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
       <c r="D905" s="4" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
       <c r="G905" t="s">
-        <v>3680</v>
+        <v>3679</v>
+      </c>
+      <c r="H905" t="s">
+        <v>3507</v>
       </c>
       <c r="I905" t="s">
         <v>19</v>
       </c>
       <c r="J905" t="s">
-        <v>2191</v>
+        <v>3440</v>
+      </c>
+      <c r="K905" t="s">
+        <v>2184</v>
       </c>
       <c r="M905" t="s">
-        <v>3441</v>
-      </c>
-      <c r="N905" t="s">
-        <v>3442</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="906" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
-        <v>2192</v>
-      </c>
-      <c r="C906" s="4" t="s">
-        <v>2193</v>
+        <v>2185</v>
+      </c>
+      <c r="B906" s="4" t="s">
+        <v>2186</v>
       </c>
       <c r="G906" t="s">
-        <v>3680</v>
+        <v>3512</v>
       </c>
       <c r="I906" t="s">
         <v>19</v>
       </c>
       <c r="J906" t="s">
-        <v>2194</v>
+        <v>2187</v>
       </c>
       <c r="M906" t="s">
-        <v>3443</v>
-      </c>
-      <c r="N906" t="s">
-        <v>3442</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="907" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C907" s="4" t="s">
-        <v>2195</v>
+        <v>2189</v>
+      </c>
+      <c r="D907" s="4" t="s">
+        <v>2190</v>
       </c>
       <c r="G907" t="s">
-        <v>3507</v>
-      </c>
-      <c r="H907" t="s">
-        <v>3566</v>
+        <v>3680</v>
       </c>
       <c r="I907" t="s">
-        <v>661</v>
+        <v>19</v>
       </c>
       <c r="J907" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
       <c r="M907" t="s">
-        <v>2197</v>
+        <v>3441</v>
+      </c>
+      <c r="N907" t="s">
+        <v>3442</v>
       </c>
     </row>
     <row r="908" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>1401</v>
+        <v>2192</v>
       </c>
       <c r="C908" s="4" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="G908" t="s">
-        <v>3681</v>
-      </c>
-      <c r="H908" t="s">
-        <v>3633</v>
+        <v>3680</v>
       </c>
       <c r="I908" t="s">
         <v>19</v>
       </c>
       <c r="J908" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="M908" t="s">
-        <v>2200</v>
+        <v>3443</v>
+      </c>
+      <c r="N908" t="s">
+        <v>3442</v>
       </c>
     </row>
     <row r="909" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>2201</v>
-      </c>
-      <c r="B909" s="4" t="s">
-        <v>2202</v>
+        <v>1401</v>
+      </c>
+      <c r="C909" s="4" t="s">
+        <v>2195</v>
       </c>
       <c r="G909" t="s">
-        <v>3569</v>
+        <v>3507</v>
+      </c>
+      <c r="H909" t="s">
+        <v>3566</v>
       </c>
       <c r="I909" t="s">
-        <v>19</v>
+        <v>661</v>
       </c>
       <c r="J909" t="s">
-        <v>2203</v>
+        <v>2196</v>
       </c>
       <c r="M909" t="s">
-        <v>2204</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="910" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
-        <v>2205</v>
+        <v>1401</v>
       </c>
       <c r="C910" s="4" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
       <c r="G910" t="s">
-        <v>3507</v>
+        <v>3681</v>
       </c>
       <c r="H910" t="s">
-        <v>3566</v>
+        <v>3633</v>
       </c>
       <c r="I910" t="s">
-        <v>661</v>
+        <v>19</v>
       </c>
       <c r="J910" t="s">
-        <v>2207</v>
+        <v>2199</v>
       </c>
       <c r="M910" t="s">
-        <v>2208</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="911" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D911" s="4" t="s">
-        <v>2209</v>
+        <v>2201</v>
+      </c>
+      <c r="B911" s="4" t="s">
+        <v>2202</v>
       </c>
       <c r="G911" t="s">
-        <v>3507</v>
+        <v>3569</v>
       </c>
       <c r="I911" t="s">
         <v>19</v>
       </c>
       <c r="J911" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="M911" t="s">
-        <v>2211</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="912" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
-        <v>2212</v>
+        <v>2205</v>
+      </c>
+      <c r="C912" s="4" t="s">
+        <v>2206</v>
       </c>
       <c r="G912" t="s">
-        <v>3679</v>
+        <v>3507</v>
+      </c>
+      <c r="H912" t="s">
+        <v>3566</v>
       </c>
       <c r="I912" t="s">
-        <v>388</v>
+        <v>661</v>
       </c>
       <c r="J912" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="M912" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="913" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
-        <v>2215</v>
-      </c>
-      <c r="B913" s="4" t="s">
-        <v>2216</v>
+        <v>1309</v>
+      </c>
+      <c r="D913" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G913" t="s">
+        <v>3507</v>
       </c>
       <c r="I913" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="J913" t="s">
-        <v>3444</v>
-      </c>
-      <c r="K913" t="s">
-        <v>3445</v>
+        <v>2210</v>
       </c>
       <c r="M913" t="s">
-        <v>2217</v>
-      </c>
-      <c r="X913" t="s">
-        <v>661</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="914" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="G914" t="s">
-        <v>3533</v>
+        <v>3679</v>
       </c>
       <c r="I914" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J914" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="M914" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="915" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>2221</v>
-      </c>
-      <c r="G915" t="s">
-        <v>3533</v>
-      </c>
-      <c r="H915" t="s">
-        <v>3536</v>
+        <v>2215</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>2216</v>
       </c>
       <c r="I915" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J915" t="s">
-        <v>2222</v>
+        <v>3444</v>
+      </c>
+      <c r="K915" t="s">
+        <v>3445</v>
       </c>
       <c r="M915" t="s">
-        <v>2223</v>
-      </c>
-      <c r="V915" t="s">
-        <v>3533</v>
-      </c>
-      <c r="W915" t="s">
-        <v>3536</v>
-      </c>
-      <c r="Y915" t="s">
-        <v>2224</v>
-      </c>
-      <c r="AH915" t="s">
-        <v>2225</v>
+        <v>2217</v>
+      </c>
+      <c r="X915" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="916" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
-        <v>2226</v>
+        <v>2218</v>
       </c>
       <c r="G916" t="s">
-        <v>3682</v>
+        <v>3533</v>
       </c>
       <c r="I916" t="s">
         <v>19</v>
       </c>
       <c r="J916" t="s">
-        <v>2227</v>
+        <v>2219</v>
       </c>
       <c r="M916" t="s">
-        <v>2228</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="917" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
-        <v>2229</v>
+        <v>2221</v>
       </c>
       <c r="G917" t="s">
-        <v>3506</v>
+        <v>3533</v>
+      </c>
+      <c r="H917" t="s">
+        <v>3536</v>
       </c>
       <c r="I917" t="s">
-        <v>2169</v>
+        <v>19</v>
       </c>
       <c r="J917" t="s">
-        <v>2230</v>
+        <v>2222</v>
       </c>
       <c r="M917" t="s">
-        <v>2231</v>
-      </c>
-      <c r="S917" t="s">
-        <v>2232</v>
-      </c>
-      <c r="T917" t="s">
-        <v>2233</v>
-      </c>
-      <c r="U917" t="s">
-        <v>2234</v>
+        <v>2223</v>
+      </c>
+      <c r="V917" t="s">
+        <v>3533</v>
+      </c>
+      <c r="W917" t="s">
+        <v>3536</v>
+      </c>
+      <c r="Y917" t="s">
+        <v>2224</v>
+      </c>
+      <c r="AH917" t="s">
+        <v>2225</v>
       </c>
     </row>
     <row r="918" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
-        <v>2235</v>
+        <v>2226</v>
       </c>
       <c r="G918" t="s">
-        <v>3683</v>
-      </c>
-      <c r="H918" t="s">
-        <v>3572</v>
+        <v>3682</v>
       </c>
       <c r="I918" t="s">
         <v>19</v>
       </c>
       <c r="J918" t="s">
-        <v>2236</v>
+        <v>2227</v>
       </c>
       <c r="M918" t="s">
-        <v>2237</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="919" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
-        <v>1441</v>
+        <v>2229</v>
       </c>
       <c r="G919" t="s">
-        <v>3638</v>
+        <v>3506</v>
       </c>
       <c r="I919" t="s">
-        <v>19</v>
+        <v>2169</v>
       </c>
       <c r="J919" t="s">
-        <v>2238</v>
+        <v>2230</v>
       </c>
       <c r="M919" t="s">
-        <v>2239</v>
+        <v>2231</v>
+      </c>
+      <c r="S919" t="s">
+        <v>2232</v>
+      </c>
+      <c r="T919" t="s">
+        <v>2233</v>
+      </c>
+      <c r="U919" t="s">
+        <v>2234</v>
       </c>
     </row>
     <row r="920" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
-        <v>1553</v>
+        <v>2235</v>
       </c>
       <c r="G920" t="s">
-        <v>3625</v>
+        <v>3683</v>
       </c>
       <c r="H920" t="s">
-        <v>3570</v>
+        <v>3572</v>
       </c>
       <c r="I920" t="s">
         <v>19</v>
       </c>
       <c r="J920" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="M920" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="921" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
-        <v>2242</v>
+        <v>1441</v>
       </c>
       <c r="G921" t="s">
-        <v>3590</v>
+        <v>3638</v>
       </c>
       <c r="I921" t="s">
         <v>19</v>
       </c>
       <c r="J921" t="s">
-        <v>3495</v>
+        <v>2238</v>
       </c>
       <c r="M921" t="s">
-        <v>3446</v>
-      </c>
-      <c r="N921" t="s">
-        <v>3447</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="922" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
-        <v>2243</v>
+        <v>1553</v>
       </c>
       <c r="G922" t="s">
-        <v>3652</v>
+        <v>3625</v>
+      </c>
+      <c r="H922" t="s">
+        <v>3570</v>
       </c>
       <c r="I922" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="J922" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="M922" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="923" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
-        <v>1827</v>
+        <v>2242</v>
       </c>
       <c r="G923" t="s">
-        <v>3570</v>
+        <v>3590</v>
       </c>
       <c r="I923" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="J923" t="s">
-        <v>1828</v>
-      </c>
-      <c r="K923" t="s">
-        <v>3448</v>
+        <v>3495</v>
       </c>
       <c r="M923" t="s">
-        <v>2246</v>
+        <v>3446</v>
+      </c>
+      <c r="N923" t="s">
+        <v>3447</v>
       </c>
     </row>
     <row r="924" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="G924" t="s">
-        <v>3556</v>
+        <v>3652</v>
       </c>
       <c r="I924" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J924" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="M924" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="925" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
-        <v>3758</v>
+        <v>1827</v>
       </c>
       <c r="G925" t="s">
-        <v>3652</v>
+        <v>3570</v>
       </c>
       <c r="I925" t="s">
         <v>388</v>
       </c>
       <c r="J925" t="s">
-        <v>2250</v>
+        <v>1828</v>
+      </c>
+      <c r="K925" t="s">
+        <v>3448</v>
       </c>
       <c r="M925" t="s">
-        <v>2251</v>
-      </c>
-      <c r="N925" t="s">
-        <v>3759</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="926" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="G926" t="s">
-        <v>3684</v>
+        <v>3556</v>
       </c>
       <c r="I926" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="J926" t="s">
-        <v>1735</v>
-      </c>
-      <c r="K926" t="s">
-        <v>1736</v>
+        <v>2248</v>
+      </c>
+      <c r="M926" t="s">
+        <v>2249</v>
       </c>
     </row>
     <row r="927" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
-        <v>2142</v>
+        <v>3758</v>
       </c>
       <c r="G927" t="s">
-        <v>3661</v>
+        <v>3652</v>
       </c>
       <c r="I927" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J927" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="M927" t="s">
-        <v>2254</v>
+        <v>2251</v>
+      </c>
+      <c r="N927" t="s">
+        <v>3759</v>
       </c>
     </row>
     <row r="928" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="G928" t="s">
-        <v>3541</v>
+        <v>3684</v>
       </c>
       <c r="I928" t="s">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="J928" t="s">
-        <v>2256</v>
-      </c>
-      <c r="M928" t="s">
-        <v>2257</v>
+        <v>1735</v>
+      </c>
+      <c r="K928" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="929" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
-        <v>2258</v>
+        <v>2142</v>
       </c>
       <c r="G929" t="s">
-        <v>3556</v>
+        <v>3661</v>
       </c>
       <c r="I929" t="s">
         <v>19</v>
       </c>
       <c r="J929" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="M929" t="s">
-        <v>2260</v>
-      </c>
-      <c r="S929" t="s">
-        <v>2261</v>
-      </c>
-      <c r="T929" t="s">
-        <v>2262</v>
-      </c>
-      <c r="U929" t="s">
-        <v>2263</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="930" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
-        <v>985</v>
+        <v>2255</v>
       </c>
       <c r="G930" t="s">
-        <v>3507</v>
-      </c>
-      <c r="H930" t="s">
-        <v>3685</v>
+        <v>3541</v>
       </c>
       <c r="I930" t="s">
         <v>19</v>
       </c>
       <c r="J930" t="s">
-        <v>2264</v>
+        <v>2256</v>
       </c>
       <c r="M930" t="s">
-        <v>2265</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="931" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="G931" t="s">
-        <v>3507</v>
+        <v>3556</v>
       </c>
       <c r="I931" t="s">
         <v>19</v>
       </c>
       <c r="J931" t="s">
-        <v>2267</v>
+        <v>2259</v>
       </c>
       <c r="M931" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
       <c r="S931" t="s">
-        <v>2268</v>
+        <v>2261</v>
       </c>
       <c r="T931" t="s">
-        <v>2269</v>
+        <v>2262</v>
       </c>
       <c r="U931" t="s">
-        <v>2270</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="932" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>593</v>
+        <v>985</v>
       </c>
       <c r="G932" t="s">
-        <v>3570</v>
+        <v>3507</v>
+      </c>
+      <c r="H932" t="s">
+        <v>3685</v>
       </c>
       <c r="I932" t="s">
         <v>19</v>
       </c>
+      <c r="J932" t="s">
+        <v>2264</v>
+      </c>
       <c r="M932" t="s">
-        <v>2271</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="933" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
       <c r="G933" t="s">
-        <v>3589</v>
+        <v>3507</v>
       </c>
       <c r="I933" t="s">
         <v>19</v>
       </c>
       <c r="J933" t="s">
-        <v>3449</v>
-      </c>
-      <c r="K933" t="s">
-        <v>3450</v>
+        <v>2267</v>
       </c>
       <c r="M933" t="s">
-        <v>2273</v>
+        <v>2267</v>
+      </c>
+      <c r="S933" t="s">
+        <v>2268</v>
+      </c>
+      <c r="T933" t="s">
+        <v>2269</v>
+      </c>
+      <c r="U933" t="s">
+        <v>2270</v>
       </c>
     </row>
     <row r="934" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
-        <v>2274</v>
+        <v>593</v>
       </c>
       <c r="G934" t="s">
-        <v>3686</v>
+        <v>3570</v>
       </c>
       <c r="I934" t="s">
-        <v>388</v>
-      </c>
-      <c r="J934" t="s">
-        <v>1867</v>
+        <v>19</v>
       </c>
       <c r="M934" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="935" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="G935" t="s">
-        <v>3662</v>
+        <v>3589</v>
       </c>
       <c r="I935" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="J935" t="s">
-        <v>2277</v>
+        <v>3449</v>
+      </c>
+      <c r="K935" t="s">
+        <v>3450</v>
       </c>
       <c r="M935" t="s">
-        <v>2278</v>
-      </c>
-      <c r="V935" t="s">
-        <v>3662</v>
-      </c>
-      <c r="Y935" t="s">
-        <v>1758</v>
-      </c>
-      <c r="AB935" t="s">
-        <v>1759</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="936" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>2279</v>
+        <v>2274</v>
+      </c>
+      <c r="G936" t="s">
+        <v>3686</v>
       </c>
       <c r="I936" t="s">
         <v>388</v>
       </c>
       <c r="J936" t="s">
-        <v>1978</v>
+        <v>1867</v>
       </c>
       <c r="M936" t="s">
-        <v>1979</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="937" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
-        <v>2280</v>
+        <v>2276</v>
+      </c>
+      <c r="G937" t="s">
+        <v>3662</v>
       </c>
       <c r="I937" t="s">
         <v>388</v>
       </c>
       <c r="J937" t="s">
-        <v>3451</v>
-      </c>
-      <c r="K937" t="s">
-        <v>3452</v>
+        <v>2277</v>
       </c>
       <c r="M937" t="s">
-        <v>2281</v>
+        <v>2278</v>
+      </c>
+      <c r="V937" t="s">
+        <v>3662</v>
       </c>
       <c r="Y937" t="s">
-        <v>2282</v>
+        <v>1758</v>
       </c>
       <c r="AB937" t="s">
-        <v>2283</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="938" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="I938" t="s">
         <v>388</v>
       </c>
       <c r="J938" t="s">
-        <v>2285</v>
+        <v>1978</v>
       </c>
       <c r="M938" t="s">
-        <v>2286</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="939" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="I939" t="s">
         <v>388</v>
       </c>
       <c r="J939" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="K939" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="M939" t="s">
-        <v>3455</v>
-      </c>
-      <c r="N939" t="s">
-        <v>3456</v>
+        <v>2281</v>
+      </c>
+      <c r="Y939" t="s">
+        <v>2282</v>
+      </c>
+      <c r="AB939" t="s">
+        <v>2283</v>
       </c>
     </row>
     <row r="940" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="I940" t="s">
         <v>388</v>
       </c>
       <c r="J940" t="s">
-        <v>3457</v>
-      </c>
-      <c r="K940" t="s">
-        <v>3458</v>
+        <v>2285</v>
       </c>
       <c r="M940" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="941" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="I941" t="s">
         <v>388</v>
       </c>
       <c r="J941" t="s">
-        <v>2285</v>
+        <v>3453</v>
+      </c>
+      <c r="K941" t="s">
+        <v>3454</v>
       </c>
       <c r="M941" t="s">
-        <v>2286</v>
+        <v>3455</v>
+      </c>
+      <c r="N941" t="s">
+        <v>3456</v>
       </c>
     </row>
     <row r="942" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
-        <v>2291</v>
-      </c>
-      <c r="G942" t="s">
-        <v>3662</v>
-      </c>
-      <c r="H942" t="s">
-        <v>3687</v>
+        <v>2288</v>
       </c>
       <c r="I942" t="s">
         <v>388</v>
       </c>
       <c r="J942" t="s">
-        <v>2292</v>
+        <v>3457</v>
+      </c>
+      <c r="K942" t="s">
+        <v>3458</v>
       </c>
       <c r="M942" t="s">
-        <v>2293</v>
-      </c>
-      <c r="S942" t="s">
-        <v>2294</v>
-      </c>
-      <c r="T942" t="s">
-        <v>2295</v>
-      </c>
-      <c r="U942" t="s">
-        <v>2296</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="943" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
-        <v>2297</v>
+        <v>2290</v>
       </c>
       <c r="I943" t="s">
         <v>388</v>
       </c>
       <c r="J943" t="s">
-        <v>2298</v>
+        <v>2285</v>
       </c>
       <c r="M943" t="s">
-        <v>2299</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="944" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B944" s="4" t="s">
-        <v>2300</v>
+        <v>2291</v>
+      </c>
+      <c r="G944" t="s">
+        <v>3662</v>
+      </c>
+      <c r="H944" t="s">
+        <v>3687</v>
       </c>
       <c r="I944" t="s">
         <v>388</v>
       </c>
       <c r="J944" t="s">
-        <v>2301</v>
+        <v>2292</v>
       </c>
       <c r="M944" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="945" spans="1:34" x14ac:dyDescent="0.25">
+        <v>2293</v>
+      </c>
+      <c r="S944" t="s">
+        <v>2294</v>
+      </c>
+      <c r="T944" t="s">
+        <v>2295</v>
+      </c>
+      <c r="U944" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="945" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="I945" t="s">
         <v>388</v>
       </c>
       <c r="J945" t="s">
-        <v>3459</v>
-      </c>
-      <c r="K945" t="s">
-        <v>3460</v>
+        <v>2298</v>
       </c>
       <c r="M945" t="s">
-        <v>3461</v>
-      </c>
-      <c r="N945" t="s">
-        <v>3462</v>
-      </c>
-      <c r="S945" t="s">
-        <v>2304</v>
-      </c>
-      <c r="T945" t="s">
-        <v>2305</v>
-      </c>
-      <c r="U945" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="946" spans="1:34" x14ac:dyDescent="0.25">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="946" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
-        <v>2307</v>
-      </c>
-      <c r="G946" t="s">
-        <v>3541</v>
+        <v>360</v>
+      </c>
+      <c r="B946" s="4" t="s">
+        <v>2300</v>
       </c>
       <c r="I946" t="s">
         <v>388</v>
       </c>
       <c r="J946" t="s">
-        <v>2308</v>
+        <v>2301</v>
       </c>
       <c r="M946" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="947" spans="1:34" x14ac:dyDescent="0.25">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="947" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B947" s="4" t="s">
-        <v>2310</v>
+        <v>2303</v>
       </c>
       <c r="I947" t="s">
         <v>388</v>
       </c>
       <c r="J947" t="s">
-        <v>2311</v>
+        <v>3459</v>
+      </c>
+      <c r="K947" t="s">
+        <v>3460</v>
       </c>
       <c r="M947" t="s">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="948" spans="1:34" x14ac:dyDescent="0.25">
+        <v>3461</v>
+      </c>
+      <c r="N947" t="s">
+        <v>3462</v>
+      </c>
+      <c r="S947" t="s">
+        <v>2304</v>
+      </c>
+      <c r="T947" t="s">
+        <v>2305</v>
+      </c>
+      <c r="U947" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="948" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B948" s="4" t="s">
-        <v>2313</v>
+        <v>2307</v>
+      </c>
+      <c r="G948" t="s">
+        <v>3541</v>
       </c>
       <c r="I948" t="s">
         <v>388</v>
       </c>
       <c r="J948" t="s">
-        <v>3463</v>
-      </c>
-      <c r="K948" t="s">
-        <v>3464</v>
+        <v>2308</v>
       </c>
       <c r="M948" t="s">
-        <v>2314</v>
-      </c>
-      <c r="S948" t="s">
-        <v>1581</v>
-      </c>
-      <c r="T948" t="s">
-        <v>1582</v>
-      </c>
-      <c r="U948" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="949" spans="1:34" x14ac:dyDescent="0.25">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="949" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="G949" t="s">
-        <v>3652</v>
+        <v>580</v>
+      </c>
+      <c r="B949" s="4" t="s">
+        <v>2310</v>
       </c>
       <c r="I949" t="s">
         <v>388</v>
       </c>
       <c r="J949" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="M949" t="s">
-        <v>2316</v>
-      </c>
-      <c r="S949" t="s">
-        <v>2317</v>
-      </c>
-      <c r="T949" t="s">
-        <v>2318</v>
-      </c>
-      <c r="U949" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="950" spans="1:34" x14ac:dyDescent="0.25">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="950" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>2320</v>
+        <v>1698</v>
       </c>
       <c r="B950" s="4" t="s">
-        <v>2321</v>
-      </c>
-      <c r="G950" t="s">
-        <v>3652</v>
+        <v>2313</v>
       </c>
       <c r="I950" t="s">
         <v>388</v>
       </c>
       <c r="J950" t="s">
-        <v>3491</v>
+        <v>3463</v>
+      </c>
+      <c r="K950" t="s">
+        <v>3464</v>
       </c>
       <c r="M950" t="s">
-        <v>3496</v>
+        <v>2314</v>
       </c>
       <c r="S950" t="s">
-        <v>2322</v>
+        <v>1581</v>
       </c>
       <c r="T950" t="s">
-        <v>2323</v>
+        <v>1582</v>
       </c>
       <c r="U950" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="951" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="951" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>2325</v>
+        <v>970</v>
+      </c>
+      <c r="G951" t="s">
+        <v>3652</v>
       </c>
       <c r="I951" t="s">
         <v>388</v>
       </c>
       <c r="J951" t="s">
-        <v>2326</v>
+        <v>2315</v>
       </c>
       <c r="M951" t="s">
-        <v>2327</v>
+        <v>2316</v>
       </c>
       <c r="S951" t="s">
-        <v>2328</v>
+        <v>2317</v>
       </c>
       <c r="T951" t="s">
-        <v>2329</v>
+        <v>2318</v>
       </c>
       <c r="U951" t="s">
-        <v>2330</v>
-      </c>
-    </row>
-    <row r="952" spans="1:34" x14ac:dyDescent="0.25">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="952" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>2331</v>
+        <v>2320</v>
       </c>
       <c r="B952" s="4" t="s">
-        <v>2332</v>
+        <v>2321</v>
+      </c>
+      <c r="G952" t="s">
+        <v>3652</v>
       </c>
       <c r="I952" t="s">
         <v>388</v>
       </c>
       <c r="J952" t="s">
+        <v>3491</v>
+      </c>
+      <c r="M952" t="s">
+        <v>3496</v>
+      </c>
+      <c r="S952" t="s">
+        <v>2322</v>
+      </c>
+      <c r="T952" t="s">
+        <v>2323</v>
+      </c>
+      <c r="U952" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="953" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A953" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I953" t="s">
+        <v>388</v>
+      </c>
+      <c r="J953" t="s">
+        <v>2326</v>
+      </c>
+      <c r="M953" t="s">
+        <v>2327</v>
+      </c>
+      <c r="S953" t="s">
+        <v>2328</v>
+      </c>
+      <c r="T953" t="s">
+        <v>2329</v>
+      </c>
+      <c r="U953" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="954" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A954" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B954" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="I954" t="s">
+        <v>388</v>
+      </c>
+      <c r="J954" t="s">
         <v>2333</v>
       </c>
-      <c r="M952" t="s">
+      <c r="M954" t="s">
         <v>2334</v>
       </c>
     </row>
-    <row r="953" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A953" s="1" t="s">
+    <row r="955" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A955" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="I953" t="s">
+      <c r="I955" t="s">
         <v>2336</v>
       </c>
-      <c r="J953" t="s">
+      <c r="J955" t="s">
         <v>2337</v>
       </c>
-      <c r="M953" t="s">
+      <c r="M955" t="s">
         <v>2338</v>
       </c>
-      <c r="S953" t="s">
+      <c r="S955" t="s">
         <v>2339</v>
       </c>
-      <c r="T953" t="s">
+      <c r="T955" t="s">
         <v>2340</v>
       </c>
-      <c r="U953" t="s">
+      <c r="U955" t="s">
         <v>2341</v>
       </c>
     </row>
-    <row r="954" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A954" s="1" t="s">
+    <row r="956" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A956" s="1" t="s">
         <v>2342</v>
       </c>
-      <c r="I954" t="s">
-        <v>19</v>
-      </c>
-      <c r="J954" t="s">
+      <c r="I956" t="s">
+        <v>19</v>
+      </c>
+      <c r="J956" t="s">
         <v>3465</v>
       </c>
-      <c r="K954" t="s">
+      <c r="K956" t="s">
         <v>3466</v>
       </c>
-      <c r="M954" t="s">
+      <c r="M956" t="s">
         <v>2343</v>
       </c>
-      <c r="S954" t="s">
+      <c r="S956" t="s">
         <v>2344</v>
       </c>
-      <c r="T954" t="s">
+      <c r="T956" t="s">
         <v>2345</v>
       </c>
-      <c r="U954" t="s">
+      <c r="U956" t="s">
         <v>2346</v>
       </c>
     </row>
-    <row r="955" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A955" s="1" t="s">
+    <row r="957" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A957" s="1" t="s">
         <v>2347</v>
-      </c>
-      <c r="I955" t="s">
-        <v>388</v>
-      </c>
-      <c r="J955" t="s">
-        <v>2348</v>
-      </c>
-      <c r="M955" t="s">
-        <v>2349</v>
-      </c>
-      <c r="X955" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y955" t="s">
-        <v>2350</v>
-      </c>
-      <c r="AB955" t="s">
-        <v>3467</v>
-      </c>
-      <c r="AC955" t="s">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="956" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A956" s="1" t="s">
-        <v>2351</v>
-      </c>
-      <c r="B956" s="4" t="s">
-        <v>2352</v>
-      </c>
-      <c r="G956" t="s">
-        <v>3662</v>
-      </c>
-      <c r="I956" t="s">
-        <v>388</v>
-      </c>
-      <c r="J956" t="s">
-        <v>2353</v>
-      </c>
-      <c r="M956" t="s">
-        <v>2354</v>
-      </c>
-      <c r="S956" t="s">
-        <v>2355</v>
-      </c>
-      <c r="T956" t="s">
-        <v>2356</v>
-      </c>
-      <c r="U956" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="957" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A957" s="1" t="s">
-        <v>2358</v>
-      </c>
-      <c r="G957" t="s">
-        <v>3652</v>
       </c>
       <c r="I957" t="s">
         <v>388</v>
       </c>
       <c r="J957" t="s">
-        <v>2359</v>
+        <v>2348</v>
       </c>
       <c r="M957" t="s">
-        <v>2360</v>
-      </c>
-      <c r="V957" t="s">
-        <v>3688</v>
+        <v>2349</v>
       </c>
       <c r="X957" t="s">
-        <v>1586</v>
+        <v>19</v>
       </c>
       <c r="Y957" t="s">
-        <v>2361</v>
+        <v>2350</v>
       </c>
       <c r="AB957" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="AC957" t="s">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="958" spans="1:34" x14ac:dyDescent="0.25">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="958" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
-        <v>2362</v>
+        <v>2351</v>
+      </c>
+      <c r="B958" s="4" t="s">
+        <v>2352</v>
       </c>
       <c r="G958" t="s">
-        <v>3688</v>
+        <v>3662</v>
       </c>
       <c r="I958" t="s">
         <v>388</v>
       </c>
       <c r="J958" t="s">
-        <v>2363</v>
+        <v>2353</v>
       </c>
       <c r="M958" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="959" spans="1:34" x14ac:dyDescent="0.25">
+        <v>2354</v>
+      </c>
+      <c r="S958" t="s">
+        <v>2355</v>
+      </c>
+      <c r="T958" t="s">
+        <v>2356</v>
+      </c>
+      <c r="U958" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="959" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
-        <v>2365</v>
+        <v>2358</v>
       </c>
       <c r="G959" t="s">
-        <v>3688</v>
-      </c>
-      <c r="H959" t="s">
-        <v>3636</v>
+        <v>3652</v>
       </c>
       <c r="I959" t="s">
         <v>388</v>
       </c>
       <c r="J959" t="s">
-        <v>2366</v>
-      </c>
-      <c r="K959" t="s">
-        <v>3322</v>
+        <v>2359</v>
       </c>
       <c r="M959" t="s">
-        <v>2367</v>
-      </c>
-      <c r="S959" t="s">
-        <v>2368</v>
-      </c>
-      <c r="T959" t="s">
-        <v>2369</v>
-      </c>
-      <c r="U959" t="s">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="V959" t="s">
         <v>3688</v>
       </c>
-      <c r="W959" t="s">
-        <v>3636</v>
+      <c r="X959" t="s">
+        <v>1586</v>
       </c>
       <c r="Y959" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="AB959" t="s">
-        <v>2367</v>
-      </c>
-      <c r="AF959" t="s">
-        <v>2371</v>
-      </c>
-      <c r="AG959" t="s">
-        <v>2372</v>
-      </c>
-      <c r="AH959" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="960" spans="1:34" x14ac:dyDescent="0.25">
+        <v>3469</v>
+      </c>
+      <c r="AC959" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="960" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B960" s="4" t="s">
-        <v>2374</v>
+        <v>2362</v>
+      </c>
+      <c r="G960" t="s">
+        <v>3688</v>
       </c>
       <c r="I960" t="s">
         <v>388</v>
       </c>
       <c r="J960" t="s">
-        <v>2375</v>
+        <v>2363</v>
       </c>
       <c r="M960" t="s">
-        <v>1701</v>
-      </c>
-      <c r="S960" t="s">
-        <v>2376</v>
-      </c>
-      <c r="T960" t="s">
-        <v>2162</v>
-      </c>
-      <c r="U960" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="961" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="961" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
-        <v>2377</v>
+        <v>2365</v>
       </c>
       <c r="G961" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="H961" t="s">
         <v>3636</v>
@@ -54062,251 +54284,278 @@
         <v>388</v>
       </c>
       <c r="J961" t="s">
-        <v>2378</v>
+        <v>2366</v>
+      </c>
+      <c r="K961" t="s">
+        <v>3322</v>
       </c>
       <c r="M961" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="962" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2367</v>
+      </c>
+      <c r="S961" t="s">
+        <v>2368</v>
+      </c>
+      <c r="T961" t="s">
+        <v>2369</v>
+      </c>
+      <c r="U961" t="s">
+        <v>2370</v>
+      </c>
+      <c r="V961" t="s">
+        <v>3688</v>
+      </c>
+      <c r="W961" t="s">
+        <v>3636</v>
+      </c>
+      <c r="Y961" t="s">
+        <v>2366</v>
+      </c>
+      <c r="AB961" t="s">
+        <v>2367</v>
+      </c>
+      <c r="AF961" t="s">
+        <v>2371</v>
+      </c>
+      <c r="AG961" t="s">
+        <v>2372</v>
+      </c>
+      <c r="AH961" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="962" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G962" t="s">
-        <v>3652</v>
+        <v>1698</v>
+      </c>
+      <c r="B962" s="4" t="s">
+        <v>2374</v>
       </c>
       <c r="I962" t="s">
         <v>388</v>
       </c>
       <c r="J962" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="M962" t="s">
-        <v>3471</v>
-      </c>
-      <c r="N962" t="s">
-        <v>3472</v>
-      </c>
-      <c r="V962" t="s">
-        <v>3652</v>
-      </c>
-      <c r="Y962" t="s">
-        <v>2381</v>
-      </c>
-      <c r="AB962" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="963" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1701</v>
+      </c>
+      <c r="S962" t="s">
+        <v>2376</v>
+      </c>
+      <c r="T962" t="s">
+        <v>2162</v>
+      </c>
+      <c r="U962" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="963" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="G963" t="s">
-        <v>3652</v>
+        <v>3689</v>
+      </c>
+      <c r="H963" t="s">
+        <v>3636</v>
       </c>
       <c r="I963" t="s">
         <v>388</v>
       </c>
       <c r="J963" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="M963" t="s">
-        <v>2384</v>
-      </c>
-      <c r="S963" t="s">
-        <v>2385</v>
-      </c>
-      <c r="T963" t="s">
-        <v>2386</v>
-      </c>
-      <c r="U963" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="964" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="964" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>2388</v>
+        <v>1026</v>
       </c>
       <c r="G964" t="s">
-        <v>3690</v>
+        <v>3652</v>
       </c>
       <c r="I964" t="s">
         <v>388</v>
       </c>
       <c r="J964" t="s">
-        <v>2389</v>
+        <v>2380</v>
       </c>
       <c r="M964" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="965" spans="1:28" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+      <c r="N964" t="s">
+        <v>3472</v>
+      </c>
+      <c r="V964" t="s">
+        <v>3652</v>
+      </c>
+      <c r="Y964" t="s">
+        <v>2381</v>
+      </c>
+      <c r="AB964" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="965" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
-        <v>2390</v>
+        <v>2382</v>
       </c>
       <c r="G965" t="s">
-        <v>3662</v>
+        <v>3652</v>
       </c>
       <c r="I965" t="s">
         <v>388</v>
       </c>
       <c r="J965" t="s">
-        <v>2391</v>
+        <v>2383</v>
       </c>
       <c r="M965" t="s">
-        <v>2392</v>
-      </c>
-      <c r="Y965" t="s">
-        <v>2393</v>
-      </c>
-      <c r="AB965" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="966" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2384</v>
+      </c>
+      <c r="S965" t="s">
+        <v>2385</v>
+      </c>
+      <c r="T965" t="s">
+        <v>2386</v>
+      </c>
+      <c r="U965" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="966" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
-        <v>2395</v>
+        <v>2388</v>
       </c>
       <c r="G966" t="s">
-        <v>3662</v>
+        <v>3690</v>
       </c>
       <c r="I966" t="s">
         <v>388</v>
       </c>
       <c r="J966" t="s">
-        <v>2396</v>
+        <v>2389</v>
       </c>
       <c r="M966" t="s">
-        <v>3473</v>
-      </c>
-      <c r="N966" t="s">
-        <v>3474</v>
-      </c>
-      <c r="S966" t="s">
-        <v>2397</v>
-      </c>
-      <c r="T966" t="s">
-        <v>2398</v>
-      </c>
-      <c r="U966" t="s">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="967" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="967" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
-        <v>2400</v>
+        <v>2390</v>
       </c>
       <c r="G967" t="s">
-        <v>3634</v>
-      </c>
-      <c r="H967" t="s">
-        <v>3615</v>
+        <v>3662</v>
       </c>
       <c r="I967" t="s">
         <v>388</v>
       </c>
       <c r="J967" t="s">
-        <v>2401</v>
+        <v>2391</v>
       </c>
       <c r="M967" t="s">
-        <v>2402</v>
-      </c>
-      <c r="S967" t="s">
-        <v>2403</v>
-      </c>
-      <c r="T967" t="s">
-        <v>2404</v>
-      </c>
-      <c r="U967" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="968" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2392</v>
+      </c>
+      <c r="Y967" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AB967" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="968" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
-        <v>2406</v>
+        <v>2395</v>
+      </c>
+      <c r="G968" t="s">
+        <v>3662</v>
       </c>
       <c r="I968" t="s">
         <v>388</v>
       </c>
       <c r="J968" t="s">
-        <v>2407</v>
+        <v>2396</v>
       </c>
       <c r="M968" t="s">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="969" spans="1:28" x14ac:dyDescent="0.25">
+        <v>3473</v>
+      </c>
+      <c r="N968" t="s">
+        <v>3474</v>
+      </c>
+      <c r="S968" t="s">
+        <v>2397</v>
+      </c>
+      <c r="T968" t="s">
+        <v>2398</v>
+      </c>
+      <c r="U968" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="969" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>2409</v>
+        <v>2400</v>
       </c>
       <c r="G969" t="s">
+        <v>3634</v>
+      </c>
+      <c r="H969" t="s">
         <v>3615</v>
       </c>
       <c r="I969" t="s">
         <v>388</v>
       </c>
       <c r="J969" t="s">
-        <v>2410</v>
+        <v>2401</v>
       </c>
       <c r="M969" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="970" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2402</v>
+      </c>
+      <c r="S969" t="s">
+        <v>2403</v>
+      </c>
+      <c r="T969" t="s">
+        <v>2404</v>
+      </c>
+      <c r="U969" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="970" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
-        <v>2412</v>
-      </c>
-      <c r="G970" t="s">
-        <v>3691</v>
+        <v>2406</v>
       </c>
       <c r="I970" t="s">
         <v>388</v>
       </c>
       <c r="J970" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="M970" t="s">
-        <v>2414</v>
-      </c>
-      <c r="S970" t="s">
-        <v>2415</v>
-      </c>
-      <c r="T970" t="s">
-        <v>2416</v>
-      </c>
-      <c r="U970" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="971" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="971" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
-        <v>2418</v>
+        <v>2409</v>
       </c>
       <c r="G971" t="s">
-        <v>3692</v>
+        <v>3615</v>
       </c>
       <c r="I971" t="s">
         <v>388</v>
       </c>
       <c r="J971" t="s">
-        <v>2419</v>
+        <v>2410</v>
       </c>
       <c r="M971" t="s">
-        <v>2420</v>
-      </c>
-      <c r="S971" t="s">
-        <v>2403</v>
-      </c>
-      <c r="T971" t="s">
-        <v>2404</v>
-      </c>
-      <c r="U971" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="972" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="972" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
-        <v>2421</v>
+        <v>2412</v>
       </c>
       <c r="G972" t="s">
         <v>3691</v>
@@ -54315,118 +54564,133 @@
         <v>388</v>
       </c>
       <c r="J972" t="s">
-        <v>3475</v>
-      </c>
-      <c r="K972" t="s">
-        <v>3476</v>
+        <v>2413</v>
       </c>
       <c r="M972" t="s">
-        <v>3477</v>
-      </c>
-      <c r="N972" t="s">
-        <v>3478</v>
-      </c>
-    </row>
-    <row r="973" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2414</v>
+      </c>
+      <c r="S972" t="s">
+        <v>2415</v>
+      </c>
+      <c r="T972" t="s">
+        <v>2416</v>
+      </c>
+      <c r="U972" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="973" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
-        <v>2558</v>
+        <v>2418</v>
       </c>
       <c r="G973" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="I973" t="s">
         <v>388</v>
       </c>
       <c r="J973" t="s">
+        <v>2419</v>
+      </c>
+      <c r="M973" t="s">
+        <v>2420</v>
+      </c>
+      <c r="S973" t="s">
+        <v>2403</v>
+      </c>
+      <c r="T973" t="s">
+        <v>2404</v>
+      </c>
+      <c r="U973" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="974" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A974" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="G974" t="s">
+        <v>3691</v>
+      </c>
+      <c r="I974" t="s">
+        <v>388</v>
+      </c>
+      <c r="J974" t="s">
+        <v>3475</v>
+      </c>
+      <c r="K974" t="s">
+        <v>3476</v>
+      </c>
+      <c r="M974" t="s">
+        <v>3477</v>
+      </c>
+      <c r="N974" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="975" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A975" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G975" t="s">
+        <v>3691</v>
+      </c>
+      <c r="I975" t="s">
+        <v>388</v>
+      </c>
+      <c r="J975" t="s">
         <v>2559</v>
       </c>
-      <c r="M973" t="s">
+      <c r="M975" t="s">
         <v>2560</v>
       </c>
-      <c r="S973" t="s">
+      <c r="S975" t="s">
         <v>2561</v>
       </c>
-      <c r="T973" t="s">
+      <c r="T975" t="s">
         <v>2562</v>
       </c>
-      <c r="U973" t="s">
+      <c r="U975" t="s">
         <v>2563</v>
       </c>
     </row>
-    <row r="974" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A974" s="1" t="s">
+    <row r="976" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A976" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="G974" t="s">
+      <c r="G976" t="s">
         <v>3693</v>
       </c>
-      <c r="I974" t="s">
-        <v>19</v>
-      </c>
-      <c r="J974" t="s">
+      <c r="I976" t="s">
+        <v>19</v>
+      </c>
+      <c r="J976" t="s">
         <v>2565</v>
       </c>
-      <c r="M974" t="s">
+      <c r="M976" t="s">
         <v>2566</v>
       </c>
     </row>
-    <row r="975" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A975" s="1" t="s">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A977" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="G975" t="s">
-        <v>3507</v>
-      </c>
-      <c r="I975" t="s">
-        <v>19</v>
-      </c>
-      <c r="J975" t="s">
-        <v>2568</v>
-      </c>
-      <c r="M975" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="976" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A976" s="1" t="s">
-        <v>2570</v>
-      </c>
-      <c r="G976" t="s">
-        <v>3507</v>
-      </c>
-      <c r="I976" t="s">
-        <v>19</v>
-      </c>
-      <c r="J976" t="s">
-        <v>2571</v>
-      </c>
-      <c r="M976" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="977" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A977" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="G977" t="s">
         <v>3507</v>
       </c>
-      <c r="H977" t="s">
-        <v>3694</v>
-      </c>
       <c r="I977" t="s">
         <v>19</v>
       </c>
       <c r="J977" t="s">
-        <v>2574</v>
+        <v>2568</v>
       </c>
       <c r="M977" t="s">
-        <v>2574</v>
-      </c>
-    </row>
-    <row r="978" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="978" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="G978" t="s">
         <v>3507</v>
@@ -54435,304 +54699,745 @@
         <v>19</v>
       </c>
       <c r="J978" t="s">
+        <v>2571</v>
+      </c>
+      <c r="M978" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="979" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A979" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G979" t="s">
+        <v>3507</v>
+      </c>
+      <c r="H979" t="s">
+        <v>3694</v>
+      </c>
+      <c r="I979" t="s">
+        <v>19</v>
+      </c>
+      <c r="J979" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M979" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="980" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A980" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="G980" t="s">
+        <v>3507</v>
+      </c>
+      <c r="I980" t="s">
+        <v>19</v>
+      </c>
+      <c r="J980" t="s">
         <v>2576</v>
       </c>
-      <c r="M978" t="s">
+      <c r="M980" t="s">
         <v>2577</v>
       </c>
-      <c r="S978" t="s">
+      <c r="S980" t="s">
         <v>2578</v>
       </c>
-      <c r="T978" t="s">
+      <c r="T980" t="s">
         <v>2579</v>
       </c>
-      <c r="U978" t="s">
+      <c r="U980" t="s">
         <v>2580</v>
       </c>
     </row>
-    <row r="979" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A979" s="1" t="s">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A981" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="G979" t="s">
+      <c r="G981" t="s">
         <v>3533</v>
       </c>
-      <c r="I979" t="s">
-        <v>19</v>
-      </c>
-      <c r="J979" t="s">
+      <c r="I981" t="s">
+        <v>19</v>
+      </c>
+      <c r="J981" t="s">
         <v>2582</v>
       </c>
-      <c r="M979" t="s">
+      <c r="M981" t="s">
         <v>2583</v>
       </c>
     </row>
-    <row r="980" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A980" s="1" t="s">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A982" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="G980" t="s">
+      <c r="G982" t="s">
         <v>3533</v>
       </c>
-      <c r="I980" t="s">
-        <v>19</v>
-      </c>
-      <c r="J980" t="s">
+      <c r="I982" t="s">
+        <v>19</v>
+      </c>
+      <c r="J982" t="s">
         <v>2585</v>
       </c>
-      <c r="M980" t="s">
+      <c r="M982" t="s">
         <v>2586</v>
       </c>
     </row>
-    <row r="981" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A981" s="1" t="s">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A983" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="G981" t="s">
+      <c r="G983" t="s">
         <v>3695</v>
       </c>
-      <c r="H981" t="s">
+      <c r="H983" t="s">
         <v>3652</v>
-      </c>
-      <c r="I981" t="s">
-        <v>388</v>
-      </c>
-      <c r="J981" t="s">
-        <v>2702</v>
-      </c>
-      <c r="M981" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="982" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A982" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="G982" t="s">
-        <v>3696</v>
-      </c>
-      <c r="I982" t="s">
-        <v>388</v>
-      </c>
-      <c r="J982" t="s">
-        <v>2704</v>
-      </c>
-      <c r="M982" t="s">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="983" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A983" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G983" t="s">
-        <v>3615</v>
       </c>
       <c r="I983" t="s">
         <v>388</v>
       </c>
       <c r="J983" t="s">
+        <v>2702</v>
+      </c>
+      <c r="M983" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="984" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A984" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G984" t="s">
+        <v>3696</v>
+      </c>
+      <c r="I984" t="s">
+        <v>388</v>
+      </c>
+      <c r="J984" t="s">
+        <v>2704</v>
+      </c>
+      <c r="M984" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="985" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A985" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G985" t="s">
+        <v>3615</v>
+      </c>
+      <c r="I985" t="s">
+        <v>388</v>
+      </c>
+      <c r="J985" t="s">
         <v>2706</v>
       </c>
-      <c r="M983" t="s">
+      <c r="M985" t="s">
         <v>2707</v>
       </c>
     </row>
-    <row r="984" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A984" s="1" t="s">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A986" s="1" t="s">
         <v>3479</v>
       </c>
-      <c r="G984" t="s">
+      <c r="G986" t="s">
         <v>3637</v>
       </c>
-      <c r="H984" t="s">
+      <c r="H986" t="s">
         <v>3697</v>
       </c>
-      <c r="I984" t="s">
+      <c r="I986" t="s">
         <v>1602</v>
       </c>
-      <c r="J984" t="s">
+      <c r="J986" t="s">
         <v>3480</v>
       </c>
-      <c r="M984" t="s">
+      <c r="M986" t="s">
         <v>3481</v>
       </c>
-      <c r="S984" t="s">
+      <c r="S986" t="s">
         <v>3482</v>
       </c>
-      <c r="T984" t="s">
+      <c r="T986" t="s">
         <v>3318</v>
       </c>
-      <c r="U984" t="s">
+      <c r="U986" t="s">
         <v>3319</v>
       </c>
     </row>
-    <row r="985" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A985" s="1" t="s">
+    <row r="987" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A987" s="1" t="s">
         <v>3760</v>
       </c>
-      <c r="I985" t="s">
+      <c r="I987" t="s">
         <v>1602</v>
       </c>
-      <c r="J985" t="s">
+      <c r="J987" t="s">
         <v>3761</v>
       </c>
-      <c r="M985" t="s">
+      <c r="M987" t="s">
         <v>3762</v>
       </c>
     </row>
-    <row r="986" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A986" s="1" t="s">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A988" s="1" t="s">
         <v>3763</v>
       </c>
-      <c r="I986" t="s">
+      <c r="I988" t="s">
         <v>3764</v>
       </c>
-      <c r="J986" t="s">
+      <c r="J988" t="s">
         <v>3765</v>
       </c>
-      <c r="M986" t="s">
+      <c r="M988" t="s">
         <v>3766</v>
       </c>
     </row>
-    <row r="987" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A987" s="1" t="s">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A989" s="1" t="s">
         <v>3767</v>
       </c>
-      <c r="I987" t="s">
+      <c r="I989" t="s">
         <v>3764</v>
       </c>
-      <c r="J987" t="s">
+      <c r="J989" t="s">
         <v>3765</v>
       </c>
-      <c r="M987" t="s">
+      <c r="M989" t="s">
         <v>3766</v>
       </c>
     </row>
-    <row r="988" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A988" s="1" t="s">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A990" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="G988" t="s">
+      <c r="G990" t="s">
         <v>3570</v>
       </c>
-      <c r="I988" t="s">
-        <v>19</v>
-      </c>
-      <c r="J988" t="s">
+      <c r="I990" t="s">
+        <v>19</v>
+      </c>
+      <c r="J990" t="s">
         <v>3768</v>
       </c>
-      <c r="M988" t="s">
+      <c r="M990" t="s">
         <v>3769</v>
       </c>
     </row>
-    <row r="989" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A989" s="1" t="s">
+    <row r="991" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A991" s="1" t="s">
         <v>3770</v>
       </c>
-      <c r="I989" t="s">
-        <v>19</v>
-      </c>
-      <c r="J989" t="s">
+      <c r="I991" t="s">
+        <v>19</v>
+      </c>
+      <c r="J991" t="s">
         <v>3771</v>
       </c>
-      <c r="M989" t="s">
+      <c r="M991" t="s">
         <v>3772</v>
       </c>
-      <c r="S989" t="s">
+      <c r="S991" t="s">
         <v>3773</v>
       </c>
-      <c r="T989" t="s">
+      <c r="T991" t="s">
         <v>3774</v>
       </c>
-      <c r="U989" t="s">
+      <c r="U991" t="s">
         <v>3775</v>
       </c>
     </row>
-    <row r="990" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A990" s="1" t="s">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A992" s="1" t="s">
         <v>3776</v>
       </c>
-      <c r="I990" t="s">
+      <c r="I992" t="s">
         <v>388</v>
       </c>
-      <c r="J990" t="s">
+      <c r="J992" t="s">
         <v>3777</v>
       </c>
-      <c r="M990" t="s">
+      <c r="M992" t="s">
         <v>3778</v>
       </c>
-      <c r="S990" t="s">
+      <c r="S992" t="s">
         <v>3779</v>
       </c>
-      <c r="T990" t="s">
+      <c r="T992" t="s">
         <v>3780</v>
       </c>
-      <c r="U990" t="s">
+      <c r="U992" t="s">
         <v>3781</v>
       </c>
     </row>
-    <row r="991" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A991" s="1" t="s">
+    <row r="993" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A993" s="1" t="s">
         <v>3782</v>
       </c>
-      <c r="B991" s="4" t="s">
+      <c r="B993" s="4" t="s">
         <v>3783</v>
-      </c>
-      <c r="I991" t="s">
-        <v>388</v>
-      </c>
-      <c r="J991" t="s">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="992" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A992" s="1" t="s">
-        <v>3785</v>
-      </c>
-      <c r="B992" s="4" t="s">
-        <v>3786</v>
-      </c>
-      <c r="I992" t="s">
-        <v>19</v>
-      </c>
-      <c r="J992" t="s">
-        <v>3787</v>
-      </c>
-      <c r="M992" t="s">
-        <v>3788</v>
-      </c>
-      <c r="Y992" t="s">
-        <v>3789</v>
-      </c>
-      <c r="AB992" t="s">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="993" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A993" s="1" t="s">
-        <v>3791</v>
-      </c>
-      <c r="G993" t="s">
-        <v>3696</v>
       </c>
       <c r="I993" t="s">
         <v>388</v>
       </c>
       <c r="J993" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="994" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A994" s="1" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>3786</v>
+      </c>
+      <c r="I994" t="s">
+        <v>19</v>
+      </c>
+      <c r="J994" t="s">
+        <v>3787</v>
+      </c>
+      <c r="M994" t="s">
+        <v>3788</v>
+      </c>
+      <c r="Y994" t="s">
+        <v>3789</v>
+      </c>
+      <c r="AB994" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="995" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A995" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="G995" t="s">
+        <v>3696</v>
+      </c>
+      <c r="I995" t="s">
+        <v>388</v>
+      </c>
+      <c r="J995" t="s">
         <v>3792</v>
       </c>
-      <c r="M993" t="s">
+      <c r="M995" t="s">
         <v>3793</v>
       </c>
-      <c r="S993" t="s">
+      <c r="S995" t="s">
         <v>3794</v>
       </c>
-      <c r="T993" t="s">
+      <c r="T995" t="s">
         <v>3795</v>
       </c>
-      <c r="U993" t="s">
+      <c r="U995" t="s">
         <v>3796</v>
+      </c>
+    </row>
+    <row r="996" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A996" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="G996" t="s">
+        <v>3696</v>
+      </c>
+      <c r="I996" t="s">
+        <v>19</v>
+      </c>
+      <c r="J996" t="s">
+        <v>3808</v>
+      </c>
+      <c r="M996" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="997" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A997" s="1" t="s">
+        <v>3810</v>
+      </c>
+      <c r="G997" t="s">
+        <v>3632</v>
+      </c>
+      <c r="H997" t="s">
+        <v>3811</v>
+      </c>
+      <c r="I997" t="s">
+        <v>19</v>
+      </c>
+      <c r="J997" t="s">
+        <v>3307</v>
+      </c>
+      <c r="M997" t="s">
+        <v>3812</v>
+      </c>
+      <c r="R997" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="998" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A998" s="1" t="s">
+        <v>3814</v>
+      </c>
+      <c r="G998" t="s">
+        <v>3632</v>
+      </c>
+      <c r="H998" t="s">
+        <v>3811</v>
+      </c>
+      <c r="I998" t="s">
+        <v>19</v>
+      </c>
+      <c r="J998" t="s">
+        <v>3815</v>
+      </c>
+      <c r="M998" t="s">
+        <v>3816</v>
+      </c>
+      <c r="N998" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="999" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A999" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G999" t="s">
+        <v>3632</v>
+      </c>
+      <c r="H999" t="s">
+        <v>3633</v>
+      </c>
+      <c r="I999" t="s">
+        <v>19</v>
+      </c>
+      <c r="J999" t="s">
+        <v>3752</v>
+      </c>
+      <c r="M999" t="s">
+        <v>3818</v>
+      </c>
+      <c r="R999" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>3821</v>
+      </c>
+      <c r="G1000" t="s">
+        <v>3599</v>
+      </c>
+      <c r="H1000" t="s">
+        <v>3597</v>
+      </c>
+      <c r="I1000" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1000" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>3823</v>
+      </c>
+      <c r="I1001" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1001" t="s">
+        <v>3824</v>
+      </c>
+      <c r="M1001" t="s">
+        <v>3809</v>
+      </c>
+      <c r="R1001" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1" t="s">
+        <v>3826</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>3501</v>
+      </c>
+      <c r="I1002" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1002" t="s">
+        <v>3827</v>
+      </c>
+      <c r="M1002" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1" t="s">
+        <v>3829</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>3556</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>3559</v>
+      </c>
+      <c r="I1003" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1003" t="s">
+        <v>3830</v>
+      </c>
+      <c r="M1003" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1" t="s">
+        <v>3832</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>3556</v>
+      </c>
+      <c r="H1004" t="s">
+        <v>3559</v>
+      </c>
+      <c r="I1004" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1004" t="s">
+        <v>3833</v>
+      </c>
+      <c r="M1004" t="s">
+        <v>3834</v>
+      </c>
+      <c r="R1004" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1" t="s">
+        <v>3836</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>3556</v>
+      </c>
+      <c r="H1005" t="s">
+        <v>3559</v>
+      </c>
+      <c r="I1005" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1005" t="s">
+        <v>3837</v>
+      </c>
+      <c r="M1005" t="s">
+        <v>3838</v>
+      </c>
+      <c r="R1005" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>3556</v>
+      </c>
+      <c r="H1006" t="s">
+        <v>3559</v>
+      </c>
+      <c r="I1006" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1006" t="s">
+        <v>3841</v>
+      </c>
+      <c r="M1006" t="s">
+        <v>3842</v>
+      </c>
+      <c r="R1006" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1" t="s">
+        <v>3844</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>3590</v>
+      </c>
+      <c r="H1007" t="s">
+        <v>3845</v>
+      </c>
+      <c r="I1007" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1007" t="s">
+        <v>3846</v>
+      </c>
+      <c r="M1007" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1" t="s">
+        <v>3848</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>3572</v>
+      </c>
+      <c r="I1008" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1008" t="s">
+        <v>3849</v>
+      </c>
+      <c r="K1008" t="s">
+        <v>3850</v>
+      </c>
+      <c r="L1008" t="s">
+        <v>3851</v>
+      </c>
+      <c r="M1008" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1009" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="I1009" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1009" t="s">
+        <v>3854</v>
+      </c>
+      <c r="K1009" t="s">
+        <v>3855</v>
+      </c>
+      <c r="M1009" t="s">
+        <v>3856</v>
+      </c>
+      <c r="S1009" t="s">
+        <v>3857</v>
+      </c>
+      <c r="T1009" t="s">
+        <v>3858</v>
+      </c>
+      <c r="U1009" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1" t="s">
+        <v>3860</v>
+      </c>
+      <c r="I1010" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1010" t="s">
+        <v>3861</v>
+      </c>
+      <c r="M1010" t="s">
+        <v>3862</v>
+      </c>
+      <c r="S1010" t="s">
+        <v>3863</v>
+      </c>
+      <c r="T1010" t="s">
+        <v>3864</v>
+      </c>
+      <c r="U1010" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1011" s="1" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>3867</v>
+      </c>
+      <c r="I1011" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1011" t="s">
+        <v>3868</v>
+      </c>
+      <c r="M1011" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>3870</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>3572</v>
+      </c>
+      <c r="I1012" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1012" t="s">
+        <v>3871</v>
+      </c>
+      <c r="M1012" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1013" s="1" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>3874</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>3572</v>
+      </c>
+      <c r="H1013" t="s">
+        <v>3683</v>
+      </c>
+      <c r="I1013" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1013" t="s">
+        <v>3875</v>
+      </c>
+      <c r="M1013" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1014" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>3572</v>
+      </c>
+      <c r="I1014" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1014" t="s">
+        <v>3878</v>
+      </c>
+      <c r="M1014" t="s">
+        <v>3879</v>
       </c>
     </row>
   </sheetData>
